--- a/doc/03_ファイル構成一覧表_ダチョウの群れ.xlsx
+++ b/doc/03_ファイル構成一覧表_ダチョウの群れ.xlsx
@@ -1,20 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\C3\doc\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F82FC56-242F-4648-82EB-8E27E64816FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="900" yWindow="900" windowWidth="21624" windowHeight="10920" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sample" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Java(Servlet,DAO)" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="jsp" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="css" sheetId="4" r:id="rId7"/>
+    <sheet name="Sample" sheetId="1" r:id="rId1"/>
+    <sheet name="Java(Servlet,DAO)" sheetId="2" r:id="rId2"/>
+    <sheet name="jsp" sheetId="3" r:id="rId3"/>
+    <sheet name="css" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sample!$C$2:$N$25</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">'Java(Servlet,DAO)'!$A$2:$L$25</definedName>
-    <definedName hidden="1" localSheetId="2" name="_xlnm._FilterDatabase">jsp!$A$2:$L$32</definedName>
-    <definedName hidden="1" localSheetId="3" name="_xlnm._FilterDatabase">css!$A$2:$L$23</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">css!$A$2:$L$23</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Java(Servlet,DAO)'!$A$2:$L$25</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">jsp!$A$2:$L$32</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sample!$C$2:$N$25</definedName>
   </definedNames>
-  <calcPr/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -900,43 +923,53 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF1F1F1F"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -944,7 +977,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -960,7 +993,13 @@
     </fill>
   </fills>
   <borders count="5">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -974,21 +1013,30 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -998,104 +1046,83 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+  <cellXfs count="17">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1285,38 +1312,38 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="B1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" hidden="1" min="1" max="1" width="8.71"/>
-    <col customWidth="1" min="2" max="3" width="8.71"/>
-    <col customWidth="1" min="4" max="4" width="9.71"/>
-    <col customWidth="1" min="5" max="5" width="26.14"/>
-    <col customWidth="1" min="6" max="6" width="20.0"/>
-    <col customWidth="1" min="7" max="7" width="51.43"/>
-    <col customWidth="1" min="8" max="11" width="14.43"/>
-    <col customWidth="1" min="12" max="12" width="13.0"/>
-    <col customWidth="1" min="13" max="13" width="14.43"/>
-    <col customWidth="1" min="14" max="14" width="16.14"/>
-    <col customWidth="1" min="15" max="26" width="8.71"/>
+    <col min="1" max="1" width="8.7109375" hidden="1" customWidth="1"/>
+    <col min="2" max="3" width="8.7109375" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" customWidth="1"/>
+    <col min="5" max="5" width="26.140625" customWidth="1"/>
+    <col min="6" max="6" width="20" customWidth="1"/>
+    <col min="7" max="7" width="51.42578125" customWidth="1"/>
+    <col min="8" max="11" width="14.42578125" customWidth="1"/>
+    <col min="12" max="12" width="13" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" customWidth="1"/>
+    <col min="14" max="14" width="16.140625" customWidth="1"/>
+    <col min="15" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75" customHeight="1">
+    <row r="1" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" ht="18.75" customHeight="1">
+    <row r="2" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1354,12 +1381,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" ht="18.75" customHeight="1">
+    <row r="3" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="3">
-        <f t="shared" ref="C3:C25" si="1">ROW()-2</f>
+        <f t="shared" ref="C3:C25" si="0">ROW()-2</f>
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
@@ -1382,12 +1409,12 @@
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
     </row>
-    <row r="4" ht="18.75" customHeight="1">
+    <row r="4" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C4" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="D4" s="3" t="s">
@@ -1410,12 +1437,12 @@
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
     </row>
-    <row r="5" ht="18.75" customHeight="1">
+    <row r="5" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C5" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="D5" s="3" t="s">
@@ -1438,12 +1465,12 @@
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
     </row>
-    <row r="6" ht="18.75" customHeight="1">
+    <row r="6" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C6" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="D6" s="3" t="s">
@@ -1466,12 +1493,12 @@
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
     </row>
-    <row r="7" ht="18.75" customHeight="1">
+    <row r="7" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C7" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="D7" s="3" t="s">
@@ -1494,9 +1521,9 @@
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
     </row>
-    <row r="8" ht="18.75" customHeight="1">
+    <row r="8" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="D8" s="3" t="s">
@@ -1519,9 +1546,9 @@
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
     </row>
-    <row r="9" ht="18.75" customHeight="1">
+    <row r="9" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C9" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="D9" s="3" t="s">
@@ -1544,9 +1571,9 @@
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
     </row>
-    <row r="10" ht="18.75" customHeight="1">
+    <row r="10" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C10" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="D10" s="3" t="s">
@@ -1569,9 +1596,9 @@
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
     </row>
-    <row r="11" ht="18.75" customHeight="1">
+    <row r="11" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C11" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="D11" s="3" t="s">
@@ -1594,9 +1621,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
     </row>
-    <row r="12" ht="18.75" customHeight="1">
+    <row r="12" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C12" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="D12" s="3" t="s">
@@ -1619,9 +1646,9 @@
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
     </row>
-    <row r="13" ht="18.75" customHeight="1">
+    <row r="13" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C13" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="D13" s="3" t="s">
@@ -1644,9 +1671,9 @@
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
     </row>
-    <row r="14" ht="18.75" customHeight="1">
+    <row r="14" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C14" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="D14" s="3" t="s">
@@ -1669,9 +1696,9 @@
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
     </row>
-    <row r="15" ht="18.75" customHeight="1">
+    <row r="15" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C15" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="D15" s="3" t="s">
@@ -1694,9 +1721,9 @@
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
     </row>
-    <row r="16" ht="18.75" customHeight="1">
+    <row r="16" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C16" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="D16" s="3" t="s">
@@ -1719,9 +1746,9 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
     </row>
-    <row r="17" ht="18.75" customHeight="1">
+    <row r="17" spans="3:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C17" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="D17" s="3" t="s">
@@ -1744,9 +1771,9 @@
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
     </row>
-    <row r="18" ht="18.75" customHeight="1">
+    <row r="18" spans="3:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="D18" s="3" t="s">
@@ -1769,9 +1796,9 @@
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
     </row>
-    <row r="19" ht="18.75" customHeight="1">
+    <row r="19" spans="3:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C19" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="D19" s="3" t="s">
@@ -1794,9 +1821,9 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
     </row>
-    <row r="20" ht="18.75" customHeight="1">
+    <row r="20" spans="3:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C20" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="D20" s="3" t="s">
@@ -1819,9 +1846,9 @@
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
     </row>
-    <row r="21" ht="18.75" customHeight="1">
+    <row r="21" spans="3:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C21" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="D21" s="3" t="s">
@@ -1844,9 +1871,9 @@
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
     </row>
-    <row r="22" ht="18.75" customHeight="1">
+    <row r="22" spans="3:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C22" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="D22" s="3" t="s">
@@ -1869,9 +1896,9 @@
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
     </row>
-    <row r="23" ht="18.75" customHeight="1">
+    <row r="23" spans="3:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C23" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="D23" s="3" t="s">
@@ -1894,9 +1921,9 @@
       <c r="M23" s="3"/>
       <c r="N23" s="3"/>
     </row>
-    <row r="24" ht="18.75" customHeight="1">
+    <row r="24" spans="3:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C24" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="D24" s="3" t="s">
@@ -1919,9 +1946,9 @@
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
     </row>
-    <row r="25" ht="18.75" customHeight="1">
+    <row r="25" spans="3:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C25" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="D25" s="3"/>
@@ -1936,1017 +1963,1019 @@
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
     </row>
-    <row r="26" ht="18.75" customHeight="1"/>
-    <row r="27" ht="18.75" customHeight="1"/>
-    <row r="28" ht="18.75" customHeight="1"/>
-    <row r="29" ht="18.75" customHeight="1"/>
-    <row r="30" ht="18.75" customHeight="1"/>
-    <row r="31" ht="18.75" customHeight="1"/>
-    <row r="32" ht="18.75" customHeight="1"/>
-    <row r="33" ht="18.75" customHeight="1"/>
-    <row r="34" ht="18.75" customHeight="1"/>
-    <row r="35" ht="18.75" customHeight="1"/>
-    <row r="36" ht="18.75" customHeight="1"/>
-    <row r="37" ht="18.75" customHeight="1"/>
-    <row r="38" ht="18.75" customHeight="1"/>
-    <row r="39" ht="18.75" customHeight="1"/>
-    <row r="40" ht="18.75" customHeight="1"/>
-    <row r="41" ht="18.75" customHeight="1"/>
-    <row r="42" ht="18.75" customHeight="1"/>
-    <row r="43" ht="18.75" customHeight="1"/>
-    <row r="44" ht="18.75" customHeight="1"/>
-    <row r="45" ht="18.75" customHeight="1"/>
-    <row r="46" ht="18.75" customHeight="1"/>
-    <row r="47" ht="18.75" customHeight="1"/>
-    <row r="48" ht="18.75" customHeight="1"/>
-    <row r="49" ht="18.75" customHeight="1"/>
-    <row r="50" ht="18.75" customHeight="1"/>
-    <row r="51" ht="18.75" customHeight="1"/>
-    <row r="52" ht="18.75" customHeight="1"/>
-    <row r="53" ht="18.75" customHeight="1"/>
-    <row r="54" ht="18.75" customHeight="1"/>
-    <row r="55" ht="18.75" customHeight="1"/>
-    <row r="56" ht="18.75" customHeight="1"/>
-    <row r="57" ht="18.75" customHeight="1"/>
-    <row r="58" ht="18.75" customHeight="1"/>
-    <row r="59" ht="18.75" customHeight="1"/>
-    <row r="60" ht="18.75" customHeight="1"/>
-    <row r="61" ht="18.75" customHeight="1"/>
-    <row r="62" ht="18.75" customHeight="1"/>
-    <row r="63" ht="18.75" customHeight="1"/>
-    <row r="64" ht="18.75" customHeight="1"/>
-    <row r="65" ht="18.75" customHeight="1"/>
-    <row r="66" ht="18.75" customHeight="1"/>
-    <row r="67" ht="18.75" customHeight="1"/>
-    <row r="68" ht="18.75" customHeight="1"/>
-    <row r="69" ht="18.75" customHeight="1"/>
-    <row r="70" ht="18.75" customHeight="1"/>
-    <row r="71" ht="18.75" customHeight="1"/>
-    <row r="72" ht="18.75" customHeight="1"/>
-    <row r="73" ht="18.75" customHeight="1"/>
-    <row r="74" ht="18.75" customHeight="1"/>
-    <row r="75" ht="18.75" customHeight="1"/>
-    <row r="76" ht="18.75" customHeight="1"/>
-    <row r="77" ht="18.75" customHeight="1"/>
-    <row r="78" ht="18.75" customHeight="1"/>
-    <row r="79" ht="18.75" customHeight="1"/>
-    <row r="80" ht="18.75" customHeight="1"/>
-    <row r="81" ht="18.75" customHeight="1"/>
-    <row r="82" ht="18.75" customHeight="1"/>
-    <row r="83" ht="18.75" customHeight="1"/>
-    <row r="84" ht="18.75" customHeight="1"/>
-    <row r="85" ht="18.75" customHeight="1"/>
-    <row r="86" ht="18.75" customHeight="1"/>
-    <row r="87" ht="18.75" customHeight="1"/>
-    <row r="88" ht="18.75" customHeight="1"/>
-    <row r="89" ht="18.75" customHeight="1"/>
-    <row r="90" ht="18.75" customHeight="1"/>
-    <row r="91" ht="18.75" customHeight="1"/>
-    <row r="92" ht="18.75" customHeight="1"/>
-    <row r="93" ht="18.75" customHeight="1"/>
-    <row r="94" ht="18.75" customHeight="1"/>
-    <row r="95" ht="18.75" customHeight="1"/>
-    <row r="96" ht="18.75" customHeight="1"/>
-    <row r="97" ht="18.75" customHeight="1"/>
-    <row r="98" ht="18.75" customHeight="1"/>
-    <row r="99" ht="18.75" customHeight="1"/>
-    <row r="100" ht="18.75" customHeight="1"/>
-    <row r="101" ht="18.75" customHeight="1"/>
-    <row r="102" ht="18.75" customHeight="1"/>
-    <row r="103" ht="18.75" customHeight="1"/>
-    <row r="104" ht="18.75" customHeight="1"/>
-    <row r="105" ht="18.75" customHeight="1"/>
-    <row r="106" ht="18.75" customHeight="1"/>
-    <row r="107" ht="18.75" customHeight="1"/>
-    <row r="108" ht="18.75" customHeight="1"/>
-    <row r="109" ht="18.75" customHeight="1"/>
-    <row r="110" ht="18.75" customHeight="1"/>
-    <row r="111" ht="18.75" customHeight="1"/>
-    <row r="112" ht="18.75" customHeight="1"/>
-    <row r="113" ht="18.75" customHeight="1"/>
-    <row r="114" ht="18.75" customHeight="1"/>
-    <row r="115" ht="18.75" customHeight="1"/>
-    <row r="116" ht="18.75" customHeight="1"/>
-    <row r="117" ht="18.75" customHeight="1"/>
-    <row r="118" ht="18.75" customHeight="1"/>
-    <row r="119" ht="18.75" customHeight="1"/>
-    <row r="120" ht="18.75" customHeight="1"/>
-    <row r="121" ht="18.75" customHeight="1"/>
-    <row r="122" ht="18.75" customHeight="1"/>
-    <row r="123" ht="18.75" customHeight="1"/>
-    <row r="124" ht="18.75" customHeight="1"/>
-    <row r="125" ht="18.75" customHeight="1"/>
-    <row r="126" ht="18.75" customHeight="1"/>
-    <row r="127" ht="18.75" customHeight="1"/>
-    <row r="128" ht="18.75" customHeight="1"/>
-    <row r="129" ht="18.75" customHeight="1"/>
-    <row r="130" ht="18.75" customHeight="1"/>
-    <row r="131" ht="18.75" customHeight="1"/>
-    <row r="132" ht="18.75" customHeight="1"/>
-    <row r="133" ht="18.75" customHeight="1"/>
-    <row r="134" ht="18.75" customHeight="1"/>
-    <row r="135" ht="18.75" customHeight="1"/>
-    <row r="136" ht="18.75" customHeight="1"/>
-    <row r="137" ht="18.75" customHeight="1"/>
-    <row r="138" ht="18.75" customHeight="1"/>
-    <row r="139" ht="18.75" customHeight="1"/>
-    <row r="140" ht="18.75" customHeight="1"/>
-    <row r="141" ht="18.75" customHeight="1"/>
-    <row r="142" ht="18.75" customHeight="1"/>
-    <row r="143" ht="18.75" customHeight="1"/>
-    <row r="144" ht="18.75" customHeight="1"/>
-    <row r="145" ht="18.75" customHeight="1"/>
-    <row r="146" ht="18.75" customHeight="1"/>
-    <row r="147" ht="18.75" customHeight="1"/>
-    <row r="148" ht="18.75" customHeight="1"/>
-    <row r="149" ht="18.75" customHeight="1"/>
-    <row r="150" ht="18.75" customHeight="1"/>
-    <row r="151" ht="18.75" customHeight="1"/>
-    <row r="152" ht="18.75" customHeight="1"/>
-    <row r="153" ht="18.75" customHeight="1"/>
-    <row r="154" ht="18.75" customHeight="1"/>
-    <row r="155" ht="18.75" customHeight="1"/>
-    <row r="156" ht="18.75" customHeight="1"/>
-    <row r="157" ht="18.75" customHeight="1"/>
-    <row r="158" ht="18.75" customHeight="1"/>
-    <row r="159" ht="18.75" customHeight="1"/>
-    <row r="160" ht="18.75" customHeight="1"/>
-    <row r="161" ht="18.75" customHeight="1"/>
-    <row r="162" ht="18.75" customHeight="1"/>
-    <row r="163" ht="18.75" customHeight="1"/>
-    <row r="164" ht="18.75" customHeight="1"/>
-    <row r="165" ht="18.75" customHeight="1"/>
-    <row r="166" ht="18.75" customHeight="1"/>
-    <row r="167" ht="18.75" customHeight="1"/>
-    <row r="168" ht="18.75" customHeight="1"/>
-    <row r="169" ht="18.75" customHeight="1"/>
-    <row r="170" ht="18.75" customHeight="1"/>
-    <row r="171" ht="18.75" customHeight="1"/>
-    <row r="172" ht="18.75" customHeight="1"/>
-    <row r="173" ht="18.75" customHeight="1"/>
-    <row r="174" ht="18.75" customHeight="1"/>
-    <row r="175" ht="18.75" customHeight="1"/>
-    <row r="176" ht="18.75" customHeight="1"/>
-    <row r="177" ht="18.75" customHeight="1"/>
-    <row r="178" ht="18.75" customHeight="1"/>
-    <row r="179" ht="18.75" customHeight="1"/>
-    <row r="180" ht="18.75" customHeight="1"/>
-    <row r="181" ht="18.75" customHeight="1"/>
-    <row r="182" ht="18.75" customHeight="1"/>
-    <row r="183" ht="18.75" customHeight="1"/>
-    <row r="184" ht="18.75" customHeight="1"/>
-    <row r="185" ht="18.75" customHeight="1"/>
-    <row r="186" ht="18.75" customHeight="1"/>
-    <row r="187" ht="18.75" customHeight="1"/>
-    <row r="188" ht="18.75" customHeight="1"/>
-    <row r="189" ht="18.75" customHeight="1"/>
-    <row r="190" ht="18.75" customHeight="1"/>
-    <row r="191" ht="18.75" customHeight="1"/>
-    <row r="192" ht="18.75" customHeight="1"/>
-    <row r="193" ht="18.75" customHeight="1"/>
-    <row r="194" ht="18.75" customHeight="1"/>
-    <row r="195" ht="18.75" customHeight="1"/>
-    <row r="196" ht="18.75" customHeight="1"/>
-    <row r="197" ht="18.75" customHeight="1"/>
-    <row r="198" ht="18.75" customHeight="1"/>
-    <row r="199" ht="18.75" customHeight="1"/>
-    <row r="200" ht="18.75" customHeight="1"/>
-    <row r="201" ht="18.75" customHeight="1"/>
-    <row r="202" ht="18.75" customHeight="1"/>
-    <row r="203" ht="18.75" customHeight="1"/>
-    <row r="204" ht="18.75" customHeight="1"/>
-    <row r="205" ht="18.75" customHeight="1"/>
-    <row r="206" ht="18.75" customHeight="1"/>
-    <row r="207" ht="18.75" customHeight="1"/>
-    <row r="208" ht="18.75" customHeight="1"/>
-    <row r="209" ht="18.75" customHeight="1"/>
-    <row r="210" ht="18.75" customHeight="1"/>
-    <row r="211" ht="18.75" customHeight="1"/>
-    <row r="212" ht="18.75" customHeight="1"/>
-    <row r="213" ht="18.75" customHeight="1"/>
-    <row r="214" ht="18.75" customHeight="1"/>
-    <row r="215" ht="18.75" customHeight="1"/>
-    <row r="216" ht="18.75" customHeight="1"/>
-    <row r="217" ht="18.75" customHeight="1"/>
-    <row r="218" ht="18.75" customHeight="1"/>
-    <row r="219" ht="18.75" customHeight="1"/>
-    <row r="220" ht="18.75" customHeight="1"/>
-    <row r="221" ht="18.75" customHeight="1"/>
-    <row r="222" ht="18.75" customHeight="1"/>
-    <row r="223" ht="18.75" customHeight="1"/>
-    <row r="224" ht="18.75" customHeight="1"/>
-    <row r="225" ht="18.75" customHeight="1"/>
-    <row r="226" ht="18.75" customHeight="1"/>
-    <row r="227" ht="18.75" customHeight="1"/>
-    <row r="228" ht="18.75" customHeight="1"/>
-    <row r="229" ht="18.75" customHeight="1"/>
-    <row r="230" ht="18.75" customHeight="1"/>
-    <row r="231" ht="18.75" customHeight="1"/>
-    <row r="232" ht="18.75" customHeight="1"/>
-    <row r="233" ht="18.75" customHeight="1"/>
-    <row r="234" ht="18.75" customHeight="1"/>
-    <row r="235" ht="18.75" customHeight="1"/>
-    <row r="236" ht="18.75" customHeight="1"/>
-    <row r="237" ht="18.75" customHeight="1"/>
-    <row r="238" ht="18.75" customHeight="1"/>
-    <row r="239" ht="18.75" customHeight="1"/>
-    <row r="240" ht="18.75" customHeight="1"/>
-    <row r="241" ht="18.75" customHeight="1"/>
-    <row r="242" ht="18.75" customHeight="1"/>
-    <row r="243" ht="18.75" customHeight="1"/>
-    <row r="244" ht="18.75" customHeight="1"/>
-    <row r="245" ht="18.75" customHeight="1"/>
-    <row r="246" ht="18.75" customHeight="1"/>
-    <row r="247" ht="18.75" customHeight="1"/>
-    <row r="248" ht="18.75" customHeight="1"/>
-    <row r="249" ht="18.75" customHeight="1"/>
-    <row r="250" ht="18.75" customHeight="1"/>
-    <row r="251" ht="18.75" customHeight="1"/>
-    <row r="252" ht="18.75" customHeight="1"/>
-    <row r="253" ht="18.75" customHeight="1"/>
-    <row r="254" ht="18.75" customHeight="1"/>
-    <row r="255" ht="18.75" customHeight="1"/>
-    <row r="256" ht="18.75" customHeight="1"/>
-    <row r="257" ht="18.75" customHeight="1"/>
-    <row r="258" ht="18.75" customHeight="1"/>
-    <row r="259" ht="18.75" customHeight="1"/>
-    <row r="260" ht="18.75" customHeight="1"/>
-    <row r="261" ht="18.75" customHeight="1"/>
-    <row r="262" ht="18.75" customHeight="1"/>
-    <row r="263" ht="18.75" customHeight="1"/>
-    <row r="264" ht="18.75" customHeight="1"/>
-    <row r="265" ht="18.75" customHeight="1"/>
-    <row r="266" ht="18.75" customHeight="1"/>
-    <row r="267" ht="18.75" customHeight="1"/>
-    <row r="268" ht="18.75" customHeight="1"/>
-    <row r="269" ht="18.75" customHeight="1"/>
-    <row r="270" ht="18.75" customHeight="1"/>
-    <row r="271" ht="18.75" customHeight="1"/>
-    <row r="272" ht="18.75" customHeight="1"/>
-    <row r="273" ht="18.75" customHeight="1"/>
-    <row r="274" ht="18.75" customHeight="1"/>
-    <row r="275" ht="18.75" customHeight="1"/>
-    <row r="276" ht="18.75" customHeight="1"/>
-    <row r="277" ht="18.75" customHeight="1"/>
-    <row r="278" ht="18.75" customHeight="1"/>
-    <row r="279" ht="18.75" customHeight="1"/>
-    <row r="280" ht="18.75" customHeight="1"/>
-    <row r="281" ht="18.75" customHeight="1"/>
-    <row r="282" ht="18.75" customHeight="1"/>
-    <row r="283" ht="18.75" customHeight="1"/>
-    <row r="284" ht="18.75" customHeight="1"/>
-    <row r="285" ht="18.75" customHeight="1"/>
-    <row r="286" ht="18.75" customHeight="1"/>
-    <row r="287" ht="18.75" customHeight="1"/>
-    <row r="288" ht="18.75" customHeight="1"/>
-    <row r="289" ht="18.75" customHeight="1"/>
-    <row r="290" ht="18.75" customHeight="1"/>
-    <row r="291" ht="18.75" customHeight="1"/>
-    <row r="292" ht="18.75" customHeight="1"/>
-    <row r="293" ht="18.75" customHeight="1"/>
-    <row r="294" ht="18.75" customHeight="1"/>
-    <row r="295" ht="18.75" customHeight="1"/>
-    <row r="296" ht="18.75" customHeight="1"/>
-    <row r="297" ht="18.75" customHeight="1"/>
-    <row r="298" ht="18.75" customHeight="1"/>
-    <row r="299" ht="18.75" customHeight="1"/>
-    <row r="300" ht="18.75" customHeight="1"/>
-    <row r="301" ht="18.75" customHeight="1"/>
-    <row r="302" ht="18.75" customHeight="1"/>
-    <row r="303" ht="18.75" customHeight="1"/>
-    <row r="304" ht="18.75" customHeight="1"/>
-    <row r="305" ht="18.75" customHeight="1"/>
-    <row r="306" ht="18.75" customHeight="1"/>
-    <row r="307" ht="18.75" customHeight="1"/>
-    <row r="308" ht="18.75" customHeight="1"/>
-    <row r="309" ht="18.75" customHeight="1"/>
-    <row r="310" ht="18.75" customHeight="1"/>
-    <row r="311" ht="18.75" customHeight="1"/>
-    <row r="312" ht="18.75" customHeight="1"/>
-    <row r="313" ht="18.75" customHeight="1"/>
-    <row r="314" ht="18.75" customHeight="1"/>
-    <row r="315" ht="18.75" customHeight="1"/>
-    <row r="316" ht="18.75" customHeight="1"/>
-    <row r="317" ht="18.75" customHeight="1"/>
-    <row r="318" ht="18.75" customHeight="1"/>
-    <row r="319" ht="18.75" customHeight="1"/>
-    <row r="320" ht="18.75" customHeight="1"/>
-    <row r="321" ht="18.75" customHeight="1"/>
-    <row r="322" ht="18.75" customHeight="1"/>
-    <row r="323" ht="18.75" customHeight="1"/>
-    <row r="324" ht="18.75" customHeight="1"/>
-    <row r="325" ht="18.75" customHeight="1"/>
-    <row r="326" ht="18.75" customHeight="1"/>
-    <row r="327" ht="18.75" customHeight="1"/>
-    <row r="328" ht="18.75" customHeight="1"/>
-    <row r="329" ht="18.75" customHeight="1"/>
-    <row r="330" ht="18.75" customHeight="1"/>
-    <row r="331" ht="18.75" customHeight="1"/>
-    <row r="332" ht="18.75" customHeight="1"/>
-    <row r="333" ht="18.75" customHeight="1"/>
-    <row r="334" ht="18.75" customHeight="1"/>
-    <row r="335" ht="18.75" customHeight="1"/>
-    <row r="336" ht="18.75" customHeight="1"/>
-    <row r="337" ht="18.75" customHeight="1"/>
-    <row r="338" ht="18.75" customHeight="1"/>
-    <row r="339" ht="18.75" customHeight="1"/>
-    <row r="340" ht="18.75" customHeight="1"/>
-    <row r="341" ht="18.75" customHeight="1"/>
-    <row r="342" ht="18.75" customHeight="1"/>
-    <row r="343" ht="18.75" customHeight="1"/>
-    <row r="344" ht="18.75" customHeight="1"/>
-    <row r="345" ht="18.75" customHeight="1"/>
-    <row r="346" ht="18.75" customHeight="1"/>
-    <row r="347" ht="18.75" customHeight="1"/>
-    <row r="348" ht="18.75" customHeight="1"/>
-    <row r="349" ht="18.75" customHeight="1"/>
-    <row r="350" ht="18.75" customHeight="1"/>
-    <row r="351" ht="18.75" customHeight="1"/>
-    <row r="352" ht="18.75" customHeight="1"/>
-    <row r="353" ht="18.75" customHeight="1"/>
-    <row r="354" ht="18.75" customHeight="1"/>
-    <row r="355" ht="18.75" customHeight="1"/>
-    <row r="356" ht="18.75" customHeight="1"/>
-    <row r="357" ht="18.75" customHeight="1"/>
-    <row r="358" ht="18.75" customHeight="1"/>
-    <row r="359" ht="18.75" customHeight="1"/>
-    <row r="360" ht="18.75" customHeight="1"/>
-    <row r="361" ht="18.75" customHeight="1"/>
-    <row r="362" ht="18.75" customHeight="1"/>
-    <row r="363" ht="18.75" customHeight="1"/>
-    <row r="364" ht="18.75" customHeight="1"/>
-    <row r="365" ht="18.75" customHeight="1"/>
-    <row r="366" ht="18.75" customHeight="1"/>
-    <row r="367" ht="18.75" customHeight="1"/>
-    <row r="368" ht="18.75" customHeight="1"/>
-    <row r="369" ht="18.75" customHeight="1"/>
-    <row r="370" ht="18.75" customHeight="1"/>
-    <row r="371" ht="18.75" customHeight="1"/>
-    <row r="372" ht="18.75" customHeight="1"/>
-    <row r="373" ht="18.75" customHeight="1"/>
-    <row r="374" ht="18.75" customHeight="1"/>
-    <row r="375" ht="18.75" customHeight="1"/>
-    <row r="376" ht="18.75" customHeight="1"/>
-    <row r="377" ht="18.75" customHeight="1"/>
-    <row r="378" ht="18.75" customHeight="1"/>
-    <row r="379" ht="18.75" customHeight="1"/>
-    <row r="380" ht="18.75" customHeight="1"/>
-    <row r="381" ht="18.75" customHeight="1"/>
-    <row r="382" ht="18.75" customHeight="1"/>
-    <row r="383" ht="18.75" customHeight="1"/>
-    <row r="384" ht="18.75" customHeight="1"/>
-    <row r="385" ht="18.75" customHeight="1"/>
-    <row r="386" ht="18.75" customHeight="1"/>
-    <row r="387" ht="18.75" customHeight="1"/>
-    <row r="388" ht="18.75" customHeight="1"/>
-    <row r="389" ht="18.75" customHeight="1"/>
-    <row r="390" ht="18.75" customHeight="1"/>
-    <row r="391" ht="18.75" customHeight="1"/>
-    <row r="392" ht="18.75" customHeight="1"/>
-    <row r="393" ht="18.75" customHeight="1"/>
-    <row r="394" ht="18.75" customHeight="1"/>
-    <row r="395" ht="18.75" customHeight="1"/>
-    <row r="396" ht="18.75" customHeight="1"/>
-    <row r="397" ht="18.75" customHeight="1"/>
-    <row r="398" ht="18.75" customHeight="1"/>
-    <row r="399" ht="18.75" customHeight="1"/>
-    <row r="400" ht="18.75" customHeight="1"/>
-    <row r="401" ht="18.75" customHeight="1"/>
-    <row r="402" ht="18.75" customHeight="1"/>
-    <row r="403" ht="18.75" customHeight="1"/>
-    <row r="404" ht="18.75" customHeight="1"/>
-    <row r="405" ht="18.75" customHeight="1"/>
-    <row r="406" ht="18.75" customHeight="1"/>
-    <row r="407" ht="18.75" customHeight="1"/>
-    <row r="408" ht="18.75" customHeight="1"/>
-    <row r="409" ht="18.75" customHeight="1"/>
-    <row r="410" ht="18.75" customHeight="1"/>
-    <row r="411" ht="18.75" customHeight="1"/>
-    <row r="412" ht="18.75" customHeight="1"/>
-    <row r="413" ht="18.75" customHeight="1"/>
-    <row r="414" ht="18.75" customHeight="1"/>
-    <row r="415" ht="18.75" customHeight="1"/>
-    <row r="416" ht="18.75" customHeight="1"/>
-    <row r="417" ht="18.75" customHeight="1"/>
-    <row r="418" ht="18.75" customHeight="1"/>
-    <row r="419" ht="18.75" customHeight="1"/>
-    <row r="420" ht="18.75" customHeight="1"/>
-    <row r="421" ht="18.75" customHeight="1"/>
-    <row r="422" ht="18.75" customHeight="1"/>
-    <row r="423" ht="18.75" customHeight="1"/>
-    <row r="424" ht="18.75" customHeight="1"/>
-    <row r="425" ht="18.75" customHeight="1"/>
-    <row r="426" ht="18.75" customHeight="1"/>
-    <row r="427" ht="18.75" customHeight="1"/>
-    <row r="428" ht="18.75" customHeight="1"/>
-    <row r="429" ht="18.75" customHeight="1"/>
-    <row r="430" ht="18.75" customHeight="1"/>
-    <row r="431" ht="18.75" customHeight="1"/>
-    <row r="432" ht="18.75" customHeight="1"/>
-    <row r="433" ht="18.75" customHeight="1"/>
-    <row r="434" ht="18.75" customHeight="1"/>
-    <row r="435" ht="18.75" customHeight="1"/>
-    <row r="436" ht="18.75" customHeight="1"/>
-    <row r="437" ht="18.75" customHeight="1"/>
-    <row r="438" ht="18.75" customHeight="1"/>
-    <row r="439" ht="18.75" customHeight="1"/>
-    <row r="440" ht="18.75" customHeight="1"/>
-    <row r="441" ht="18.75" customHeight="1"/>
-    <row r="442" ht="18.75" customHeight="1"/>
-    <row r="443" ht="18.75" customHeight="1"/>
-    <row r="444" ht="18.75" customHeight="1"/>
-    <row r="445" ht="18.75" customHeight="1"/>
-    <row r="446" ht="18.75" customHeight="1"/>
-    <row r="447" ht="18.75" customHeight="1"/>
-    <row r="448" ht="18.75" customHeight="1"/>
-    <row r="449" ht="18.75" customHeight="1"/>
-    <row r="450" ht="18.75" customHeight="1"/>
-    <row r="451" ht="18.75" customHeight="1"/>
-    <row r="452" ht="18.75" customHeight="1"/>
-    <row r="453" ht="18.75" customHeight="1"/>
-    <row r="454" ht="18.75" customHeight="1"/>
-    <row r="455" ht="18.75" customHeight="1"/>
-    <row r="456" ht="18.75" customHeight="1"/>
-    <row r="457" ht="18.75" customHeight="1"/>
-    <row r="458" ht="18.75" customHeight="1"/>
-    <row r="459" ht="18.75" customHeight="1"/>
-    <row r="460" ht="18.75" customHeight="1"/>
-    <row r="461" ht="18.75" customHeight="1"/>
-    <row r="462" ht="18.75" customHeight="1"/>
-    <row r="463" ht="18.75" customHeight="1"/>
-    <row r="464" ht="18.75" customHeight="1"/>
-    <row r="465" ht="18.75" customHeight="1"/>
-    <row r="466" ht="18.75" customHeight="1"/>
-    <row r="467" ht="18.75" customHeight="1"/>
-    <row r="468" ht="18.75" customHeight="1"/>
-    <row r="469" ht="18.75" customHeight="1"/>
-    <row r="470" ht="18.75" customHeight="1"/>
-    <row r="471" ht="18.75" customHeight="1"/>
-    <row r="472" ht="18.75" customHeight="1"/>
-    <row r="473" ht="18.75" customHeight="1"/>
-    <row r="474" ht="18.75" customHeight="1"/>
-    <row r="475" ht="18.75" customHeight="1"/>
-    <row r="476" ht="18.75" customHeight="1"/>
-    <row r="477" ht="18.75" customHeight="1"/>
-    <row r="478" ht="18.75" customHeight="1"/>
-    <row r="479" ht="18.75" customHeight="1"/>
-    <row r="480" ht="18.75" customHeight="1"/>
-    <row r="481" ht="18.75" customHeight="1"/>
-    <row r="482" ht="18.75" customHeight="1"/>
-    <row r="483" ht="18.75" customHeight="1"/>
-    <row r="484" ht="18.75" customHeight="1"/>
-    <row r="485" ht="18.75" customHeight="1"/>
-    <row r="486" ht="18.75" customHeight="1"/>
-    <row r="487" ht="18.75" customHeight="1"/>
-    <row r="488" ht="18.75" customHeight="1"/>
-    <row r="489" ht="18.75" customHeight="1"/>
-    <row r="490" ht="18.75" customHeight="1"/>
-    <row r="491" ht="18.75" customHeight="1"/>
-    <row r="492" ht="18.75" customHeight="1"/>
-    <row r="493" ht="18.75" customHeight="1"/>
-    <row r="494" ht="18.75" customHeight="1"/>
-    <row r="495" ht="18.75" customHeight="1"/>
-    <row r="496" ht="18.75" customHeight="1"/>
-    <row r="497" ht="18.75" customHeight="1"/>
-    <row r="498" ht="18.75" customHeight="1"/>
-    <row r="499" ht="18.75" customHeight="1"/>
-    <row r="500" ht="18.75" customHeight="1"/>
-    <row r="501" ht="18.75" customHeight="1"/>
-    <row r="502" ht="18.75" customHeight="1"/>
-    <row r="503" ht="18.75" customHeight="1"/>
-    <row r="504" ht="18.75" customHeight="1"/>
-    <row r="505" ht="18.75" customHeight="1"/>
-    <row r="506" ht="18.75" customHeight="1"/>
-    <row r="507" ht="18.75" customHeight="1"/>
-    <row r="508" ht="18.75" customHeight="1"/>
-    <row r="509" ht="18.75" customHeight="1"/>
-    <row r="510" ht="18.75" customHeight="1"/>
-    <row r="511" ht="18.75" customHeight="1"/>
-    <row r="512" ht="18.75" customHeight="1"/>
-    <row r="513" ht="18.75" customHeight="1"/>
-    <row r="514" ht="18.75" customHeight="1"/>
-    <row r="515" ht="18.75" customHeight="1"/>
-    <row r="516" ht="18.75" customHeight="1"/>
-    <row r="517" ht="18.75" customHeight="1"/>
-    <row r="518" ht="18.75" customHeight="1"/>
-    <row r="519" ht="18.75" customHeight="1"/>
-    <row r="520" ht="18.75" customHeight="1"/>
-    <row r="521" ht="18.75" customHeight="1"/>
-    <row r="522" ht="18.75" customHeight="1"/>
-    <row r="523" ht="18.75" customHeight="1"/>
-    <row r="524" ht="18.75" customHeight="1"/>
-    <row r="525" ht="18.75" customHeight="1"/>
-    <row r="526" ht="18.75" customHeight="1"/>
-    <row r="527" ht="18.75" customHeight="1"/>
-    <row r="528" ht="18.75" customHeight="1"/>
-    <row r="529" ht="18.75" customHeight="1"/>
-    <row r="530" ht="18.75" customHeight="1"/>
-    <row r="531" ht="18.75" customHeight="1"/>
-    <row r="532" ht="18.75" customHeight="1"/>
-    <row r="533" ht="18.75" customHeight="1"/>
-    <row r="534" ht="18.75" customHeight="1"/>
-    <row r="535" ht="18.75" customHeight="1"/>
-    <row r="536" ht="18.75" customHeight="1"/>
-    <row r="537" ht="18.75" customHeight="1"/>
-    <row r="538" ht="18.75" customHeight="1"/>
-    <row r="539" ht="18.75" customHeight="1"/>
-    <row r="540" ht="18.75" customHeight="1"/>
-    <row r="541" ht="18.75" customHeight="1"/>
-    <row r="542" ht="18.75" customHeight="1"/>
-    <row r="543" ht="18.75" customHeight="1"/>
-    <row r="544" ht="18.75" customHeight="1"/>
-    <row r="545" ht="18.75" customHeight="1"/>
-    <row r="546" ht="18.75" customHeight="1"/>
-    <row r="547" ht="18.75" customHeight="1"/>
-    <row r="548" ht="18.75" customHeight="1"/>
-    <row r="549" ht="18.75" customHeight="1"/>
-    <row r="550" ht="18.75" customHeight="1"/>
-    <row r="551" ht="18.75" customHeight="1"/>
-    <row r="552" ht="18.75" customHeight="1"/>
-    <row r="553" ht="18.75" customHeight="1"/>
-    <row r="554" ht="18.75" customHeight="1"/>
-    <row r="555" ht="18.75" customHeight="1"/>
-    <row r="556" ht="18.75" customHeight="1"/>
-    <row r="557" ht="18.75" customHeight="1"/>
-    <row r="558" ht="18.75" customHeight="1"/>
-    <row r="559" ht="18.75" customHeight="1"/>
-    <row r="560" ht="18.75" customHeight="1"/>
-    <row r="561" ht="18.75" customHeight="1"/>
-    <row r="562" ht="18.75" customHeight="1"/>
-    <row r="563" ht="18.75" customHeight="1"/>
-    <row r="564" ht="18.75" customHeight="1"/>
-    <row r="565" ht="18.75" customHeight="1"/>
-    <row r="566" ht="18.75" customHeight="1"/>
-    <row r="567" ht="18.75" customHeight="1"/>
-    <row r="568" ht="18.75" customHeight="1"/>
-    <row r="569" ht="18.75" customHeight="1"/>
-    <row r="570" ht="18.75" customHeight="1"/>
-    <row r="571" ht="18.75" customHeight="1"/>
-    <row r="572" ht="18.75" customHeight="1"/>
-    <row r="573" ht="18.75" customHeight="1"/>
-    <row r="574" ht="18.75" customHeight="1"/>
-    <row r="575" ht="18.75" customHeight="1"/>
-    <row r="576" ht="18.75" customHeight="1"/>
-    <row r="577" ht="18.75" customHeight="1"/>
-    <row r="578" ht="18.75" customHeight="1"/>
-    <row r="579" ht="18.75" customHeight="1"/>
-    <row r="580" ht="18.75" customHeight="1"/>
-    <row r="581" ht="18.75" customHeight="1"/>
-    <row r="582" ht="18.75" customHeight="1"/>
-    <row r="583" ht="18.75" customHeight="1"/>
-    <row r="584" ht="18.75" customHeight="1"/>
-    <row r="585" ht="18.75" customHeight="1"/>
-    <row r="586" ht="18.75" customHeight="1"/>
-    <row r="587" ht="18.75" customHeight="1"/>
-    <row r="588" ht="18.75" customHeight="1"/>
-    <row r="589" ht="18.75" customHeight="1"/>
-    <row r="590" ht="18.75" customHeight="1"/>
-    <row r="591" ht="18.75" customHeight="1"/>
-    <row r="592" ht="18.75" customHeight="1"/>
-    <row r="593" ht="18.75" customHeight="1"/>
-    <row r="594" ht="18.75" customHeight="1"/>
-    <row r="595" ht="18.75" customHeight="1"/>
-    <row r="596" ht="18.75" customHeight="1"/>
-    <row r="597" ht="18.75" customHeight="1"/>
-    <row r="598" ht="18.75" customHeight="1"/>
-    <row r="599" ht="18.75" customHeight="1"/>
-    <row r="600" ht="18.75" customHeight="1"/>
-    <row r="601" ht="18.75" customHeight="1"/>
-    <row r="602" ht="18.75" customHeight="1"/>
-    <row r="603" ht="18.75" customHeight="1"/>
-    <row r="604" ht="18.75" customHeight="1"/>
-    <row r="605" ht="18.75" customHeight="1"/>
-    <row r="606" ht="18.75" customHeight="1"/>
-    <row r="607" ht="18.75" customHeight="1"/>
-    <row r="608" ht="18.75" customHeight="1"/>
-    <row r="609" ht="18.75" customHeight="1"/>
-    <row r="610" ht="18.75" customHeight="1"/>
-    <row r="611" ht="18.75" customHeight="1"/>
-    <row r="612" ht="18.75" customHeight="1"/>
-    <row r="613" ht="18.75" customHeight="1"/>
-    <row r="614" ht="18.75" customHeight="1"/>
-    <row r="615" ht="18.75" customHeight="1"/>
-    <row r="616" ht="18.75" customHeight="1"/>
-    <row r="617" ht="18.75" customHeight="1"/>
-    <row r="618" ht="18.75" customHeight="1"/>
-    <row r="619" ht="18.75" customHeight="1"/>
-    <row r="620" ht="18.75" customHeight="1"/>
-    <row r="621" ht="18.75" customHeight="1"/>
-    <row r="622" ht="18.75" customHeight="1"/>
-    <row r="623" ht="18.75" customHeight="1"/>
-    <row r="624" ht="18.75" customHeight="1"/>
-    <row r="625" ht="18.75" customHeight="1"/>
-    <row r="626" ht="18.75" customHeight="1"/>
-    <row r="627" ht="18.75" customHeight="1"/>
-    <row r="628" ht="18.75" customHeight="1"/>
-    <row r="629" ht="18.75" customHeight="1"/>
-    <row r="630" ht="18.75" customHeight="1"/>
-    <row r="631" ht="18.75" customHeight="1"/>
-    <row r="632" ht="18.75" customHeight="1"/>
-    <row r="633" ht="18.75" customHeight="1"/>
-    <row r="634" ht="18.75" customHeight="1"/>
-    <row r="635" ht="18.75" customHeight="1"/>
-    <row r="636" ht="18.75" customHeight="1"/>
-    <row r="637" ht="18.75" customHeight="1"/>
-    <row r="638" ht="18.75" customHeight="1"/>
-    <row r="639" ht="18.75" customHeight="1"/>
-    <row r="640" ht="18.75" customHeight="1"/>
-    <row r="641" ht="18.75" customHeight="1"/>
-    <row r="642" ht="18.75" customHeight="1"/>
-    <row r="643" ht="18.75" customHeight="1"/>
-    <row r="644" ht="18.75" customHeight="1"/>
-    <row r="645" ht="18.75" customHeight="1"/>
-    <row r="646" ht="18.75" customHeight="1"/>
-    <row r="647" ht="18.75" customHeight="1"/>
-    <row r="648" ht="18.75" customHeight="1"/>
-    <row r="649" ht="18.75" customHeight="1"/>
-    <row r="650" ht="18.75" customHeight="1"/>
-    <row r="651" ht="18.75" customHeight="1"/>
-    <row r="652" ht="18.75" customHeight="1"/>
-    <row r="653" ht="18.75" customHeight="1"/>
-    <row r="654" ht="18.75" customHeight="1"/>
-    <row r="655" ht="18.75" customHeight="1"/>
-    <row r="656" ht="18.75" customHeight="1"/>
-    <row r="657" ht="18.75" customHeight="1"/>
-    <row r="658" ht="18.75" customHeight="1"/>
-    <row r="659" ht="18.75" customHeight="1"/>
-    <row r="660" ht="18.75" customHeight="1"/>
-    <row r="661" ht="18.75" customHeight="1"/>
-    <row r="662" ht="18.75" customHeight="1"/>
-    <row r="663" ht="18.75" customHeight="1"/>
-    <row r="664" ht="18.75" customHeight="1"/>
-    <row r="665" ht="18.75" customHeight="1"/>
-    <row r="666" ht="18.75" customHeight="1"/>
-    <row r="667" ht="18.75" customHeight="1"/>
-    <row r="668" ht="18.75" customHeight="1"/>
-    <row r="669" ht="18.75" customHeight="1"/>
-    <row r="670" ht="18.75" customHeight="1"/>
-    <row r="671" ht="18.75" customHeight="1"/>
-    <row r="672" ht="18.75" customHeight="1"/>
-    <row r="673" ht="18.75" customHeight="1"/>
-    <row r="674" ht="18.75" customHeight="1"/>
-    <row r="675" ht="18.75" customHeight="1"/>
-    <row r="676" ht="18.75" customHeight="1"/>
-    <row r="677" ht="18.75" customHeight="1"/>
-    <row r="678" ht="18.75" customHeight="1"/>
-    <row r="679" ht="18.75" customHeight="1"/>
-    <row r="680" ht="18.75" customHeight="1"/>
-    <row r="681" ht="18.75" customHeight="1"/>
-    <row r="682" ht="18.75" customHeight="1"/>
-    <row r="683" ht="18.75" customHeight="1"/>
-    <row r="684" ht="18.75" customHeight="1"/>
-    <row r="685" ht="18.75" customHeight="1"/>
-    <row r="686" ht="18.75" customHeight="1"/>
-    <row r="687" ht="18.75" customHeight="1"/>
-    <row r="688" ht="18.75" customHeight="1"/>
-    <row r="689" ht="18.75" customHeight="1"/>
-    <row r="690" ht="18.75" customHeight="1"/>
-    <row r="691" ht="18.75" customHeight="1"/>
-    <row r="692" ht="18.75" customHeight="1"/>
-    <row r="693" ht="18.75" customHeight="1"/>
-    <row r="694" ht="18.75" customHeight="1"/>
-    <row r="695" ht="18.75" customHeight="1"/>
-    <row r="696" ht="18.75" customHeight="1"/>
-    <row r="697" ht="18.75" customHeight="1"/>
-    <row r="698" ht="18.75" customHeight="1"/>
-    <row r="699" ht="18.75" customHeight="1"/>
-    <row r="700" ht="18.75" customHeight="1"/>
-    <row r="701" ht="18.75" customHeight="1"/>
-    <row r="702" ht="18.75" customHeight="1"/>
-    <row r="703" ht="18.75" customHeight="1"/>
-    <row r="704" ht="18.75" customHeight="1"/>
-    <row r="705" ht="18.75" customHeight="1"/>
-    <row r="706" ht="18.75" customHeight="1"/>
-    <row r="707" ht="18.75" customHeight="1"/>
-    <row r="708" ht="18.75" customHeight="1"/>
-    <row r="709" ht="18.75" customHeight="1"/>
-    <row r="710" ht="18.75" customHeight="1"/>
-    <row r="711" ht="18.75" customHeight="1"/>
-    <row r="712" ht="18.75" customHeight="1"/>
-    <row r="713" ht="18.75" customHeight="1"/>
-    <row r="714" ht="18.75" customHeight="1"/>
-    <row r="715" ht="18.75" customHeight="1"/>
-    <row r="716" ht="18.75" customHeight="1"/>
-    <row r="717" ht="18.75" customHeight="1"/>
-    <row r="718" ht="18.75" customHeight="1"/>
-    <row r="719" ht="18.75" customHeight="1"/>
-    <row r="720" ht="18.75" customHeight="1"/>
-    <row r="721" ht="18.75" customHeight="1"/>
-    <row r="722" ht="18.75" customHeight="1"/>
-    <row r="723" ht="18.75" customHeight="1"/>
-    <row r="724" ht="18.75" customHeight="1"/>
-    <row r="725" ht="18.75" customHeight="1"/>
-    <row r="726" ht="18.75" customHeight="1"/>
-    <row r="727" ht="18.75" customHeight="1"/>
-    <row r="728" ht="18.75" customHeight="1"/>
-    <row r="729" ht="18.75" customHeight="1"/>
-    <row r="730" ht="18.75" customHeight="1"/>
-    <row r="731" ht="18.75" customHeight="1"/>
-    <row r="732" ht="18.75" customHeight="1"/>
-    <row r="733" ht="18.75" customHeight="1"/>
-    <row r="734" ht="18.75" customHeight="1"/>
-    <row r="735" ht="18.75" customHeight="1"/>
-    <row r="736" ht="18.75" customHeight="1"/>
-    <row r="737" ht="18.75" customHeight="1"/>
-    <row r="738" ht="18.75" customHeight="1"/>
-    <row r="739" ht="18.75" customHeight="1"/>
-    <row r="740" ht="18.75" customHeight="1"/>
-    <row r="741" ht="18.75" customHeight="1"/>
-    <row r="742" ht="18.75" customHeight="1"/>
-    <row r="743" ht="18.75" customHeight="1"/>
-    <row r="744" ht="18.75" customHeight="1"/>
-    <row r="745" ht="18.75" customHeight="1"/>
-    <row r="746" ht="18.75" customHeight="1"/>
-    <row r="747" ht="18.75" customHeight="1"/>
-    <row r="748" ht="18.75" customHeight="1"/>
-    <row r="749" ht="18.75" customHeight="1"/>
-    <row r="750" ht="18.75" customHeight="1"/>
-    <row r="751" ht="18.75" customHeight="1"/>
-    <row r="752" ht="18.75" customHeight="1"/>
-    <row r="753" ht="18.75" customHeight="1"/>
-    <row r="754" ht="18.75" customHeight="1"/>
-    <row r="755" ht="18.75" customHeight="1"/>
-    <row r="756" ht="18.75" customHeight="1"/>
-    <row r="757" ht="18.75" customHeight="1"/>
-    <row r="758" ht="18.75" customHeight="1"/>
-    <row r="759" ht="18.75" customHeight="1"/>
-    <row r="760" ht="18.75" customHeight="1"/>
-    <row r="761" ht="18.75" customHeight="1"/>
-    <row r="762" ht="18.75" customHeight="1"/>
-    <row r="763" ht="18.75" customHeight="1"/>
-    <row r="764" ht="18.75" customHeight="1"/>
-    <row r="765" ht="18.75" customHeight="1"/>
-    <row r="766" ht="18.75" customHeight="1"/>
-    <row r="767" ht="18.75" customHeight="1"/>
-    <row r="768" ht="18.75" customHeight="1"/>
-    <row r="769" ht="18.75" customHeight="1"/>
-    <row r="770" ht="18.75" customHeight="1"/>
-    <row r="771" ht="18.75" customHeight="1"/>
-    <row r="772" ht="18.75" customHeight="1"/>
-    <row r="773" ht="18.75" customHeight="1"/>
-    <row r="774" ht="18.75" customHeight="1"/>
-    <row r="775" ht="18.75" customHeight="1"/>
-    <row r="776" ht="18.75" customHeight="1"/>
-    <row r="777" ht="18.75" customHeight="1"/>
-    <row r="778" ht="18.75" customHeight="1"/>
-    <row r="779" ht="18.75" customHeight="1"/>
-    <row r="780" ht="18.75" customHeight="1"/>
-    <row r="781" ht="18.75" customHeight="1"/>
-    <row r="782" ht="18.75" customHeight="1"/>
-    <row r="783" ht="18.75" customHeight="1"/>
-    <row r="784" ht="18.75" customHeight="1"/>
-    <row r="785" ht="18.75" customHeight="1"/>
-    <row r="786" ht="18.75" customHeight="1"/>
-    <row r="787" ht="18.75" customHeight="1"/>
-    <row r="788" ht="18.75" customHeight="1"/>
-    <row r="789" ht="18.75" customHeight="1"/>
-    <row r="790" ht="18.75" customHeight="1"/>
-    <row r="791" ht="18.75" customHeight="1"/>
-    <row r="792" ht="18.75" customHeight="1"/>
-    <row r="793" ht="18.75" customHeight="1"/>
-    <row r="794" ht="18.75" customHeight="1"/>
-    <row r="795" ht="18.75" customHeight="1"/>
-    <row r="796" ht="18.75" customHeight="1"/>
-    <row r="797" ht="18.75" customHeight="1"/>
-    <row r="798" ht="18.75" customHeight="1"/>
-    <row r="799" ht="18.75" customHeight="1"/>
-    <row r="800" ht="18.75" customHeight="1"/>
-    <row r="801" ht="18.75" customHeight="1"/>
-    <row r="802" ht="18.75" customHeight="1"/>
-    <row r="803" ht="18.75" customHeight="1"/>
-    <row r="804" ht="18.75" customHeight="1"/>
-    <row r="805" ht="18.75" customHeight="1"/>
-    <row r="806" ht="18.75" customHeight="1"/>
-    <row r="807" ht="18.75" customHeight="1"/>
-    <row r="808" ht="18.75" customHeight="1"/>
-    <row r="809" ht="18.75" customHeight="1"/>
-    <row r="810" ht="18.75" customHeight="1"/>
-    <row r="811" ht="18.75" customHeight="1"/>
-    <row r="812" ht="18.75" customHeight="1"/>
-    <row r="813" ht="18.75" customHeight="1"/>
-    <row r="814" ht="18.75" customHeight="1"/>
-    <row r="815" ht="18.75" customHeight="1"/>
-    <row r="816" ht="18.75" customHeight="1"/>
-    <row r="817" ht="18.75" customHeight="1"/>
-    <row r="818" ht="18.75" customHeight="1"/>
-    <row r="819" ht="18.75" customHeight="1"/>
-    <row r="820" ht="18.75" customHeight="1"/>
-    <row r="821" ht="18.75" customHeight="1"/>
-    <row r="822" ht="18.75" customHeight="1"/>
-    <row r="823" ht="18.75" customHeight="1"/>
-    <row r="824" ht="18.75" customHeight="1"/>
-    <row r="825" ht="18.75" customHeight="1"/>
-    <row r="826" ht="18.75" customHeight="1"/>
-    <row r="827" ht="18.75" customHeight="1"/>
-    <row r="828" ht="18.75" customHeight="1"/>
-    <row r="829" ht="18.75" customHeight="1"/>
-    <row r="830" ht="18.75" customHeight="1"/>
-    <row r="831" ht="18.75" customHeight="1"/>
-    <row r="832" ht="18.75" customHeight="1"/>
-    <row r="833" ht="18.75" customHeight="1"/>
-    <row r="834" ht="18.75" customHeight="1"/>
-    <row r="835" ht="18.75" customHeight="1"/>
-    <row r="836" ht="18.75" customHeight="1"/>
-    <row r="837" ht="18.75" customHeight="1"/>
-    <row r="838" ht="18.75" customHeight="1"/>
-    <row r="839" ht="18.75" customHeight="1"/>
-    <row r="840" ht="18.75" customHeight="1"/>
-    <row r="841" ht="18.75" customHeight="1"/>
-    <row r="842" ht="18.75" customHeight="1"/>
-    <row r="843" ht="18.75" customHeight="1"/>
-    <row r="844" ht="18.75" customHeight="1"/>
-    <row r="845" ht="18.75" customHeight="1"/>
-    <row r="846" ht="18.75" customHeight="1"/>
-    <row r="847" ht="18.75" customHeight="1"/>
-    <row r="848" ht="18.75" customHeight="1"/>
-    <row r="849" ht="18.75" customHeight="1"/>
-    <row r="850" ht="18.75" customHeight="1"/>
-    <row r="851" ht="18.75" customHeight="1"/>
-    <row r="852" ht="18.75" customHeight="1"/>
-    <row r="853" ht="18.75" customHeight="1"/>
-    <row r="854" ht="18.75" customHeight="1"/>
-    <row r="855" ht="18.75" customHeight="1"/>
-    <row r="856" ht="18.75" customHeight="1"/>
-    <row r="857" ht="18.75" customHeight="1"/>
-    <row r="858" ht="18.75" customHeight="1"/>
-    <row r="859" ht="18.75" customHeight="1"/>
-    <row r="860" ht="18.75" customHeight="1"/>
-    <row r="861" ht="18.75" customHeight="1"/>
-    <row r="862" ht="18.75" customHeight="1"/>
-    <row r="863" ht="18.75" customHeight="1"/>
-    <row r="864" ht="18.75" customHeight="1"/>
-    <row r="865" ht="18.75" customHeight="1"/>
-    <row r="866" ht="18.75" customHeight="1"/>
-    <row r="867" ht="18.75" customHeight="1"/>
-    <row r="868" ht="18.75" customHeight="1"/>
-    <row r="869" ht="18.75" customHeight="1"/>
-    <row r="870" ht="18.75" customHeight="1"/>
-    <row r="871" ht="18.75" customHeight="1"/>
-    <row r="872" ht="18.75" customHeight="1"/>
-    <row r="873" ht="18.75" customHeight="1"/>
-    <row r="874" ht="18.75" customHeight="1"/>
-    <row r="875" ht="18.75" customHeight="1"/>
-    <row r="876" ht="18.75" customHeight="1"/>
-    <row r="877" ht="18.75" customHeight="1"/>
-    <row r="878" ht="18.75" customHeight="1"/>
-    <row r="879" ht="18.75" customHeight="1"/>
-    <row r="880" ht="18.75" customHeight="1"/>
-    <row r="881" ht="18.75" customHeight="1"/>
-    <row r="882" ht="18.75" customHeight="1"/>
-    <row r="883" ht="18.75" customHeight="1"/>
-    <row r="884" ht="18.75" customHeight="1"/>
-    <row r="885" ht="18.75" customHeight="1"/>
-    <row r="886" ht="18.75" customHeight="1"/>
-    <row r="887" ht="18.75" customHeight="1"/>
-    <row r="888" ht="18.75" customHeight="1"/>
-    <row r="889" ht="18.75" customHeight="1"/>
-    <row r="890" ht="18.75" customHeight="1"/>
-    <row r="891" ht="18.75" customHeight="1"/>
-    <row r="892" ht="18.75" customHeight="1"/>
-    <row r="893" ht="18.75" customHeight="1"/>
-    <row r="894" ht="18.75" customHeight="1"/>
-    <row r="895" ht="18.75" customHeight="1"/>
-    <row r="896" ht="18.75" customHeight="1"/>
-    <row r="897" ht="18.75" customHeight="1"/>
-    <row r="898" ht="18.75" customHeight="1"/>
-    <row r="899" ht="18.75" customHeight="1"/>
-    <row r="900" ht="18.75" customHeight="1"/>
-    <row r="901" ht="18.75" customHeight="1"/>
-    <row r="902" ht="18.75" customHeight="1"/>
-    <row r="903" ht="18.75" customHeight="1"/>
-    <row r="904" ht="18.75" customHeight="1"/>
-    <row r="905" ht="18.75" customHeight="1"/>
-    <row r="906" ht="18.75" customHeight="1"/>
-    <row r="907" ht="18.75" customHeight="1"/>
-    <row r="908" ht="18.75" customHeight="1"/>
-    <row r="909" ht="18.75" customHeight="1"/>
-    <row r="910" ht="18.75" customHeight="1"/>
-    <row r="911" ht="18.75" customHeight="1"/>
-    <row r="912" ht="18.75" customHeight="1"/>
-    <row r="913" ht="18.75" customHeight="1"/>
-    <row r="914" ht="18.75" customHeight="1"/>
-    <row r="915" ht="18.75" customHeight="1"/>
-    <row r="916" ht="18.75" customHeight="1"/>
-    <row r="917" ht="18.75" customHeight="1"/>
-    <row r="918" ht="18.75" customHeight="1"/>
-    <row r="919" ht="18.75" customHeight="1"/>
-    <row r="920" ht="18.75" customHeight="1"/>
-    <row r="921" ht="18.75" customHeight="1"/>
-    <row r="922" ht="18.75" customHeight="1"/>
-    <row r="923" ht="18.75" customHeight="1"/>
-    <row r="924" ht="18.75" customHeight="1"/>
-    <row r="925" ht="18.75" customHeight="1"/>
-    <row r="926" ht="18.75" customHeight="1"/>
-    <row r="927" ht="18.75" customHeight="1"/>
-    <row r="928" ht="18.75" customHeight="1"/>
-    <row r="929" ht="18.75" customHeight="1"/>
-    <row r="930" ht="18.75" customHeight="1"/>
-    <row r="931" ht="18.75" customHeight="1"/>
-    <row r="932" ht="18.75" customHeight="1"/>
-    <row r="933" ht="18.75" customHeight="1"/>
-    <row r="934" ht="18.75" customHeight="1"/>
-    <row r="935" ht="18.75" customHeight="1"/>
-    <row r="936" ht="18.75" customHeight="1"/>
-    <row r="937" ht="18.75" customHeight="1"/>
-    <row r="938" ht="18.75" customHeight="1"/>
-    <row r="939" ht="18.75" customHeight="1"/>
-    <row r="940" ht="18.75" customHeight="1"/>
-    <row r="941" ht="18.75" customHeight="1"/>
-    <row r="942" ht="18.75" customHeight="1"/>
-    <row r="943" ht="18.75" customHeight="1"/>
-    <row r="944" ht="18.75" customHeight="1"/>
-    <row r="945" ht="18.75" customHeight="1"/>
-    <row r="946" ht="18.75" customHeight="1"/>
-    <row r="947" ht="18.75" customHeight="1"/>
-    <row r="948" ht="18.75" customHeight="1"/>
-    <row r="949" ht="18.75" customHeight="1"/>
-    <row r="950" ht="18.75" customHeight="1"/>
-    <row r="951" ht="18.75" customHeight="1"/>
-    <row r="952" ht="18.75" customHeight="1"/>
-    <row r="953" ht="18.75" customHeight="1"/>
-    <row r="954" ht="18.75" customHeight="1"/>
-    <row r="955" ht="18.75" customHeight="1"/>
-    <row r="956" ht="18.75" customHeight="1"/>
-    <row r="957" ht="18.75" customHeight="1"/>
-    <row r="958" ht="18.75" customHeight="1"/>
-    <row r="959" ht="18.75" customHeight="1"/>
-    <row r="960" ht="18.75" customHeight="1"/>
-    <row r="961" ht="18.75" customHeight="1"/>
-    <row r="962" ht="18.75" customHeight="1"/>
-    <row r="963" ht="18.75" customHeight="1"/>
-    <row r="964" ht="18.75" customHeight="1"/>
-    <row r="965" ht="18.75" customHeight="1"/>
-    <row r="966" ht="18.75" customHeight="1"/>
-    <row r="967" ht="18.75" customHeight="1"/>
-    <row r="968" ht="18.75" customHeight="1"/>
-    <row r="969" ht="18.75" customHeight="1"/>
-    <row r="970" ht="18.75" customHeight="1"/>
-    <row r="971" ht="18.75" customHeight="1"/>
-    <row r="972" ht="18.75" customHeight="1"/>
-    <row r="973" ht="18.75" customHeight="1"/>
-    <row r="974" ht="18.75" customHeight="1"/>
-    <row r="975" ht="18.75" customHeight="1"/>
-    <row r="976" ht="18.75" customHeight="1"/>
-    <row r="977" ht="18.75" customHeight="1"/>
-    <row r="978" ht="18.75" customHeight="1"/>
-    <row r="979" ht="18.75" customHeight="1"/>
-    <row r="980" ht="18.75" customHeight="1"/>
-    <row r="981" ht="18.75" customHeight="1"/>
-    <row r="982" ht="18.75" customHeight="1"/>
-    <row r="983" ht="18.75" customHeight="1"/>
-    <row r="984" ht="18.75" customHeight="1"/>
-    <row r="985" ht="18.75" customHeight="1"/>
-    <row r="986" ht="18.75" customHeight="1"/>
-    <row r="987" ht="18.75" customHeight="1"/>
-    <row r="988" ht="18.75" customHeight="1"/>
-    <row r="989" ht="18.75" customHeight="1"/>
-    <row r="990" ht="18.75" customHeight="1"/>
-    <row r="991" ht="18.75" customHeight="1"/>
-    <row r="992" ht="18.75" customHeight="1"/>
-    <row r="993" ht="18.75" customHeight="1"/>
-    <row r="994" ht="18.75" customHeight="1"/>
-    <row r="995" ht="18.75" customHeight="1"/>
-    <row r="996" ht="18.75" customHeight="1"/>
-    <row r="997" ht="18.75" customHeight="1"/>
-    <row r="998" ht="18.75" customHeight="1"/>
-    <row r="999" ht="18.75" customHeight="1"/>
-    <row r="1000" ht="18.75" customHeight="1"/>
+    <row r="26" spans="3:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="3:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="3:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="3:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="3:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="3:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="3:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="81" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="86" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="87" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="89" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="90" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="91" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="92" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="93" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="94" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="95" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="96" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="97" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="98" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="99" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="100" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="101" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="102" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="103" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="104" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="105" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="106" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="107" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="108" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="109" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="110" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="111" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="112" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="113" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="114" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="115" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="116" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="117" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="118" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="119" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="120" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="121" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="122" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="123" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="124" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="125" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="126" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="127" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="128" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="129" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="130" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="131" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="132" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="133" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="134" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="135" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="136" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="137" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="138" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="139" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="140" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="141" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="142" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="143" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="144" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="145" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="146" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="147" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="148" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="149" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="150" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="151" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="152" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="153" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="154" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="155" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="156" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="157" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="158" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="159" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="160" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="161" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="162" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="163" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="164" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="165" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="166" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="167" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="168" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="169" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="170" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="171" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="172" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="173" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="174" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="175" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="176" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="177" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="178" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="179" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="180" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="181" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="182" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="183" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="184" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="185" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="186" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="187" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="188" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="189" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="190" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="191" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="192" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="193" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="194" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="195" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="196" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="197" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="198" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="199" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="200" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="201" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="202" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="203" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="204" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="205" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="206" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="207" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="208" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="209" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="210" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="211" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="212" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="213" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="214" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="215" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="216" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="217" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="218" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="219" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="220" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="221" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="222" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="223" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="224" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="225" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="226" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="227" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="228" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="229" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="230" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="231" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="232" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="233" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="234" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="235" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="236" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="237" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="238" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="239" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="240" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="241" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="242" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="243" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="244" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="245" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="246" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="247" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="248" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="249" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="250" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="251" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="252" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="253" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="254" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="255" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="256" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="257" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="258" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="259" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="260" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="261" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="262" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="263" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="264" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="265" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="266" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="267" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="268" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="269" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="270" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="271" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="272" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="273" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="274" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="275" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="276" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="277" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="278" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="279" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="280" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="281" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="282" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="283" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="284" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="285" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="286" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="287" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="288" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="289" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="290" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="291" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="292" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="293" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="294" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="295" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="296" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="297" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="298" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="299" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="300" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="301" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="302" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="303" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="304" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="305" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="306" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="307" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="308" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="309" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="310" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="311" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="312" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="313" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="314" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="315" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="316" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="317" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="318" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="319" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="320" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="321" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="322" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="323" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="324" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="325" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="326" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="327" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="328" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="329" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="330" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="331" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="332" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="333" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="334" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="335" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="336" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="337" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="338" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="339" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="340" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="341" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="342" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="343" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="344" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="345" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="346" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="347" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="348" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="349" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="350" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="351" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="352" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="353" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="354" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="355" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="356" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="357" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="358" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="359" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="360" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="361" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="362" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="363" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="364" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="365" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="366" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="367" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="368" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="369" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="370" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="371" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="372" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="373" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="374" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="375" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="376" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="377" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="378" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="379" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="380" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="381" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="382" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="383" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="384" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="385" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="386" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="387" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="388" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="389" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="390" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="391" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="392" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="393" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="394" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="395" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="396" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="397" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="398" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="399" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="400" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="401" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="402" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="403" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="404" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="405" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="406" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="407" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="408" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="409" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="410" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="411" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="412" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="413" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="414" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="415" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="416" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="417" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="418" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="419" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="420" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="421" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="422" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="423" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="424" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="425" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="426" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="427" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="428" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="429" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="430" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="431" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="432" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="433" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="434" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="435" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="436" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="437" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="438" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="439" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="440" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="441" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="442" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="443" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="444" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="445" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="446" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="447" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="448" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="449" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="450" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="451" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="452" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="453" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="454" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="455" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="456" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="457" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="458" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="459" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="460" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="461" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="462" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="463" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="464" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="465" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="466" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="467" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="468" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="469" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="470" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="471" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="472" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="473" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="474" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="475" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="476" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="477" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="478" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="479" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="480" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="481" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="482" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="483" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="484" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="485" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="486" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="487" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="488" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="489" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="490" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="491" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="492" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="493" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="494" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="495" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="496" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="497" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="498" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="499" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="500" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="501" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="502" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="503" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="504" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="505" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="506" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="507" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="508" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="509" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="510" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="511" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="512" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="513" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="514" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="515" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="516" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="517" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="518" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="519" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="520" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="521" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="522" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="523" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="524" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="525" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="526" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="527" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="528" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="529" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="530" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="531" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="532" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="533" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="534" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="535" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="536" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="537" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="538" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="539" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="540" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="541" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="542" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="543" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="544" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="545" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="546" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="547" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="548" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="549" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="550" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="551" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="552" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="553" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="554" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="555" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="556" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="557" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="558" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="559" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="560" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="561" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="562" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="563" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="564" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="565" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="566" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="567" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="568" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="569" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="570" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="571" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="572" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="573" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="574" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="575" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="576" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="577" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="578" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="579" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="580" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="581" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="582" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="583" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="584" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="585" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="586" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="587" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="588" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="589" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="590" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="591" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="592" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="593" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="594" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="595" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="596" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="597" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="598" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="599" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="600" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="601" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="602" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="603" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="604" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="605" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="606" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="607" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="608" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="609" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="610" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="611" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="612" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="613" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="614" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="615" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="616" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="617" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="618" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="619" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="620" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="621" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="622" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="623" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="624" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="625" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="626" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="627" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="628" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="629" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="630" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="631" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="632" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="633" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="634" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="635" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="636" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="637" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="638" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="639" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="640" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="641" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="642" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="643" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="644" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="645" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="646" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="647" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="648" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="649" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="650" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="651" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="652" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="653" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="654" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="655" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="656" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="657" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="658" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="659" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="660" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="661" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="662" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="663" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="664" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="665" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="666" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="667" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="668" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="669" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="670" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="671" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="672" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="673" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="674" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="675" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="676" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="677" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="678" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="679" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="680" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="681" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="682" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="683" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="684" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="685" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="686" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="687" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="688" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="689" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="690" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="691" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="692" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="693" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="694" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="695" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="696" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="697" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="698" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="699" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="700" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="701" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="702" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="703" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="704" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="705" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="706" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="707" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="708" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="709" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="710" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="711" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="712" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="713" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="714" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="715" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="716" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="717" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="718" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="719" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="720" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="721" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="722" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="723" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="724" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="725" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="726" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="727" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="728" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="729" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="730" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="731" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="732" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="733" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="734" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="735" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="736" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="737" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="738" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="739" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="740" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="741" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="742" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="743" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="744" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="745" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="746" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="747" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="748" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="749" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="750" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="751" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="752" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="753" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="754" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="755" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="756" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="757" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="758" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="759" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="760" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="761" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="762" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="763" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="764" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="765" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="766" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="767" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="768" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="769" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="770" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="771" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="772" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="773" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="774" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="775" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="776" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="777" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="778" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="779" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="780" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="781" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="782" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="783" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="784" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="785" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="786" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="787" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="788" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="789" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="790" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="791" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="792" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="793" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="794" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="795" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="796" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="797" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="798" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="799" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="800" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="801" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="802" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="803" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="804" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="805" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="806" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="807" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="808" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="809" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="810" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="811" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="812" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="813" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="814" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="815" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="816" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="817" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="818" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="819" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="820" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="821" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="822" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="823" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="824" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="825" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="826" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="827" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="828" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="829" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="830" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="831" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="832" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="833" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="834" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="835" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="836" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="837" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="838" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="839" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="840" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="841" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="842" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="843" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="844" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="845" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="846" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="847" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="848" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="849" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="850" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="851" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="852" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="853" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="854" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="855" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="856" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="857" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="858" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="859" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="860" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="861" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="862" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="863" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="864" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="865" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="866" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="867" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="868" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="869" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="870" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="871" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="872" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="873" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="874" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="875" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="876" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="877" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="878" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="879" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="880" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="881" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="882" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="883" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="884" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="885" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="886" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="887" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="888" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="889" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="890" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="891" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="892" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="893" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="894" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="895" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="896" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="897" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="898" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="899" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="900" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="901" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="902" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="903" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="904" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="905" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="906" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="907" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="908" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="909" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="910" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="911" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="912" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="913" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="914" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="915" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="916" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="917" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="918" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="919" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="920" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="921" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="922" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="923" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="924" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="925" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="926" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="927" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="928" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="929" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="930" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="931" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="932" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="933" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="934" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="935" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="936" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="937" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="938" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="939" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="940" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="941" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="942" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="943" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="944" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="945" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="946" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="947" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="948" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="949" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="950" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="951" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="952" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="953" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="954" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="955" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="956" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="957" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="958" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="959" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="960" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="961" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="962" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="963" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="964" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="965" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="966" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="967" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="968" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="969" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="970" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="971" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="972" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="973" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="974" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="975" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="976" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="977" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="978" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="979" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="980" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="981" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="982" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="983" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="984" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="985" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="986" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="987" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="988" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="989" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="990" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="991" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="992" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="993" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="994" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="995" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="996" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="997" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="998" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="999" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1000" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <autoFilter ref="$C$2:$N$25"/>
-  <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="M3:M25">
+  <autoFilter ref="C2:N25" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <phoneticPr fontId="7"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="M3:M25" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>$A$2:$A$7</formula1>
     </dataValidation>
   </dataValidations>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A2:L56"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="H45" sqref="H45"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="8.71"/>
-    <col customWidth="1" min="2" max="2" width="9.71"/>
-    <col customWidth="1" min="3" max="3" width="20.29"/>
-    <col customWidth="1" min="4" max="4" width="33.86"/>
-    <col customWidth="1" min="5" max="5" width="51.43"/>
-    <col customWidth="1" min="6" max="9" width="14.43"/>
-    <col customWidth="1" min="10" max="10" width="13.0"/>
-    <col customWidth="1" min="11" max="11" width="14.43"/>
-    <col customWidth="1" min="12" max="12" width="16.14"/>
+    <col min="1" max="1" width="8.7109375" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" customWidth="1"/>
+    <col min="4" max="4" width="33.85546875" customWidth="1"/>
+    <col min="5" max="5" width="51.42578125" customWidth="1"/>
+    <col min="6" max="9" width="14.42578125" customWidth="1"/>
+    <col min="10" max="10" width="13" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" customWidth="1"/>
+    <col min="12" max="12" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -2984,9 +3013,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
-        <f t="shared" ref="A3:A56" si="1">ROW()-2</f>
+        <f t="shared" ref="A3:A56" si="0">ROW()-2</f>
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -2995,10 +3024,10 @@
       <c r="C3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>71</v>
       </c>
       <c r="F3" s="3"/>
@@ -3009,9 +3038,9 @@
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -3020,10 +3049,10 @@
       <c r="C4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>16</v>
       </c>
       <c r="F4" s="3"/>
@@ -3034,9 +3063,9 @@
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -3045,10 +3074,10 @@
       <c r="C5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="3" t="s">
         <v>73</v>
       </c>
       <c r="F5" s="3"/>
@@ -3059,9 +3088,9 @@
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -3070,10 +3099,10 @@
       <c r="C6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="3" t="s">
         <v>75</v>
       </c>
       <c r="F6" s="3"/>
@@ -3084,9 +3113,9 @@
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -3095,10 +3124,10 @@
       <c r="C7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="3" t="s">
         <v>77</v>
       </c>
       <c r="F7" s="3"/>
@@ -3109,9 +3138,9 @@
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -3120,10 +3149,10 @@
       <c r="C8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="3" t="s">
         <v>79</v>
       </c>
       <c r="F8" s="3"/>
@@ -3134,9 +3163,9 @@
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -3145,10 +3174,10 @@
       <c r="C9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="3" t="s">
         <v>81</v>
       </c>
       <c r="F9" s="3"/>
@@ -3159,9 +3188,9 @@
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -3170,10 +3199,10 @@
       <c r="C10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="3" t="s">
         <v>83</v>
       </c>
       <c r="F10" s="3"/>
@@ -3184,9 +3213,9 @@
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -3195,10 +3224,10 @@
       <c r="C11" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="3" t="s">
         <v>85</v>
       </c>
       <c r="F11" s="3"/>
@@ -3209,9 +3238,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B12" s="3" t="s">
@@ -3220,10 +3249,10 @@
       <c r="C12" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="3" t="s">
         <v>87</v>
       </c>
       <c r="F12" s="3"/>
@@ -3234,9 +3263,9 @@
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -3245,10 +3274,10 @@
       <c r="C13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="3" t="s">
         <v>89</v>
       </c>
       <c r="F13" s="3"/>
@@ -3259,9 +3288,9 @@
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -3270,10 +3299,10 @@
       <c r="C14" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="3" t="s">
         <v>91</v>
       </c>
       <c r="F14" s="3"/>
@@ -3284,9 +3313,9 @@
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -3295,10 +3324,10 @@
       <c r="C15" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="3" t="s">
         <v>93</v>
       </c>
       <c r="F15" s="3"/>
@@ -3309,9 +3338,9 @@
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="B16" s="3" t="s">
@@ -3320,10 +3349,10 @@
       <c r="C16" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="3" t="s">
         <v>95</v>
       </c>
       <c r="F16" s="3"/>
@@ -3334,9 +3363,9 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -3345,10 +3374,10 @@
       <c r="C17" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="3" t="s">
         <v>97</v>
       </c>
       <c r="F17" s="3"/>
@@ -3359,9 +3388,9 @@
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="B18" s="3" t="s">
@@ -3370,10 +3399,10 @@
       <c r="C18" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E18" s="3" t="s">
         <v>99</v>
       </c>
       <c r="F18" s="3"/>
@@ -3384,9 +3413,9 @@
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="B19" s="3" t="s">
@@ -3395,10 +3424,10 @@
       <c r="C19" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E19" s="3" t="s">
         <v>101</v>
       </c>
       <c r="F19" s="3"/>
@@ -3409,9 +3438,9 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -3420,10 +3449,10 @@
       <c r="C20" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E20" s="3" t="s">
         <v>103</v>
       </c>
       <c r="F20" s="3"/>
@@ -3434,9 +3463,9 @@
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
     </row>
-    <row r="21">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="B21" s="3" t="s">
@@ -3445,10 +3474,10 @@
       <c r="C21" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="E21" s="3" t="s">
         <v>105</v>
       </c>
       <c r="F21" s="3"/>
@@ -3459,9 +3488,9 @@
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
     </row>
-    <row r="22">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="B22" s="3" t="s">
@@ -3470,10 +3499,10 @@
       <c r="C22" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D22" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="E22" s="3" t="s">
         <v>107</v>
       </c>
       <c r="F22" s="3"/>
@@ -3484,9 +3513,9 @@
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
     </row>
-    <row r="23">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="B23" s="3" t="s">
@@ -3495,10 +3524,10 @@
       <c r="C23" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D23" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="E23" s="3" t="s">
         <v>109</v>
       </c>
       <c r="F23" s="3"/>
@@ -3509,9 +3538,9 @@
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
     </row>
-    <row r="24">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="B24" s="3" t="s">
@@ -3520,10 +3549,10 @@
       <c r="C24" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D24" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="E24" s="3" t="s">
         <v>111</v>
       </c>
       <c r="F24" s="3"/>
@@ -3534,9 +3563,9 @@
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
     </row>
-    <row r="25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -3545,10 +3574,10 @@
       <c r="C25" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D25" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="E25" s="3" t="s">
         <v>113</v>
       </c>
       <c r="F25" s="3"/>
@@ -3559,9 +3588,9 @@
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
     </row>
-    <row r="26">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="B26" s="3" t="s">
@@ -3570,10 +3599,10 @@
       <c r="C26" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="D26" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="E26" s="4" t="s">
+      <c r="E26" s="3" t="s">
         <v>115</v>
       </c>
       <c r="F26" s="3"/>
@@ -3584,9 +3613,9 @@
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
     </row>
-    <row r="27">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -3595,10 +3624,10 @@
       <c r="C27" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="D27" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="E27" s="4" t="s">
+      <c r="E27" s="3" t="s">
         <v>117</v>
       </c>
       <c r="F27" s="3"/>
@@ -3609,9 +3638,9 @@
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
     </row>
-    <row r="28">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="B28" s="3" t="s">
@@ -3620,10 +3649,10 @@
       <c r="C28" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="D28" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="E28" s="3" t="s">
         <v>119</v>
       </c>
       <c r="F28" s="3"/>
@@ -3634,9 +3663,9 @@
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
     </row>
-    <row r="29">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="B29" s="3" t="s">
@@ -3645,10 +3674,10 @@
       <c r="C29" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="D29" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="E29" s="4" t="s">
+      <c r="E29" s="3" t="s">
         <v>121</v>
       </c>
       <c r="F29" s="3"/>
@@ -3659,9 +3688,9 @@
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
     </row>
-    <row r="30">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="B30" s="3" t="s">
@@ -3670,10 +3699,10 @@
       <c r="C30" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="D30" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="E30" s="4" t="s">
+      <c r="E30" s="3" t="s">
         <v>123</v>
       </c>
       <c r="F30" s="3"/>
@@ -3684,9 +3713,9 @@
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
     </row>
-    <row r="31">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="B31" s="3" t="s">
@@ -3695,10 +3724,10 @@
       <c r="C31" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="D31" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="E31" s="4" t="s">
+      <c r="E31" s="3" t="s">
         <v>125</v>
       </c>
       <c r="F31" s="3"/>
@@ -3709,9 +3738,9 @@
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
     </row>
-    <row r="32">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="B32" s="3" t="s">
@@ -3720,10 +3749,10 @@
       <c r="C32" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="D32" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="E32" s="4" t="s">
+      <c r="E32" s="3" t="s">
         <v>127</v>
       </c>
       <c r="F32" s="3"/>
@@ -3734,21 +3763,21 @@
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
     </row>
-    <row r="33">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C33" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="D33" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E33" s="4" t="s">
+      <c r="E33" s="3" t="s">
         <v>128</v>
       </c>
       <c r="F33" s="3"/>
@@ -3759,21 +3788,21 @@
       <c r="K33" s="3"/>
       <c r="L33" s="3"/>
     </row>
-    <row r="34">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C34" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="D34" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="E34" s="4" t="s">
+      <c r="E34" s="3" t="s">
         <v>130</v>
       </c>
       <c r="F34" s="3"/>
@@ -3784,21 +3813,21 @@
       <c r="K34" s="3"/>
       <c r="L34" s="3"/>
     </row>
-    <row r="35">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C35" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D35" s="4" t="s">
+      <c r="D35" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="E35" s="4" t="s">
+      <c r="E35" s="3" t="s">
         <v>132</v>
       </c>
       <c r="F35" s="3"/>
@@ -3809,21 +3838,21 @@
       <c r="K35" s="3"/>
       <c r="L35" s="3"/>
     </row>
-    <row r="36">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="C36" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D36" s="4" t="s">
+      <c r="D36" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="E36" s="4" t="s">
+      <c r="E36" s="3" t="s">
         <v>134</v>
       </c>
       <c r="F36" s="3"/>
@@ -3834,21 +3863,21 @@
       <c r="K36" s="3"/>
       <c r="L36" s="3"/>
     </row>
-    <row r="37">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="C37" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D37" s="4" t="s">
+      <c r="D37" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="E37" s="4" t="s">
+      <c r="E37" s="3" t="s">
         <v>136</v>
       </c>
       <c r="F37" s="3"/>
@@ -3859,21 +3888,21 @@
       <c r="K37" s="3"/>
       <c r="L37" s="3"/>
     </row>
-    <row r="38">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C38" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D38" s="4" t="s">
+      <c r="D38" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="E38" s="4" t="s">
+      <c r="E38" s="3" t="s">
         <v>138</v>
       </c>
       <c r="F38" s="3"/>
@@ -3884,21 +3913,21 @@
       <c r="K38" s="3"/>
       <c r="L38" s="3"/>
     </row>
-    <row r="39">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>37</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="C39" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D39" s="4" t="s">
+      <c r="D39" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="E39" s="4" t="s">
+      <c r="E39" s="3" t="s">
         <v>140</v>
       </c>
       <c r="F39" s="3"/>
@@ -3909,21 +3938,21 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
     </row>
-    <row r="40">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>38</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="C40" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D40" s="4" t="s">
+      <c r="D40" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="E40" s="4" t="s">
+      <c r="E40" s="3" t="s">
         <v>142</v>
       </c>
       <c r="F40" s="3"/>
@@ -3934,21 +3963,21 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
     </row>
-    <row r="41">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>39</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="C41" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D41" s="4" t="s">
+      <c r="D41" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="E41" s="4" t="s">
+      <c r="E41" s="3" t="s">
         <v>144</v>
       </c>
       <c r="F41" s="3"/>
@@ -3959,21 +3988,21 @@
       <c r="K41" s="3"/>
       <c r="L41" s="3"/>
     </row>
-    <row r="42">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C42" s="4" t="s">
+      <c r="C42" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D42" s="4" t="s">
+      <c r="D42" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="E42" s="4" t="s">
+      <c r="E42" s="3" t="s">
         <v>146</v>
       </c>
       <c r="F42" s="3"/>
@@ -3984,21 +4013,21 @@
       <c r="K42" s="3"/>
       <c r="L42" s="3"/>
     </row>
-    <row r="43">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>41</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="C43" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D43" s="6" t="s">
+      <c r="D43" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="E43" s="4" t="s">
+      <c r="E43" s="3" t="s">
         <v>148</v>
       </c>
       <c r="F43" s="3"/>
@@ -4009,21 +4038,21 @@
       <c r="K43" s="3"/>
       <c r="L43" s="3"/>
     </row>
-    <row r="44">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>42</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C44" s="4" t="s">
+      <c r="C44" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D44" s="4" t="s">
+      <c r="D44" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="E44" s="4" t="s">
+      <c r="E44" s="3" t="s">
         <v>150</v>
       </c>
       <c r="F44" s="3"/>
@@ -4034,300 +4063,348 @@
       <c r="K44" s="3"/>
       <c r="L44" s="3"/>
     </row>
-    <row r="45">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>43</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C45" s="4" t="s">
+      <c r="C45" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D45" s="4" t="s">
+      <c r="D45" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="E45" s="7" t="s">
+      <c r="E45" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="F45" s="3"/>
-      <c r="G45" s="3"/>
+      <c r="F45" s="16">
+        <v>45456</v>
+      </c>
+      <c r="G45" s="16">
+        <v>45456</v>
+      </c>
       <c r="H45" s="3"/>
       <c r="I45" s="3"/>
       <c r="J45" s="3"/>
       <c r="K45" s="3"/>
       <c r="L45" s="3"/>
     </row>
-    <row r="46">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>44</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C46" s="4" t="s">
+      <c r="C46" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D46" s="4" t="s">
+      <c r="D46" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="E46" s="5" t="s">
+      <c r="E46" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="F46" s="3"/>
-      <c r="G46" s="3"/>
+      <c r="F46" s="16">
+        <v>45456</v>
+      </c>
+      <c r="G46" s="16">
+        <v>45456</v>
+      </c>
       <c r="H46" s="3"/>
       <c r="I46" s="3"/>
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
       <c r="L46" s="3"/>
     </row>
-    <row r="47">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>45</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C47" s="4" t="s">
+      <c r="C47" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D47" s="7" t="s">
+      <c r="D47" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="E47" s="4" t="s">
+      <c r="E47" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="F47" s="3"/>
-      <c r="G47" s="3"/>
+      <c r="F47" s="16">
+        <v>45456</v>
+      </c>
+      <c r="G47" s="16">
+        <v>45456</v>
+      </c>
       <c r="H47" s="3"/>
       <c r="I47" s="3"/>
       <c r="J47" s="3"/>
       <c r="K47" s="3"/>
       <c r="L47" s="3"/>
     </row>
-    <row r="48">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>46</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C48" s="4" t="s">
+      <c r="C48" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D48" s="5" t="s">
+      <c r="D48" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="E48" s="4" t="s">
+      <c r="E48" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="F48" s="3"/>
-      <c r="G48" s="3"/>
+      <c r="F48" s="16">
+        <v>45456</v>
+      </c>
+      <c r="G48" s="16">
+        <v>45456</v>
+      </c>
       <c r="H48" s="3"/>
       <c r="I48" s="3"/>
       <c r="J48" s="3"/>
       <c r="K48" s="3"/>
       <c r="L48" s="3"/>
     </row>
-    <row r="49">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>47</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C49" s="4" t="s">
+      <c r="C49" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D49" s="4" t="s">
+      <c r="D49" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="E49" s="7" t="s">
+      <c r="E49" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="F49" s="3"/>
-      <c r="G49" s="3"/>
+      <c r="F49" s="16">
+        <v>45456</v>
+      </c>
+      <c r="G49" s="16">
+        <v>45456</v>
+      </c>
       <c r="H49" s="3"/>
       <c r="I49" s="3"/>
       <c r="J49" s="3"/>
       <c r="K49" s="3"/>
       <c r="L49" s="3"/>
     </row>
-    <row r="50">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C50" s="4" t="s">
+      <c r="C50" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D50" s="5" t="s">
+      <c r="D50" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="E50" s="7" t="s">
+      <c r="E50" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="F50" s="3"/>
-      <c r="G50" s="3"/>
+      <c r="F50" s="16">
+        <v>45456</v>
+      </c>
+      <c r="G50" s="16">
+        <v>45456</v>
+      </c>
       <c r="H50" s="3"/>
       <c r="I50" s="3"/>
       <c r="J50" s="3"/>
       <c r="K50" s="3"/>
       <c r="L50" s="3"/>
     </row>
-    <row r="51">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>49</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C51" s="4" t="s">
+      <c r="C51" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D51" s="4" t="s">
+      <c r="D51" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="E51" s="5" t="s">
+      <c r="E51" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="F51" s="3"/>
-      <c r="G51" s="3"/>
+      <c r="F51" s="16">
+        <v>45456</v>
+      </c>
+      <c r="G51" s="16">
+        <v>45456</v>
+      </c>
       <c r="H51" s="3"/>
       <c r="I51" s="3"/>
       <c r="J51" s="3"/>
       <c r="K51" s="3"/>
       <c r="L51" s="3"/>
     </row>
-    <row r="52">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C52" s="4" t="s">
+      <c r="C52" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D52" s="4" t="s">
+      <c r="D52" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="E52" s="4" t="s">
+      <c r="E52" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="F52" s="3"/>
-      <c r="G52" s="3"/>
+      <c r="F52" s="16">
+        <v>45456</v>
+      </c>
+      <c r="G52" s="16">
+        <v>45456</v>
+      </c>
       <c r="H52" s="3"/>
       <c r="I52" s="3"/>
       <c r="J52" s="3"/>
       <c r="K52" s="3"/>
       <c r="L52" s="3"/>
     </row>
-    <row r="53">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>51</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C53" s="4" t="s">
+      <c r="C53" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D53" s="4" t="s">
+      <c r="D53" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="E53" s="4" t="s">
+      <c r="E53" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="F53" s="3"/>
-      <c r="G53" s="3"/>
+      <c r="F53" s="16">
+        <v>45456</v>
+      </c>
+      <c r="G53" s="16">
+        <v>45456</v>
+      </c>
       <c r="H53" s="3"/>
       <c r="I53" s="3"/>
       <c r="J53" s="3"/>
       <c r="K53" s="3"/>
       <c r="L53" s="3"/>
     </row>
-    <row r="54">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>52</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C54" s="4" t="s">
+      <c r="C54" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D54" s="4" t="s">
+      <c r="D54" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="E54" s="4" t="s">
+      <c r="E54" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="F54" s="3"/>
-      <c r="G54" s="3"/>
+      <c r="F54" s="16">
+        <v>45456</v>
+      </c>
+      <c r="G54" s="16">
+        <v>45456</v>
+      </c>
       <c r="H54" s="3"/>
       <c r="I54" s="3"/>
       <c r="J54" s="3"/>
       <c r="K54" s="3"/>
       <c r="L54" s="3"/>
     </row>
-    <row r="55">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>53</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C55" s="4" t="s">
+      <c r="C55" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D55" s="4" t="s">
+      <c r="D55" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="E55" s="4" t="s">
+      <c r="E55" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="F55" s="3"/>
-      <c r="G55" s="3"/>
+      <c r="F55" s="16">
+        <v>45456</v>
+      </c>
+      <c r="G55" s="16">
+        <v>45456</v>
+      </c>
       <c r="H55" s="3"/>
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
     </row>
-    <row r="56">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>54</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C56" s="4" t="s">
+      <c r="C56" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D56" s="4" t="s">
+      <c r="D56" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="E56" s="4" t="s">
+      <c r="E56" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="F56" s="3"/>
-      <c r="G56" s="3"/>
+      <c r="F56" s="16">
+        <v>45456</v>
+      </c>
+      <c r="G56" s="16">
+        <v>45456</v>
+      </c>
       <c r="H56" s="3"/>
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
@@ -4335,38 +4412,40 @@
       <c r="L56" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="$A$2:$L$25"/>
-  <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="K3:K56">
+  <autoFilter ref="A2:L25" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <phoneticPr fontId="7"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="K3:K56" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"未着手,着手済み,待ち状態,未テスト,完了"</formula1>
     </dataValidation>
   </dataValidations>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A2:L33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="8.71"/>
-    <col customWidth="1" min="2" max="2" width="9.71"/>
-    <col customWidth="1" min="3" max="3" width="26.14"/>
-    <col customWidth="1" min="4" max="4" width="21.86"/>
-    <col customWidth="1" min="5" max="5" width="51.43"/>
-    <col customWidth="1" min="6" max="9" width="14.43"/>
-    <col customWidth="1" min="10" max="10" width="13.0"/>
-    <col customWidth="1" min="11" max="11" width="14.43"/>
-    <col customWidth="1" min="12" max="12" width="16.14"/>
+    <col min="1" max="1" width="8.7109375" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" customWidth="1"/>
+    <col min="3" max="3" width="26.140625" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" customWidth="1"/>
+    <col min="5" max="5" width="51.42578125" customWidth="1"/>
+    <col min="6" max="9" width="14.42578125" customWidth="1"/>
+    <col min="10" max="10" width="13" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" customWidth="1"/>
+    <col min="12" max="12" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -4404,21 +4483,21 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
-        <f t="shared" ref="A3:A21" si="1">ROW()-2</f>
+        <f t="shared" ref="A3:A21" si="0">ROW()-2</f>
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>37</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>175</v>
       </c>
       <c r="F3" s="3"/>
@@ -4429,21 +4508,21 @@
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>37</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>176</v>
       </c>
       <c r="F4" s="3"/>
@@ -4454,21 +4533,21 @@
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>37</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="3" t="s">
         <v>178</v>
       </c>
       <c r="F5" s="3"/>
@@ -4479,46 +4558,46 @@
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
     </row>
-    <row r="6">
-      <c r="A6" s="10">
-        <f t="shared" si="1"/>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>37</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
       <c r="K6" s="3"/>
-      <c r="L6" s="10"/>
-    </row>
-    <row r="7">
+      <c r="L6" s="5"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>37</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="3" t="s">
         <v>182</v>
       </c>
       <c r="F7" s="3"/>
@@ -4529,21 +4608,21 @@
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>37</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="3" t="s">
         <v>184</v>
       </c>
       <c r="F8" s="3"/>
@@ -4554,21 +4633,21 @@
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>37</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="3" t="s">
         <v>186</v>
       </c>
       <c r="F9" s="3"/>
@@ -4579,9 +4658,9 @@
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -4590,10 +4669,10 @@
       <c r="C10" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="3" t="s">
         <v>188</v>
       </c>
       <c r="F10" s="3"/>
@@ -4604,9 +4683,9 @@
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -4615,10 +4694,10 @@
       <c r="C11" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="3" t="s">
         <v>190</v>
       </c>
       <c r="F11" s="3"/>
@@ -4629,9 +4708,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B12" s="3" t="s">
@@ -4640,10 +4719,10 @@
       <c r="C12" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="3" t="s">
         <v>192</v>
       </c>
       <c r="F12" s="3"/>
@@ -4654,9 +4733,9 @@
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -4665,10 +4744,10 @@
       <c r="C13" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="3" t="s">
         <v>194</v>
       </c>
       <c r="F13" s="3"/>
@@ -4679,9 +4758,9 @@
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -4690,10 +4769,10 @@
       <c r="C14" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="3" t="s">
         <v>196</v>
       </c>
       <c r="F14" s="3"/>
@@ -4704,9 +4783,9 @@
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -4715,10 +4794,10 @@
       <c r="C15" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="3" t="s">
         <v>198</v>
       </c>
       <c r="F15" s="3"/>
@@ -4729,9 +4808,9 @@
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="B16" s="3" t="s">
@@ -4740,10 +4819,10 @@
       <c r="C16" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="3" t="s">
         <v>200</v>
       </c>
       <c r="F16" s="3"/>
@@ -4754,9 +4833,9 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -4765,10 +4844,10 @@
       <c r="C17" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="3" t="s">
         <v>202</v>
       </c>
       <c r="F17" s="3"/>
@@ -4779,9 +4858,9 @@
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="B18" s="3" t="s">
@@ -4790,10 +4869,10 @@
       <c r="C18" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E18" s="3" t="s">
         <v>204</v>
       </c>
       <c r="F18" s="3"/>
@@ -4804,9 +4883,9 @@
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="B19" s="3" t="s">
@@ -4815,10 +4894,10 @@
       <c r="C19" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E19" s="3" t="s">
         <v>206</v>
       </c>
       <c r="F19" s="3"/>
@@ -4829,21 +4908,21 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="3" t="s">
         <v>37</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E20" s="3" t="s">
         <v>208</v>
       </c>
       <c r="F20" s="3"/>
@@ -4854,9 +4933,9 @@
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
     </row>
-    <row r="21">
-      <c r="A21" s="10">
-        <f t="shared" si="1"/>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="B21" s="3" t="s">
@@ -4865,23 +4944,23 @@
       <c r="C21" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="E21" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
       <c r="K21" s="3"/>
-      <c r="L21" s="10"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="4">
-        <v>20.0</v>
+      <c r="L21" s="5"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>20</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>37</v>
@@ -4889,10 +4968,10 @@
       <c r="C22" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D22" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="E22" s="3" t="s">
         <v>212</v>
       </c>
       <c r="F22" s="3"/>
@@ -4903,9 +4982,9 @@
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
     </row>
-    <row r="23">
-      <c r="A23" s="10">
-        <f t="shared" ref="A23:A32" si="2">ROW()-2</f>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
+        <f t="shared" ref="A23:A32" si="1">ROW()-2</f>
         <v>21</v>
       </c>
       <c r="B23" s="3" t="s">
@@ -4914,23 +4993,23 @@
       <c r="C23" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D23" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="E23" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
       <c r="K23" s="3"/>
-      <c r="L23" s="10"/>
-    </row>
-    <row r="24">
+      <c r="L23" s="5"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="B24" s="3" t="s">
@@ -4939,10 +5018,10 @@
       <c r="C24" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D24" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="E24" s="3" t="s">
         <v>216</v>
       </c>
       <c r="F24" s="3"/>
@@ -4953,9 +5032,9 @@
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
     </row>
-    <row r="25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -4964,10 +5043,10 @@
       <c r="C25" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D25" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="E25" s="3" t="s">
         <v>218</v>
       </c>
       <c r="F25" s="3"/>
@@ -4978,9 +5057,9 @@
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
     </row>
-    <row r="26">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="B26" s="3" t="s">
@@ -4989,23 +5068,23 @@
       <c r="C26" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="D26" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="E26" s="4" t="s">
+      <c r="E26" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="11"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
     </row>
-    <row r="27">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -5014,23 +5093,23 @@
       <c r="C27" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="D27" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="E27" s="4" t="s">
+      <c r="E27" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="11"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
     </row>
-    <row r="28">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="B28" s="3" t="s">
@@ -5039,23 +5118,23 @@
       <c r="C28" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="D28" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="E28" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="11"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
     </row>
-    <row r="29">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="B29" s="3" t="s">
@@ -5064,140 +5143,142 @@
       <c r="C29" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="D29" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="E29" s="4" t="s">
+      <c r="E29" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="11"/>
-      <c r="J29" s="11"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
     </row>
-    <row r="30">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="3" t="s">
         <v>37</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="D30" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="E30" s="4" t="s">
+      <c r="E30" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="11"/>
-      <c r="J30" s="11"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
     </row>
-    <row r="31">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>29</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="3" t="s">
         <v>37</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="D31" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="E31" s="4" t="s">
+      <c r="E31" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11"/>
-      <c r="J31" s="11"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
     </row>
-    <row r="32">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="3" t="s">
         <v>37</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D32" s="12" t="s">
+      <c r="D32" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="E32" s="13" t="s">
+      <c r="E32" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="11"/>
-      <c r="I32" s="11"/>
-      <c r="J32" s="11"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
     </row>
-    <row r="33">
-      <c r="A33" s="14"/>
-      <c r="B33" s="14"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="K33" s="15"/>
-      <c r="L33" s="15"/>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="10"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="K33" s="10"/>
+      <c r="L33" s="10"/>
     </row>
   </sheetData>
-  <autoFilter ref="$A$2:$L$32"/>
-  <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="K33">
+  <autoFilter ref="A2:L32" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
+  <phoneticPr fontId="7"/>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="K33" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>$A$2:$A$7</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="K3:K32">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="K3:K32" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>"未着手,着手済み,待ち状態,未テスト,完了"</formula1>
     </dataValidation>
   </dataValidations>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A2:Z33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="8.71"/>
-    <col customWidth="1" min="2" max="2" width="9.71"/>
-    <col customWidth="1" min="3" max="3" width="26.14"/>
-    <col customWidth="1" min="4" max="4" width="28.71"/>
-    <col customWidth="1" min="5" max="5" width="76.14"/>
-    <col customWidth="1" min="6" max="9" width="14.43"/>
-    <col customWidth="1" min="10" max="10" width="13.0"/>
-    <col customWidth="1" min="11" max="11" width="14.43"/>
-    <col customWidth="1" min="12" max="12" width="16.14"/>
+    <col min="1" max="1" width="8.7109375" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" customWidth="1"/>
+    <col min="3" max="3" width="26.140625" customWidth="1"/>
+    <col min="4" max="4" width="28.7109375" customWidth="1"/>
+    <col min="5" max="5" width="76.140625" customWidth="1"/>
+    <col min="6" max="9" width="14.42578125" customWidth="1"/>
+    <col min="10" max="10" width="13" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" customWidth="1"/>
+    <col min="12" max="12" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -5235,20 +5316,20 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="B3" s="4" t="s">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>234</v>
       </c>
       <c r="F3" s="3"/>
@@ -5259,20 +5340,20 @@
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
     </row>
-    <row r="4">
-      <c r="A4" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="B4" s="4" t="s">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>236</v>
       </c>
       <c r="F4" s="3"/>
@@ -5283,20 +5364,20 @@
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
     </row>
-    <row r="5">
-      <c r="A5" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="B5" s="4" t="s">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="3" t="s">
         <v>238</v>
       </c>
       <c r="F5" s="3"/>
@@ -5307,20 +5388,20 @@
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
     </row>
-    <row r="6">
-      <c r="A6" s="4">
-        <v>4.0</v>
-      </c>
-      <c r="B6" s="4" t="s">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="3" t="s">
         <v>240</v>
       </c>
       <c r="F6" s="3"/>
@@ -5331,20 +5412,20 @@
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
     </row>
-    <row r="7">
-      <c r="A7" s="4">
-        <v>5.0</v>
-      </c>
-      <c r="B7" s="4" t="s">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="3" t="s">
         <v>242</v>
       </c>
       <c r="F7" s="3"/>
@@ -5355,20 +5436,20 @@
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
     </row>
-    <row r="8">
-      <c r="A8" s="4">
-        <v>6.0</v>
-      </c>
-      <c r="B8" s="4" t="s">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="3" t="s">
         <v>244</v>
       </c>
       <c r="F8" s="3"/>
@@ -5379,20 +5460,20 @@
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
     </row>
-    <row r="9">
-      <c r="A9" s="4">
-        <v>7.0</v>
-      </c>
-      <c r="B9" s="4" t="s">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="3" t="s">
         <v>246</v>
       </c>
       <c r="F9" s="3"/>
@@ -5403,20 +5484,20 @@
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
     </row>
-    <row r="10">
-      <c r="A10" s="4">
-        <v>8.0</v>
-      </c>
-      <c r="B10" s="4" t="s">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="3" t="s">
         <v>248</v>
       </c>
       <c r="F10" s="3"/>
@@ -5427,20 +5508,20 @@
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
     </row>
-    <row r="11">
-      <c r="A11" s="4">
-        <v>9.0</v>
-      </c>
-      <c r="B11" s="4" t="s">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>9</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="3" t="s">
         <v>250</v>
       </c>
       <c r="F11" s="3"/>
@@ -5451,20 +5532,20 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
     </row>
-    <row r="12">
-      <c r="A12" s="4">
-        <v>10.0</v>
-      </c>
-      <c r="B12" s="4" t="s">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>10</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="3" t="s">
         <v>252</v>
       </c>
       <c r="F12" s="3"/>
@@ -5475,20 +5556,20 @@
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
     </row>
-    <row r="13">
-      <c r="A13" s="4">
-        <v>11.0</v>
-      </c>
-      <c r="B13" s="4" t="s">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>11</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="3" t="s">
         <v>254</v>
       </c>
       <c r="F13" s="3"/>
@@ -5499,20 +5580,20 @@
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
     </row>
-    <row r="14">
-      <c r="A14" s="4">
-        <v>12.0</v>
-      </c>
-      <c r="B14" s="4" t="s">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>12</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="3" t="s">
         <v>255</v>
       </c>
       <c r="F14" s="3"/>
@@ -5523,20 +5604,20 @@
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
     </row>
-    <row r="15">
-      <c r="A15" s="4">
-        <v>13.0</v>
-      </c>
-      <c r="B15" s="4" t="s">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>13</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="3" t="s">
         <v>257</v>
       </c>
       <c r="F15" s="3"/>
@@ -5547,20 +5628,20 @@
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
     </row>
-    <row r="16">
-      <c r="A16" s="4">
-        <v>14.0</v>
-      </c>
-      <c r="B16" s="4" t="s">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>14</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="11" t="s">
         <v>259</v>
       </c>
       <c r="F16" s="3"/>
@@ -5571,20 +5652,20 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
     </row>
-    <row r="17">
-      <c r="A17" s="4">
-        <v>15.0</v>
-      </c>
-      <c r="B17" s="4" t="s">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>15</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="E17" s="17" t="s">
+      <c r="E17" s="12" t="s">
         <v>261</v>
       </c>
       <c r="F17" s="3"/>
@@ -5595,20 +5676,20 @@
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
     </row>
-    <row r="18">
-      <c r="A18" s="4">
-        <v>16.0</v>
-      </c>
-      <c r="B18" s="4" t="s">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>16</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E18" s="3" t="s">
         <v>263</v>
       </c>
       <c r="F18" s="3"/>
@@ -5619,20 +5700,20 @@
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
     </row>
-    <row r="19">
-      <c r="A19" s="4">
-        <v>17.0</v>
-      </c>
-      <c r="B19" s="4" t="s">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>17</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E19" s="3" t="s">
         <v>265</v>
       </c>
       <c r="F19" s="3"/>
@@ -5643,20 +5724,20 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
     </row>
-    <row r="20">
-      <c r="A20" s="4">
-        <v>18.0</v>
-      </c>
-      <c r="B20" s="4" t="s">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>18</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E20" s="3" t="s">
         <v>267</v>
       </c>
       <c r="F20" s="3"/>
@@ -5667,20 +5748,20 @@
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
     </row>
-    <row r="21">
-      <c r="A21" s="4">
-        <v>19.0</v>
-      </c>
-      <c r="B21" s="4" t="s">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>19</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="E21" s="3" t="s">
         <v>269</v>
       </c>
       <c r="F21" s="3"/>
@@ -5691,20 +5772,20 @@
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
     </row>
-    <row r="22">
-      <c r="A22" s="4">
-        <v>20.0</v>
-      </c>
-      <c r="B22" s="4" t="s">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>20</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D22" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="E22" s="3" t="s">
         <v>271</v>
       </c>
       <c r="F22" s="3"/>
@@ -5715,20 +5796,20 @@
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
     </row>
-    <row r="23">
-      <c r="A23" s="4">
-        <v>21.0</v>
-      </c>
-      <c r="B23" s="4" t="s">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>21</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D23" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="E23" s="3" t="s">
         <v>272</v>
       </c>
       <c r="F23" s="3"/>
@@ -5739,20 +5820,20 @@
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
     </row>
-    <row r="24">
-      <c r="A24" s="4">
-        <v>22.0</v>
-      </c>
-      <c r="B24" s="4" t="s">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>22</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="D24" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="E24" s="3" t="s">
         <v>274</v>
       </c>
       <c r="F24" s="3"/>
@@ -5763,20 +5844,20 @@
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
     </row>
-    <row r="25">
-      <c r="A25" s="4">
-        <v>23.0</v>
-      </c>
-      <c r="B25" s="4" t="s">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>23</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D25" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="E25" s="3" t="s">
         <v>276</v>
       </c>
       <c r="F25" s="3"/>
@@ -5787,20 +5868,20 @@
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
     </row>
-    <row r="26">
-      <c r="A26" s="4">
-        <v>24.0</v>
-      </c>
-      <c r="B26" s="4" t="s">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>24</v>
+      </c>
+      <c r="B26" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="D26" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="E26" s="4" t="s">
+      <c r="E26" s="3" t="s">
         <v>278</v>
       </c>
       <c r="F26" s="3"/>
@@ -5811,20 +5892,20 @@
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
     </row>
-    <row r="27">
-      <c r="A27" s="4">
-        <v>25.0</v>
-      </c>
-      <c r="B27" s="4" t="s">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>25</v>
+      </c>
+      <c r="B27" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="D27" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="E27" s="4" t="s">
+      <c r="E27" s="3" t="s">
         <v>280</v>
       </c>
       <c r="F27" s="3"/>
@@ -5835,20 +5916,20 @@
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
     </row>
-    <row r="28">
-      <c r="A28" s="4">
-        <v>26.0</v>
-      </c>
-      <c r="B28" s="4" t="s">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>26</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="D28" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="E28" s="17" t="s">
+      <c r="E28" s="12" t="s">
         <v>282</v>
       </c>
       <c r="F28" s="3"/>
@@ -5859,20 +5940,20 @@
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
     </row>
-    <row r="29">
-      <c r="A29" s="4">
-        <v>27.0</v>
-      </c>
-      <c r="B29" s="4" t="s">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>27</v>
+      </c>
+      <c r="B29" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="D29" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="E29" s="4" t="s">
+      <c r="E29" s="3" t="s">
         <v>284</v>
       </c>
       <c r="F29" s="3"/>
@@ -5883,20 +5964,20 @@
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
     </row>
-    <row r="30">
-      <c r="A30" s="4">
-        <v>28.0</v>
-      </c>
-      <c r="B30" s="4" t="s">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>28</v>
+      </c>
+      <c r="B30" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D30" s="18" t="s">
+      <c r="D30" s="13" t="s">
         <v>285</v>
       </c>
-      <c r="E30" s="4" t="s">
+      <c r="E30" s="3" t="s">
         <v>286</v>
       </c>
       <c r="F30" s="3"/>
@@ -5907,127 +5988,128 @@
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
     </row>
-    <row r="31">
-      <c r="A31" s="4">
-        <v>29.0</v>
-      </c>
-      <c r="B31" s="4" t="s">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>29</v>
+      </c>
+      <c r="B31" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C31" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D31" s="18" t="s">
+      <c r="D31" s="13" t="s">
         <v>253</v>
       </c>
-      <c r="E31" s="19" t="s">
+      <c r="E31" s="14" t="s">
         <v>287</v>
       </c>
-      <c r="F31" s="20"/>
-      <c r="G31" s="20"/>
-      <c r="H31" s="20"/>
-      <c r="I31" s="20"/>
-      <c r="J31" s="20"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="14"/>
       <c r="K31" s="3"/>
-      <c r="L31" s="20"/>
-      <c r="M31" s="21"/>
-      <c r="N31" s="21"/>
-      <c r="O31" s="21"/>
-      <c r="P31" s="21"/>
-      <c r="Q31" s="21"/>
-      <c r="R31" s="21"/>
-      <c r="S31" s="21"/>
-      <c r="T31" s="21"/>
-      <c r="U31" s="21"/>
-      <c r="V31" s="21"/>
-      <c r="W31" s="21"/>
-      <c r="X31" s="21"/>
-      <c r="Y31" s="21"/>
-      <c r="Z31" s="21"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="4">
-        <v>30.0</v>
-      </c>
-      <c r="B32" s="4" t="s">
+      <c r="L31" s="14"/>
+      <c r="M31" s="15"/>
+      <c r="N31" s="15"/>
+      <c r="O31" s="15"/>
+      <c r="P31" s="15"/>
+      <c r="Q31" s="15"/>
+      <c r="R31" s="15"/>
+      <c r="S31" s="15"/>
+      <c r="T31" s="15"/>
+      <c r="U31" s="15"/>
+      <c r="V31" s="15"/>
+      <c r="W31" s="15"/>
+      <c r="X31" s="15"/>
+      <c r="Y31" s="15"/>
+      <c r="Z31" s="15"/>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <v>30</v>
+      </c>
+      <c r="B32" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C32" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="D32" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="E32" s="19" t="s">
+      <c r="E32" s="14" t="s">
         <v>289</v>
       </c>
-      <c r="F32" s="20"/>
-      <c r="G32" s="20"/>
-      <c r="H32" s="20"/>
-      <c r="I32" s="20"/>
-      <c r="J32" s="20"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="14"/>
       <c r="K32" s="3"/>
-      <c r="L32" s="20"/>
-      <c r="M32" s="21"/>
-      <c r="N32" s="21"/>
-      <c r="O32" s="21"/>
-      <c r="P32" s="21"/>
-      <c r="Q32" s="21"/>
-      <c r="R32" s="21"/>
-      <c r="S32" s="21"/>
-      <c r="T32" s="21"/>
-      <c r="U32" s="21"/>
-      <c r="V32" s="21"/>
-      <c r="W32" s="21"/>
-      <c r="X32" s="21"/>
-      <c r="Y32" s="21"/>
-      <c r="Z32" s="21"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="4">
-        <v>31.0</v>
-      </c>
-      <c r="B33" s="4" t="s">
+      <c r="L32" s="14"/>
+      <c r="M32" s="15"/>
+      <c r="N32" s="15"/>
+      <c r="O32" s="15"/>
+      <c r="P32" s="15"/>
+      <c r="Q32" s="15"/>
+      <c r="R32" s="15"/>
+      <c r="S32" s="15"/>
+      <c r="T32" s="15"/>
+      <c r="U32" s="15"/>
+      <c r="V32" s="15"/>
+      <c r="W32" s="15"/>
+      <c r="X32" s="15"/>
+      <c r="Y32" s="15"/>
+      <c r="Z32" s="15"/>
+    </row>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>31</v>
+      </c>
+      <c r="B33" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C33" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D33" s="18" t="s">
+      <c r="D33" s="13" t="s">
         <v>290</v>
       </c>
-      <c r="E33" s="18" t="s">
+      <c r="E33" s="13" t="s">
         <v>291</v>
       </c>
-      <c r="F33" s="20"/>
-      <c r="G33" s="20"/>
-      <c r="H33" s="20"/>
-      <c r="I33" s="20"/>
-      <c r="J33" s="20"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="14"/>
+      <c r="J33" s="14"/>
       <c r="K33" s="3"/>
-      <c r="L33" s="20"/>
-      <c r="M33" s="21"/>
-      <c r="N33" s="21"/>
-      <c r="O33" s="21"/>
-      <c r="P33" s="21"/>
-      <c r="Q33" s="21"/>
-      <c r="R33" s="21"/>
-      <c r="S33" s="21"/>
-      <c r="T33" s="21"/>
-      <c r="U33" s="21"/>
-      <c r="V33" s="21"/>
-      <c r="W33" s="21"/>
-      <c r="X33" s="21"/>
-      <c r="Y33" s="21"/>
-      <c r="Z33" s="21"/>
+      <c r="L33" s="14"/>
+      <c r="M33" s="15"/>
+      <c r="N33" s="15"/>
+      <c r="O33" s="15"/>
+      <c r="P33" s="15"/>
+      <c r="Q33" s="15"/>
+      <c r="R33" s="15"/>
+      <c r="S33" s="15"/>
+      <c r="T33" s="15"/>
+      <c r="U33" s="15"/>
+      <c r="V33" s="15"/>
+      <c r="W33" s="15"/>
+      <c r="X33" s="15"/>
+      <c r="Y33" s="15"/>
+      <c r="Z33" s="15"/>
     </row>
   </sheetData>
-  <autoFilter ref="$A$2:$L$23"/>
-  <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="K3:K33">
+  <autoFilter ref="A2:L23" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
+  <phoneticPr fontId="7"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="K3:K33" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>"未着手,着手済み,待ち状態,未テスト,完了"</formula1>
     </dataValidation>
   </dataValidations>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/doc/03_ファイル構成一覧表_ダチョウの群れ.xlsx
+++ b/doc/03_ファイル構成一覧表_ダチョウの群れ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\C3\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F82FC56-242F-4648-82EB-8E27E64816FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5830BCB1-B6CC-4E68-B1D3-0D6AD3A54BAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="900" yWindow="900" windowWidth="21624" windowHeight="10920" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sample" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">css!$A$2:$L$23</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Java(Servlet,DAO)'!$A$2:$L$25</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">jsp!$A$2:$L$32</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">jsp!$A$2:$L$33</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sample!$C$2:$N$25</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="294">
   <si>
     <t>ステータス</t>
   </si>
@@ -918,6 +918,17 @@
   </si>
   <si>
     <t>結果表示画面用css（ログイン・検索・予約フォーム・諸登録・諸編集・諸削除)</t>
+  </si>
+  <si>
+    <t>animal_search_result.jsp</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>動物個体検索結果画面用jsp</t>
+    <rPh sb="6" eb="8">
+      <t>ケッカ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
   </si>
 </sst>
 </file>
@@ -1323,27 +1334,27 @@
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" hidden="1" customWidth="1"/>
-    <col min="2" max="3" width="8.7109375" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" customWidth="1"/>
-    <col min="5" max="5" width="26.140625" customWidth="1"/>
+    <col min="1" max="1" width="8.6640625" hidden="1" customWidth="1"/>
+    <col min="2" max="3" width="8.6640625" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" customWidth="1"/>
+    <col min="5" max="5" width="26.109375" customWidth="1"/>
     <col min="6" max="6" width="20" customWidth="1"/>
-    <col min="7" max="7" width="51.42578125" customWidth="1"/>
-    <col min="8" max="11" width="14.42578125" customWidth="1"/>
+    <col min="7" max="7" width="51.44140625" customWidth="1"/>
+    <col min="8" max="11" width="14.44140625" customWidth="1"/>
     <col min="12" max="12" width="13" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" customWidth="1"/>
-    <col min="14" max="14" width="16.140625" customWidth="1"/>
-    <col min="15" max="26" width="8.7109375" customWidth="1"/>
+    <col min="13" max="13" width="14.44140625" customWidth="1"/>
+    <col min="14" max="14" width="16.109375" customWidth="1"/>
+    <col min="15" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1381,7 +1392,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -1409,7 +1420,7 @@
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
     </row>
-    <row r="4" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
@@ -1437,7 +1448,7 @@
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
     </row>
-    <row r="5" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
@@ -1465,7 +1476,7 @@
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
     </row>
-    <row r="6" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -1493,7 +1504,7 @@
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
     </row>
-    <row r="7" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>26</v>
       </c>
@@ -1521,7 +1532,7 @@
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
     </row>
-    <row r="8" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C8" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1546,7 +1557,7 @@
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
     </row>
-    <row r="9" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C9" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1571,7 +1582,7 @@
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
     </row>
-    <row r="10" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C10" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1596,7 +1607,7 @@
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
     </row>
-    <row r="11" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C11" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1621,7 +1632,7 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
     </row>
-    <row r="12" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1646,7 +1657,7 @@
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
     </row>
-    <row r="13" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C13" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1671,7 +1682,7 @@
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
     </row>
-    <row r="14" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C14" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1696,7 +1707,7 @@
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
     </row>
-    <row r="15" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C15" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1721,7 +1732,7 @@
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
     </row>
-    <row r="16" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C16" s="3">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1746,7 +1757,7 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
     </row>
-    <row r="17" spans="3:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C17" s="3">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1771,7 +1782,7 @@
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
     </row>
-    <row r="18" spans="3:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C18" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1796,7 +1807,7 @@
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
     </row>
-    <row r="19" spans="3:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C19" s="3">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1821,7 +1832,7 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
     </row>
-    <row r="20" spans="3:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C20" s="3">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1846,7 +1857,7 @@
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
     </row>
-    <row r="21" spans="3:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C21" s="3">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1871,7 +1882,7 @@
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
     </row>
-    <row r="22" spans="3:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C22" s="3">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1896,7 +1907,7 @@
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
     </row>
-    <row r="23" spans="3:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C23" s="3">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1921,7 +1932,7 @@
       <c r="M23" s="3"/>
       <c r="N23" s="3"/>
     </row>
-    <row r="24" spans="3:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C24" s="3">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -1946,7 +1957,7 @@
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
     </row>
-    <row r="25" spans="3:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C25" s="3">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -1963,981 +1974,981 @@
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
     </row>
-    <row r="26" spans="3:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="3:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="3:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="3:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="3:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="3:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="3:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="49" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="50" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="51" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="52" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="53" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="54" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="55" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="56" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="57" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="58" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="59" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="60" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="61" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="63" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="65" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="66" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="67" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="68" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="69" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="70" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="71" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="72" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="73" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="74" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="75" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="76" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="77" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="78" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="79" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="80" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="81" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="82" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="83" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="84" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="85" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="86" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="87" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="88" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="89" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="90" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="91" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="92" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="93" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="94" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="95" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="96" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="97" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="98" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="99" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="100" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="101" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="102" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="103" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="104" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="105" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="106" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="107" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="108" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="109" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="110" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="111" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="112" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="113" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="114" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="115" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="116" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="117" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="118" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="119" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="120" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="121" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="122" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="123" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="124" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="125" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="126" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="127" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="128" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="129" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="130" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="131" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="132" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="133" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="134" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="135" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="136" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="137" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="138" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="139" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="140" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="141" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="142" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="143" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="144" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="145" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="146" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="147" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="148" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="149" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="150" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="151" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="152" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="153" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="154" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="155" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="156" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="157" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="158" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="159" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="160" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="161" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="162" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="163" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="164" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="165" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="166" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="167" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="168" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="169" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="170" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="171" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="172" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="173" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="174" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="175" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="176" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="177" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="178" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="179" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="180" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="181" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="182" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="183" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="184" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="185" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="186" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="187" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="188" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="189" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="190" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="191" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="192" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="193" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="194" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="195" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="196" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="197" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="198" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="199" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="200" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="201" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="202" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="203" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="204" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="205" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="206" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="207" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="208" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="209" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="210" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="211" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="212" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="213" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="214" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="215" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="216" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="217" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="218" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="219" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="220" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="221" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="222" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="223" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="224" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="225" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="226" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="227" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="228" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="229" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="230" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="231" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="232" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="233" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="234" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="235" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="236" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="237" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="238" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="239" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="240" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="241" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="242" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="243" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="244" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="245" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="246" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="247" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="248" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="249" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="250" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="251" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="252" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="253" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="254" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="255" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="256" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="257" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="258" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="259" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="260" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="261" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="262" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="263" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="264" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="265" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="266" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="267" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="268" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="269" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="270" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="271" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="272" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="273" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="274" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="275" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="276" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="277" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="278" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="279" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="280" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="281" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="282" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="283" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="284" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="285" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="286" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="287" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="288" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="289" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="290" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="291" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="292" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="293" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="294" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="295" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="296" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="297" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="298" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="299" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="300" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="301" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="302" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="303" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="304" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="305" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="306" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="307" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="308" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="309" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="310" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="311" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="312" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="313" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="314" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="315" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="316" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="317" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="318" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="319" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="320" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="321" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="322" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="323" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="324" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="325" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="326" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="327" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="328" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="329" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="330" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="331" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="332" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="333" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="334" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="335" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="336" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="337" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="338" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="339" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="340" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="341" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="342" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="343" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="344" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="345" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="346" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="347" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="348" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="349" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="350" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="351" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="352" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="353" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="354" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="355" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="356" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="357" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="358" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="359" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="360" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="361" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="362" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="363" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="364" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="365" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="366" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="367" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="368" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="369" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="370" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="371" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="372" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="373" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="374" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="375" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="376" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="377" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="378" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="379" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="380" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="381" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="382" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="383" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="384" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="385" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="386" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="387" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="388" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="389" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="390" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="391" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="392" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="393" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="394" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="395" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="396" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="397" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="398" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="399" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="400" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="401" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="402" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="403" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="404" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="405" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="406" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="407" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="408" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="409" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="410" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="411" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="412" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="413" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="414" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="415" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="416" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="417" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="418" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="419" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="420" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="421" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="422" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="423" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="424" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="425" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="426" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="427" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="428" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="429" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="430" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="431" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="432" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="433" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="434" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="435" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="436" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="437" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="438" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="439" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="440" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="441" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="442" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="443" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="444" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="445" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="446" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="447" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="448" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="449" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="450" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="451" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="452" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="453" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="454" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="455" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="456" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="457" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="458" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="459" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="460" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="461" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="462" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="463" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="464" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="465" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="466" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="467" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="468" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="469" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="470" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="471" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="472" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="473" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="474" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="475" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="476" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="477" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="478" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="479" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="480" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="481" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="482" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="483" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="484" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="485" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="486" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="487" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="488" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="489" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="490" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="491" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="492" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="493" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="494" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="495" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="496" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="497" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="498" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="499" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="500" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="501" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="502" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="503" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="504" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="505" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="506" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="507" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="508" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="509" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="510" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="511" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="512" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="513" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="514" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="515" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="516" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="517" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="518" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="519" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="520" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="521" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="522" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="523" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="524" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="525" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="526" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="527" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="528" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="529" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="530" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="531" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="532" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="533" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="534" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="535" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="536" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="537" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="538" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="539" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="540" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="541" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="542" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="543" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="544" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="545" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="546" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="547" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="548" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="549" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="550" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="551" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="552" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="553" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="554" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="555" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="556" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="557" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="558" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="559" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="560" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="561" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="562" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="563" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="564" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="565" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="566" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="567" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="568" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="569" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="570" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="571" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="572" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="573" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="574" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="575" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="576" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="577" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="578" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="579" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="580" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="581" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="582" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="583" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="584" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="585" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="586" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="587" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="588" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="589" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="590" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="591" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="592" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="593" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="594" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="595" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="596" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="597" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="598" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="599" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="600" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="601" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="602" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="603" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="604" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="605" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="606" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="607" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="608" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="609" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="610" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="611" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="612" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="613" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="614" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="615" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="616" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="617" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="618" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="619" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="620" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="621" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="622" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="623" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="624" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="625" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="626" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="627" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="628" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="629" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="630" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="631" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="632" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="633" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="634" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="635" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="636" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="637" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="638" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="639" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="640" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="641" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="642" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="643" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="644" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="645" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="646" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="647" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="648" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="649" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="650" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="651" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="652" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="653" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="654" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="655" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="656" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="657" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="658" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="659" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="660" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="661" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="662" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="663" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="664" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="665" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="666" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="667" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="668" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="669" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="670" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="671" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="672" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="673" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="674" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="675" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="676" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="677" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="678" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="679" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="680" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="681" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="682" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="683" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="684" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="685" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="686" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="687" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="688" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="689" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="690" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="691" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="692" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="693" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="694" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="695" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="696" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="697" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="698" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="699" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="700" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="701" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="702" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="703" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="704" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="705" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="706" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="707" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="708" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="709" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="710" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="711" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="712" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="713" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="714" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="715" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="716" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="717" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="718" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="719" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="720" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="721" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="722" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="723" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="724" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="725" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="726" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="727" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="728" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="729" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="730" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="731" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="732" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="733" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="734" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="735" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="736" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="737" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="738" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="739" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="740" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="741" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="742" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="743" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="744" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="745" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="746" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="747" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="748" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="749" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="750" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="751" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="752" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="753" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="754" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="755" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="756" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="757" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="758" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="759" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="760" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="761" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="762" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="763" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="764" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="765" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="766" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="767" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="768" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="769" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="770" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="771" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="772" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="773" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="774" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="775" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="776" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="777" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="778" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="779" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="780" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="781" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="782" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="783" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="784" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="785" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="786" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="787" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="788" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="789" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="790" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="791" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="792" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="793" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="794" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="795" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="796" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="797" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="798" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="799" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="800" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="801" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="802" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="803" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="804" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="805" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="806" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="807" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="808" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="809" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="810" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="811" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="812" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="813" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="814" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="815" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="816" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="817" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="818" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="819" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="820" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="821" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="822" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="823" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="824" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="825" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="826" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="827" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="828" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="829" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="830" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="831" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="832" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="833" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="834" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="835" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="836" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="837" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="838" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="839" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="840" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="841" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="842" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="843" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="844" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="845" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="846" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="847" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="848" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="849" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="850" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="851" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="852" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="853" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="854" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="855" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="856" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="857" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="858" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="859" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="860" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="861" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="862" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="863" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="864" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="865" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="866" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="867" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="868" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="869" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="870" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="871" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="872" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="873" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="874" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="875" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="876" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="877" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="878" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="879" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="880" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="881" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="882" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="883" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="884" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="885" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="886" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="887" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="888" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="889" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="890" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="891" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="892" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="893" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="894" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="895" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="896" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="897" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="898" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="899" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="900" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="901" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="902" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="903" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="904" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="905" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="906" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="907" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="908" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="909" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="910" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="911" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="912" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="913" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="914" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="915" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="916" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="917" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="918" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="919" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="920" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="921" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="922" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="923" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="924" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="925" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="926" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="927" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="928" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="929" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="930" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="931" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="932" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="933" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="934" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="935" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="936" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="937" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="938" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="939" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="940" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="941" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="942" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="943" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="944" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="945" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="946" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="947" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="948" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="949" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="950" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="951" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="952" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="953" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="954" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="955" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="956" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="957" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="958" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="959" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="960" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="961" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="962" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="963" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="964" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="965" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="966" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="967" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="968" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="969" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="970" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="971" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="972" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="973" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="974" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="975" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="976" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="977" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="978" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="979" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="980" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="981" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="982" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="983" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="984" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="985" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="986" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="987" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="988" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="989" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="990" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="991" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="992" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="993" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="994" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="995" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="996" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="997" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="998" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="999" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1000" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="3:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="3:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="28" spans="3:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="3:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="3:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="3:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="3:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="33" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="34" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="35" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="36" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="37" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="38" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="39" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="40" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="41" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="42" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="43" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="44" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="45" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="46" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="47" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="48" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="49" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="50" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="51" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="52" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="53" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="54" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="55" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="56" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="58" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="60" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="61" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="62" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="63" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="64" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="65" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="66" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="67" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="68" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="69" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="70" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="71" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="72" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="73" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="74" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="75" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="76" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="77" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="78" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="79" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="80" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="81" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="82" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="83" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="84" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="85" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="86" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="87" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="88" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="89" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="90" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="91" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="92" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="93" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="94" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="95" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="96" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="97" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="98" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="99" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="100" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="101" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="102" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="103" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="104" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="105" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="106" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="107" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="108" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="109" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="110" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="111" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="112" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="113" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="114" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="115" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="116" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="117" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="118" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="119" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="120" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="121" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="122" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="123" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="124" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="125" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="126" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="127" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="128" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="129" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="130" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="131" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="132" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="133" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="134" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="135" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="136" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="137" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="138" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="139" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="140" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="141" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="142" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="143" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="144" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="145" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="146" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="147" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="148" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="149" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="150" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="151" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="152" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="153" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="154" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="155" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="156" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="157" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="158" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="159" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="160" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="161" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="162" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="163" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="164" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="165" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="166" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="167" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="168" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="169" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="170" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="171" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="172" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="173" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="174" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="175" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="176" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="177" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="178" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="179" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="180" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="181" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="182" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="183" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="184" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="185" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="186" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="187" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="188" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="189" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="190" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="191" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="192" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="193" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="194" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="195" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="196" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="197" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="198" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="199" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="200" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="201" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="202" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="203" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="204" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="205" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="206" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="207" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="208" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="209" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="210" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="211" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="212" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="213" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="214" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="215" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="216" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="217" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="218" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="219" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="220" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="221" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="222" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="223" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="224" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="225" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="226" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="227" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="228" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="229" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="230" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="231" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="232" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="233" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="234" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="235" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="236" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="237" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="238" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="239" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="240" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="241" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="242" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="243" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="244" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="245" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="246" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="247" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="248" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="249" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="250" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="251" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="252" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="253" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="254" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="255" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="256" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="257" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="258" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="259" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="260" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="261" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="262" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="263" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="264" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="265" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="266" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="267" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="268" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="269" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="270" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="271" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="272" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="273" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="274" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="275" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="276" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="277" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="278" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="279" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="280" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="281" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="282" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="283" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="284" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="285" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="286" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="287" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="288" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="289" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="290" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="291" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="292" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="293" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="294" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="295" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="296" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="297" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="298" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="299" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="300" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="301" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="302" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="303" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="304" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="305" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="306" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="307" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="308" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="309" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="310" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="311" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="312" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="313" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="314" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="315" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="316" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="317" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="318" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="319" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="320" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="321" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="322" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="323" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="324" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="325" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="326" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="327" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="328" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="329" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="330" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="331" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="332" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="333" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="334" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="335" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="336" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="337" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="338" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="339" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="340" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="341" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="342" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="343" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="344" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="345" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="346" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="347" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="348" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="349" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="350" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="351" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="352" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="353" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="354" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="355" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="356" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="357" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="358" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="359" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="360" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="361" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="362" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="363" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="364" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="365" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="366" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="367" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="368" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="369" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="370" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="371" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="372" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="373" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="374" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="375" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="376" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="377" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="378" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="379" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="380" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="381" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="382" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="383" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="384" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="385" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="386" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="387" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="388" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="389" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="390" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="391" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="392" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="393" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="394" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="395" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="396" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="397" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="398" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="399" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="400" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="401" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="402" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="403" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="404" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="405" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="406" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="407" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="408" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="409" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="410" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="411" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="412" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="413" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="414" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="415" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="416" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="417" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="418" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="419" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="420" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="421" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="422" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="423" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="424" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="425" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="426" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="427" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="428" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="429" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="430" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="431" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="432" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="433" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="434" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="435" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="436" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="437" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="438" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="439" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="440" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="441" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="442" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="443" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="444" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="445" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="446" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="447" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="448" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="449" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="450" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="451" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="452" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="453" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="454" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="455" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="456" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="457" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="458" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="459" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="460" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="461" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="462" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="463" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="464" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="465" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="466" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="467" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="468" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="469" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="470" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="471" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="472" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="473" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="474" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="475" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="476" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="477" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="478" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="479" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="480" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="481" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="482" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="483" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="484" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="485" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="486" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="487" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="488" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="489" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="490" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="491" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="492" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="493" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="494" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="495" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="496" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="497" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="498" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="499" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="500" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="501" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="502" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="503" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="504" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="505" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="506" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="507" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="508" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="509" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="510" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="511" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="512" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="513" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="514" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="515" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="516" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="517" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="518" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="519" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="520" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="521" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="522" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="523" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="524" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="525" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="526" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="527" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="528" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="529" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="530" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="531" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="532" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="533" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="534" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="535" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="536" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="537" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="538" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="539" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="540" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="541" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="542" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="543" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="544" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="545" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="546" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="547" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="548" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="549" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="550" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="551" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="552" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="553" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="554" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="555" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="556" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="557" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="558" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="559" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="560" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="561" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="562" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="563" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="564" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="565" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="566" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="567" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="568" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="569" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="570" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="571" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="572" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="573" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="574" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="575" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="576" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="577" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="578" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="579" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="580" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="581" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="582" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="583" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="584" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="585" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="586" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="587" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="588" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="589" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="590" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="591" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="592" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="593" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="594" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="595" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="596" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="597" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="598" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="599" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="600" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="601" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="602" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="603" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="604" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="605" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="606" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="607" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="608" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="609" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="610" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="611" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="612" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="613" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="614" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="615" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="616" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="617" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="618" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="619" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="620" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="621" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="622" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="623" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="624" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="625" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="626" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="627" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="628" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="629" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="630" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="631" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="632" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="633" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="634" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="635" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="636" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="637" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="638" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="639" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="640" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="641" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="642" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="643" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="644" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="645" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="646" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="647" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="648" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="649" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="650" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="651" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="652" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="653" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="654" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="655" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="656" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="657" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="658" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="659" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="660" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="661" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="662" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="663" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="664" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="665" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="666" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="667" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="668" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="669" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="670" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="671" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="672" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="673" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="674" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="675" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="676" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="677" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="678" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="679" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="680" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="681" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="682" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="683" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="684" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="685" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="686" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="687" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="688" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="689" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="690" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="691" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="692" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="693" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="694" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="695" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="696" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="697" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="698" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="699" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="700" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="701" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="702" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="703" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="704" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="705" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="706" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="707" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="708" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="709" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="710" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="711" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="712" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="713" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="714" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="715" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="716" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="717" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="718" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="719" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="720" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="721" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="722" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="723" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="724" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="725" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="726" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="727" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="728" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="729" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="730" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="731" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="732" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="733" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="734" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="735" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="736" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="737" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="738" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="739" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="740" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="741" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="742" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="743" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="744" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="745" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="746" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="747" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="748" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="749" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="750" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="751" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="752" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="753" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="754" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="755" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="756" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="757" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="758" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="759" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="760" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="761" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="762" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="763" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="764" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="765" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="766" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="767" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="768" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="769" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="770" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="771" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="772" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="773" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="774" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="775" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="776" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="777" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="778" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="779" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="780" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="781" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="782" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="783" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="784" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="785" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="786" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="787" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="788" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="789" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="790" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="791" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="792" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="793" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="794" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="795" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="796" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="797" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="798" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="799" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="800" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="801" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="802" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="803" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="804" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="805" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="806" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="807" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="808" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="809" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="810" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="811" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="812" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="813" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="814" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="815" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="816" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="817" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="818" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="819" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="820" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="821" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="822" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="823" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="824" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="825" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="826" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="827" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="828" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="829" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="830" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="831" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="832" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="833" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="834" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="835" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="836" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="837" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="838" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="839" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="840" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="841" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="842" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="843" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="844" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="845" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="846" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="847" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="848" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="849" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="850" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="851" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="852" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="853" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="854" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="855" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="856" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="857" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="858" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="859" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="860" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="861" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="862" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="863" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="864" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="865" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="866" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="867" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="868" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="869" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="870" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="871" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="872" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="873" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="874" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="875" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="876" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="877" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="878" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="879" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="880" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="881" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="882" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="883" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="884" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="885" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="886" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="887" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="888" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="889" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="890" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="891" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="892" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="893" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="894" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="895" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="896" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="897" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="898" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="899" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="900" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="901" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="902" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="903" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="904" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="905" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="906" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="907" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="908" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="909" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="910" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="911" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="912" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="913" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="914" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="915" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="916" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="917" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="918" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="919" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="920" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="921" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="922" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="923" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="924" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="925" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="926" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="927" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="928" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="929" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="930" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="931" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="932" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="933" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="934" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="935" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="936" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="937" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="938" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="939" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="940" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="941" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="942" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="943" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="944" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="945" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="946" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="947" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="948" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="949" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="950" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="951" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="952" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="953" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="954" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="955" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="956" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="957" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="958" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="959" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="960" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="961" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="962" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="963" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="964" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="965" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="966" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="967" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="968" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="969" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="970" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="971" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="972" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="973" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="974" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="975" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="976" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="977" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="978" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="979" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="980" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="981" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="982" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="983" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="984" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="985" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="986" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="987" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="988" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="989" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="990" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="991" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="992" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="993" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="994" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="995" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="996" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="997" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="998" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="999" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1000" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <autoFilter ref="C2:N25" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="7"/>
@@ -2958,24 +2969,24 @@
   </sheetPr>
   <dimension ref="A2:L56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="H45" sqref="H45"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" customWidth="1"/>
-    <col min="3" max="3" width="20.28515625" customWidth="1"/>
-    <col min="4" max="4" width="33.85546875" customWidth="1"/>
-    <col min="5" max="5" width="51.42578125" customWidth="1"/>
-    <col min="6" max="9" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="8.6640625" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" customWidth="1"/>
+    <col min="4" max="4" width="33.88671875" customWidth="1"/>
+    <col min="5" max="5" width="51.44140625" customWidth="1"/>
+    <col min="6" max="9" width="14.44140625" customWidth="1"/>
     <col min="10" max="10" width="13" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" customWidth="1"/>
-    <col min="12" max="12" width="16.140625" customWidth="1"/>
+    <col min="11" max="11" width="14.44140625" customWidth="1"/>
+    <col min="12" max="12" width="16.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -3013,7 +3024,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <f t="shared" ref="A3:A56" si="0">ROW()-2</f>
         <v>1</v>
@@ -3038,7 +3049,7 @@
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -3063,7 +3074,7 @@
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -3088,7 +3099,7 @@
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -3113,7 +3124,7 @@
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -3138,7 +3149,7 @@
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -3163,7 +3174,7 @@
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -3188,7 +3199,7 @@
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -3213,7 +3224,7 @@
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -3238,7 +3249,7 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -3263,7 +3274,7 @@
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -3288,7 +3299,7 @@
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -3313,7 +3324,7 @@
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -3338,7 +3349,7 @@
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -3363,7 +3374,7 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -3388,7 +3399,7 @@
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -3413,7 +3424,7 @@
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -3438,7 +3449,7 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -3463,7 +3474,7 @@
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -3488,7 +3499,7 @@
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -3513,7 +3524,7 @@
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -3538,7 +3549,7 @@
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -3563,7 +3574,7 @@
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -3588,7 +3599,7 @@
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -3613,7 +3624,7 @@
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -3638,7 +3649,7 @@
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -3663,7 +3674,7 @@
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -3688,7 +3699,7 @@
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -3713,7 +3724,7 @@
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -3738,7 +3749,7 @@
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -3763,7 +3774,7 @@
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -3788,7 +3799,7 @@
       <c r="K33" s="3"/>
       <c r="L33" s="3"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -3813,7 +3824,7 @@
       <c r="K34" s="3"/>
       <c r="L34" s="3"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -3838,7 +3849,7 @@
       <c r="K35" s="3"/>
       <c r="L35" s="3"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -3863,7 +3874,7 @@
       <c r="K36" s="3"/>
       <c r="L36" s="3"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -3888,7 +3899,7 @@
       <c r="K37" s="3"/>
       <c r="L37" s="3"/>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -3913,7 +3924,7 @@
       <c r="K38" s="3"/>
       <c r="L38" s="3"/>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -3938,7 +3949,7 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -3963,7 +3974,7 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -3988,7 +3999,7 @@
       <c r="K41" s="3"/>
       <c r="L41" s="3"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -4013,7 +4024,7 @@
       <c r="K42" s="3"/>
       <c r="L42" s="3"/>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -4038,7 +4049,7 @@
       <c r="K43" s="3"/>
       <c r="L43" s="3"/>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -4063,7 +4074,7 @@
       <c r="K44" s="3"/>
       <c r="L44" s="3"/>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -4092,7 +4103,7 @@
       <c r="K45" s="3"/>
       <c r="L45" s="3"/>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -4121,7 +4132,7 @@
       <c r="K46" s="3"/>
       <c r="L46" s="3"/>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -4150,7 +4161,7 @@
       <c r="K47" s="3"/>
       <c r="L47" s="3"/>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -4179,7 +4190,7 @@
       <c r="K48" s="3"/>
       <c r="L48" s="3"/>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -4208,7 +4219,7 @@
       <c r="K49" s="3"/>
       <c r="L49" s="3"/>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="3">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -4237,7 +4248,7 @@
       <c r="K50" s="3"/>
       <c r="L50" s="3"/>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="3">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -4266,7 +4277,7 @@
       <c r="K51" s="3"/>
       <c r="L51" s="3"/>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="3">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -4295,7 +4306,7 @@
       <c r="K52" s="3"/>
       <c r="L52" s="3"/>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="3">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -4324,7 +4335,7 @@
       <c r="K53" s="3"/>
       <c r="L53" s="3"/>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="3">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -4353,7 +4364,7 @@
       <c r="K54" s="3"/>
       <c r="L54" s="3"/>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A55" s="3">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -4382,7 +4393,7 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A56" s="3">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -4428,24 +4439,26 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A2:L33"/>
+  <dimension ref="A2:L34"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" customWidth="1"/>
-    <col min="3" max="3" width="26.140625" customWidth="1"/>
-    <col min="4" max="4" width="21.85546875" customWidth="1"/>
-    <col min="5" max="5" width="51.42578125" customWidth="1"/>
-    <col min="6" max="9" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="8.6640625" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" customWidth="1"/>
+    <col min="3" max="3" width="26.109375" customWidth="1"/>
+    <col min="4" max="4" width="24" customWidth="1"/>
+    <col min="5" max="5" width="51.44140625" customWidth="1"/>
+    <col min="6" max="9" width="14.44140625" customWidth="1"/>
     <col min="10" max="10" width="13" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" customWidth="1"/>
-    <col min="12" max="12" width="16.140625" customWidth="1"/>
+    <col min="11" max="11" width="14.44140625" customWidth="1"/>
+    <col min="12" max="12" width="16.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -4483,9 +4496,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
-        <f t="shared" ref="A3:A21" si="0">ROW()-2</f>
+        <f t="shared" ref="A3:A22" si="0">ROW()-2</f>
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -4508,7 +4521,7 @@
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -4533,7 +4546,7 @@
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -4558,7 +4571,7 @@
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -4583,7 +4596,7 @@
       <c r="K6" s="3"/>
       <c r="L6" s="5"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -4608,7 +4621,7 @@
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -4633,7 +4646,7 @@
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -4645,10 +4658,10 @@
         <v>38</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>185</v>
+        <v>292</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>186</v>
+        <v>293</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
@@ -4658,7 +4671,7 @@
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -4670,10 +4683,10 @@
         <v>38</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
@@ -4683,7 +4696,7 @@
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -4695,10 +4708,10 @@
         <v>38</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
@@ -4708,7 +4721,7 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -4720,10 +4733,10 @@
         <v>38</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
@@ -4733,7 +4746,7 @@
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -4745,10 +4758,10 @@
         <v>38</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -4758,7 +4771,7 @@
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -4770,10 +4783,10 @@
         <v>38</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
@@ -4783,7 +4796,7 @@
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -4795,10 +4808,10 @@
         <v>38</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
@@ -4808,7 +4821,7 @@
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -4820,10 +4833,10 @@
         <v>38</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
@@ -4833,7 +4846,7 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -4845,10 +4858,10 @@
         <v>38</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
@@ -4858,7 +4871,7 @@
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -4870,10 +4883,10 @@
         <v>38</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
@@ -4883,7 +4896,7 @@
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -4895,10 +4908,10 @@
         <v>38</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
@@ -4908,7 +4921,7 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -4920,10 +4933,10 @@
         <v>38</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
@@ -4933,8 +4946,8 @@
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="5">
+    <row r="21" spans="1:12" ht="18" x14ac:dyDescent="0.3">
+      <c r="A21" s="3">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
@@ -4945,21 +4958,22 @@
         <v>38</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
+        <v>208</v>
+      </c>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
       <c r="K21" s="3"/>
-      <c r="L21" s="5"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="1:12" ht="18" x14ac:dyDescent="0.3">
+      <c r="A22" s="5">
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="B22" s="3" t="s">
@@ -4969,23 +4983,22 @@
         <v>38</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
+        <v>210</v>
+      </c>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
       <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="5">
-        <f t="shared" ref="A23:A32" si="1">ROW()-2</f>
-        <v>21</v>
+      <c r="L22" s="5"/>
+    </row>
+    <row r="23" spans="1:12" ht="18" x14ac:dyDescent="0.3">
+      <c r="A23" s="3">
+        <v>20</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>37</v>
@@ -4994,22 +5007,22 @@
         <v>38</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
+        <v>212</v>
+      </c>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
       <c r="K23" s="3"/>
-      <c r="L23" s="5"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="3">
-        <f t="shared" si="1"/>
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="1:12" ht="18" x14ac:dyDescent="0.3">
+      <c r="A24" s="5">
+        <f t="shared" ref="A24:A33" si="1">ROW()-2</f>
         <v>22</v>
       </c>
       <c r="B24" s="3" t="s">
@@ -5019,20 +5032,20 @@
         <v>38</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
+        <v>214</v>
+      </c>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
       <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L24" s="5"/>
+    </row>
+    <row r="25" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <f t="shared" si="1"/>
         <v>23</v>
@@ -5044,10 +5057,10 @@
         <v>38</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
@@ -5057,7 +5070,7 @@
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <f t="shared" si="1"/>
         <v>24</v>
@@ -5069,20 +5082,20 @@
         <v>38</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
+        <v>218</v>
+      </c>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <f t="shared" si="1"/>
         <v>25</v>
@@ -5094,10 +5107,10 @@
         <v>38</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
@@ -5107,7 +5120,7 @@
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <f t="shared" si="1"/>
         <v>26</v>
@@ -5119,10 +5132,10 @@
         <v>38</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
@@ -5132,7 +5145,7 @@
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <f t="shared" si="1"/>
         <v>27</v>
@@ -5144,10 +5157,10 @@
         <v>38</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
@@ -5157,7 +5170,7 @@
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <f t="shared" si="1"/>
         <v>28</v>
@@ -5169,10 +5182,10 @@
         <v>38</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
@@ -5182,7 +5195,7 @@
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <f t="shared" si="1"/>
         <v>29</v>
@@ -5194,10 +5207,10 @@
         <v>38</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
@@ -5207,7 +5220,7 @@
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <f t="shared" si="1"/>
         <v>30</v>
@@ -5218,11 +5231,11 @@
       <c r="C32" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D32" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="E32" s="9" t="s">
-        <v>232</v>
+      <c r="D32" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>230</v>
       </c>
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
@@ -5232,23 +5245,48 @@
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="10"/>
-      <c r="B33" s="10"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
-      <c r="K33" s="10"/>
-      <c r="L33" s="10"/>
+    <row r="33" spans="1:12" ht="18" x14ac:dyDescent="0.3">
+      <c r="A33" s="3">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+    </row>
+    <row r="34" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="10"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="K34" s="10"/>
+      <c r="L34" s="10"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:L32" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
+  <autoFilter ref="A2:L33" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <phoneticPr fontId="7"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="K33" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="K34" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>$A$2:$A$7</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="K3:K32" xr:uid="{00000000-0002-0000-0200-000001000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="K3:K33" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>"未着手,着手済み,待ち状態,未テスト,完了"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5265,20 +5303,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" customWidth="1"/>
-    <col min="3" max="3" width="26.140625" customWidth="1"/>
-    <col min="4" max="4" width="28.7109375" customWidth="1"/>
-    <col min="5" max="5" width="76.140625" customWidth="1"/>
-    <col min="6" max="9" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="8.6640625" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" customWidth="1"/>
+    <col min="3" max="3" width="26.109375" customWidth="1"/>
+    <col min="4" max="4" width="28.6640625" customWidth="1"/>
+    <col min="5" max="5" width="76.109375" customWidth="1"/>
+    <col min="6" max="9" width="14.44140625" customWidth="1"/>
     <col min="10" max="10" width="13" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" customWidth="1"/>
-    <col min="12" max="12" width="16.140625" customWidth="1"/>
+    <col min="11" max="11" width="14.44140625" customWidth="1"/>
+    <col min="12" max="12" width="16.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -5316,7 +5354,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -5340,7 +5378,7 @@
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -5364,7 +5402,7 @@
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -5388,7 +5426,7 @@
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -5412,7 +5450,7 @@
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -5436,7 +5474,7 @@
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -5460,7 +5498,7 @@
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -5484,7 +5522,7 @@
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>8</v>
       </c>
@@ -5508,7 +5546,7 @@
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>9</v>
       </c>
@@ -5532,7 +5570,7 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>10</v>
       </c>
@@ -5556,7 +5594,7 @@
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>11</v>
       </c>
@@ -5580,7 +5618,7 @@
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>12</v>
       </c>
@@ -5604,7 +5642,7 @@
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>13</v>
       </c>
@@ -5628,7 +5666,7 @@
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>14</v>
       </c>
@@ -5652,7 +5690,7 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>15</v>
       </c>
@@ -5676,7 +5714,7 @@
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>16</v>
       </c>
@@ -5700,7 +5738,7 @@
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>17</v>
       </c>
@@ -5724,7 +5762,7 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26" ht="18" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>18</v>
       </c>
@@ -5748,7 +5786,7 @@
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" ht="18" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>19</v>
       </c>
@@ -5772,7 +5810,7 @@
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26" ht="18" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>20</v>
       </c>
@@ -5796,7 +5834,7 @@
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" ht="18" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>21</v>
       </c>
@@ -5820,7 +5858,7 @@
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" ht="18" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>22</v>
       </c>
@@ -5844,7 +5882,7 @@
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" ht="18" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>23</v>
       </c>
@@ -5868,7 +5906,7 @@
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26" ht="18" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>24</v>
       </c>
@@ -5892,7 +5930,7 @@
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26" ht="18" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>25</v>
       </c>
@@ -5916,7 +5954,7 @@
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26" ht="18" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>26</v>
       </c>
@@ -5940,7 +5978,7 @@
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26" ht="18" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>27</v>
       </c>
@@ -5964,7 +6002,7 @@
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:26" ht="18" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>28</v>
       </c>
@@ -5988,7 +6026,7 @@
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:26" ht="18" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>29</v>
       </c>
@@ -6026,7 +6064,7 @@
       <c r="Y31" s="15"/>
       <c r="Z31" s="15"/>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:26" ht="18" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <v>30</v>
       </c>
@@ -6064,7 +6102,7 @@
       <c r="Y32" s="15"/>
       <c r="Z32" s="15"/>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:26" ht="18" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <v>31</v>
       </c>

--- a/doc/03_ファイル構成一覧表_ダチョウの群れ.xlsx
+++ b/doc/03_ファイル構成一覧表_ダチョウの群れ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\C3\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5830BCB1-B6CC-4E68-B1D3-0D6AD3A54BAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4203FFFD-C5D9-409A-A713-FAAE958B11BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sample" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="294">
   <si>
     <t>ステータス</t>
   </si>
@@ -1063,7 +1063,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1113,6 +1113,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="56" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2969,8 +2972,8 @@
   </sheetPr>
   <dimension ref="A2:L56"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="C34" workbookViewId="0">
+      <selection activeCell="L54" sqref="L54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4097,10 +4100,18 @@
       <c r="G45" s="16">
         <v>45456</v>
       </c>
-      <c r="H45" s="3"/>
-      <c r="I45" s="3"/>
-      <c r="J45" s="3"/>
-      <c r="K45" s="3"/>
+      <c r="H45" s="16">
+        <v>45456</v>
+      </c>
+      <c r="I45" s="16">
+        <v>45456</v>
+      </c>
+      <c r="J45" s="17">
+        <v>1</v>
+      </c>
+      <c r="K45" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="L45" s="3"/>
     </row>
     <row r="46" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -4126,10 +4137,18 @@
       <c r="G46" s="16">
         <v>45456</v>
       </c>
-      <c r="H46" s="3"/>
-      <c r="I46" s="3"/>
-      <c r="J46" s="3"/>
-      <c r="K46" s="3"/>
+      <c r="H46" s="16">
+        <v>45456</v>
+      </c>
+      <c r="I46" s="16">
+        <v>45456</v>
+      </c>
+      <c r="J46" s="17">
+        <v>1</v>
+      </c>
+      <c r="K46" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="L46" s="3"/>
     </row>
     <row r="47" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -4155,10 +4174,18 @@
       <c r="G47" s="16">
         <v>45456</v>
       </c>
-      <c r="H47" s="3"/>
-      <c r="I47" s="3"/>
-      <c r="J47" s="3"/>
-      <c r="K47" s="3"/>
+      <c r="H47" s="16">
+        <v>45456</v>
+      </c>
+      <c r="I47" s="16">
+        <v>45456</v>
+      </c>
+      <c r="J47" s="17">
+        <v>1</v>
+      </c>
+      <c r="K47" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="L47" s="3"/>
     </row>
     <row r="48" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -4184,10 +4211,18 @@
       <c r="G48" s="16">
         <v>45456</v>
       </c>
-      <c r="H48" s="3"/>
-      <c r="I48" s="3"/>
-      <c r="J48" s="3"/>
-      <c r="K48" s="3"/>
+      <c r="H48" s="16">
+        <v>45456</v>
+      </c>
+      <c r="I48" s="16">
+        <v>45456</v>
+      </c>
+      <c r="J48" s="17">
+        <v>1</v>
+      </c>
+      <c r="K48" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="L48" s="3"/>
     </row>
     <row r="49" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -4213,10 +4248,18 @@
       <c r="G49" s="16">
         <v>45456</v>
       </c>
-      <c r="H49" s="3"/>
-      <c r="I49" s="3"/>
-      <c r="J49" s="3"/>
-      <c r="K49" s="3"/>
+      <c r="H49" s="16">
+        <v>45456</v>
+      </c>
+      <c r="I49" s="16">
+        <v>45456</v>
+      </c>
+      <c r="J49" s="17">
+        <v>1</v>
+      </c>
+      <c r="K49" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="L49" s="3"/>
     </row>
     <row r="50" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -4242,10 +4285,18 @@
       <c r="G50" s="16">
         <v>45456</v>
       </c>
-      <c r="H50" s="3"/>
-      <c r="I50" s="3"/>
-      <c r="J50" s="3"/>
-      <c r="K50" s="3"/>
+      <c r="H50" s="16">
+        <v>45456</v>
+      </c>
+      <c r="I50" s="16">
+        <v>45456</v>
+      </c>
+      <c r="J50" s="17">
+        <v>1</v>
+      </c>
+      <c r="K50" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="L50" s="3"/>
     </row>
     <row r="51" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -4271,10 +4322,18 @@
       <c r="G51" s="16">
         <v>45456</v>
       </c>
-      <c r="H51" s="3"/>
-      <c r="I51" s="3"/>
-      <c r="J51" s="3"/>
-      <c r="K51" s="3"/>
+      <c r="H51" s="16">
+        <v>45456</v>
+      </c>
+      <c r="I51" s="16">
+        <v>45456</v>
+      </c>
+      <c r="J51" s="17">
+        <v>1</v>
+      </c>
+      <c r="K51" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="L51" s="3"/>
     </row>
     <row r="52" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -4300,10 +4359,18 @@
       <c r="G52" s="16">
         <v>45456</v>
       </c>
-      <c r="H52" s="3"/>
-      <c r="I52" s="3"/>
-      <c r="J52" s="3"/>
-      <c r="K52" s="3"/>
+      <c r="H52" s="16">
+        <v>45456</v>
+      </c>
+      <c r="I52" s="16">
+        <v>45456</v>
+      </c>
+      <c r="J52" s="17">
+        <v>1</v>
+      </c>
+      <c r="K52" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="L52" s="3"/>
     </row>
     <row r="53" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -4329,10 +4396,18 @@
       <c r="G53" s="16">
         <v>45456</v>
       </c>
-      <c r="H53" s="3"/>
-      <c r="I53" s="3"/>
-      <c r="J53" s="3"/>
-      <c r="K53" s="3"/>
+      <c r="H53" s="16">
+        <v>45456</v>
+      </c>
+      <c r="I53" s="16">
+        <v>45456</v>
+      </c>
+      <c r="J53" s="17">
+        <v>1</v>
+      </c>
+      <c r="K53" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="L53" s="3"/>
     </row>
     <row r="54" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -4358,11 +4433,21 @@
       <c r="G54" s="16">
         <v>45456</v>
       </c>
-      <c r="H54" s="3"/>
-      <c r="I54" s="3"/>
-      <c r="J54" s="3"/>
-      <c r="K54" s="3"/>
-      <c r="L54" s="3"/>
+      <c r="H54" s="16">
+        <v>45456</v>
+      </c>
+      <c r="I54" s="16">
+        <v>45456</v>
+      </c>
+      <c r="J54" s="17">
+        <v>1</v>
+      </c>
+      <c r="K54" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L54" s="3" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="55" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A55" s="3">
@@ -4387,10 +4472,18 @@
       <c r="G55" s="16">
         <v>45456</v>
       </c>
-      <c r="H55" s="3"/>
-      <c r="I55" s="3"/>
-      <c r="J55" s="3"/>
-      <c r="K55" s="3"/>
+      <c r="H55" s="16">
+        <v>45456</v>
+      </c>
+      <c r="I55" s="16">
+        <v>45456</v>
+      </c>
+      <c r="J55" s="17">
+        <v>1</v>
+      </c>
+      <c r="K55" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="L55" s="3"/>
     </row>
     <row r="56" spans="1:12" ht="18" x14ac:dyDescent="0.3">
@@ -4416,17 +4509,25 @@
       <c r="G56" s="16">
         <v>45456</v>
       </c>
-      <c r="H56" s="3"/>
-      <c r="I56" s="3"/>
-      <c r="J56" s="3"/>
-      <c r="K56" s="3"/>
+      <c r="H56" s="16">
+        <v>45456</v>
+      </c>
+      <c r="I56" s="16">
+        <v>45456</v>
+      </c>
+      <c r="J56" s="17">
+        <v>1</v>
+      </c>
+      <c r="K56" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="L56" s="3"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:L25" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <phoneticPr fontId="7"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="K3:K56" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="K3:K56 L54" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"未着手,着手済み,待ち状態,未テスト,完了"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4441,7 +4542,7 @@
   </sheetPr>
   <dimension ref="A2:L34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A11" workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>

--- a/doc/03_ファイル構成一覧表_ダチョウの群れ.xlsx
+++ b/doc/03_ファイル構成一覧表_ダチョウの群れ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\C3\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4203FFFD-C5D9-409A-A713-FAAE958B11BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE611FBF-9E59-4617-B040-8477A777888B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="294">
   <si>
     <t>ステータス</t>
   </si>
@@ -4445,9 +4445,7 @@
       <c r="K54" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>23</v>
-      </c>
+      <c r="L54" s="3"/>
     </row>
     <row r="55" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A55" s="3">

--- a/doc/03_ファイル構成一覧表_ダチョウの群れ.xlsx
+++ b/doc/03_ファイル構成一覧表_ダチョウの群れ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\C3\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE611FBF-9E59-4617-B040-8477A777888B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93734B7B-66F0-4E7B-8469-81C9AC99217F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sample" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="300">
   <si>
     <t>ステータス</t>
   </si>
@@ -708,9 +708,6 @@
   </si>
   <si>
     <t>add_animal.jsp</t>
-  </si>
-  <si>
-    <t>個体登録用jsp</t>
   </si>
   <si>
     <t>visit.jsp</t>
@@ -930,12 +927,55 @@
     </rPh>
     <phoneticPr fontId="7"/>
   </si>
+  <si>
+    <t>model</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>Result.java</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>結果画面</t>
+    <rPh sb="0" eb="2">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>java</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>岸田/山本</t>
+    <rPh sb="0" eb="2">
+      <t>キシダ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヤマモト</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>入谷</t>
+    <rPh sb="0" eb="2">
+      <t>イリタニ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>個体登録用jsp</t>
+    <phoneticPr fontId="7"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -982,8 +1022,15 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1002,8 +1049,14 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -1059,11 +1112,54 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1088,12 +1184,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1116,6 +1206,54 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2970,10 +3108,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A2:L56"/>
+  <dimension ref="A2:L57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C34" workbookViewId="0">
-      <selection activeCell="L54" sqref="L54"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="94" workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3069,13 +3207,23 @@
       <c r="E4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
+      <c r="F4" s="14">
+        <v>45457</v>
+      </c>
+      <c r="G4" s="14">
+        <v>45457</v>
+      </c>
+      <c r="H4" s="14">
+        <v>45457</v>
+      </c>
       <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
+      <c r="J4" s="15">
+        <v>0.7</v>
+      </c>
       <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
+      <c r="L4" s="3" t="s">
+        <v>297</v>
+      </c>
     </row>
     <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
@@ -3146,11 +3294,17 @@
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
+      <c r="H7" s="14">
+        <v>45457</v>
+      </c>
       <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
+      <c r="J7" s="3">
+        <v>70</v>
+      </c>
       <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
+      <c r="L7" s="3" t="s">
+        <v>298</v>
+      </c>
     </row>
     <row r="8" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
@@ -3294,13 +3448,25 @@
       <c r="E13" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
+      <c r="F13" s="14">
+        <v>45457</v>
+      </c>
+      <c r="G13" s="14">
+        <v>45457</v>
+      </c>
+      <c r="H13" s="14">
+        <v>45457</v>
+      </c>
+      <c r="I13" s="14">
+        <v>45457</v>
+      </c>
+      <c r="J13" s="15">
+        <v>1</v>
+      </c>
       <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
+      <c r="L13" s="3" t="s">
+        <v>297</v>
+      </c>
     </row>
     <row r="14" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
@@ -3344,13 +3510,25 @@
       <c r="E15" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
+      <c r="F15" s="14">
+        <v>45457</v>
+      </c>
+      <c r="G15" s="14">
+        <v>45457</v>
+      </c>
+      <c r="H15" s="14">
+        <v>45457</v>
+      </c>
+      <c r="I15" s="14">
+        <v>45457</v>
+      </c>
+      <c r="J15" s="15">
+        <v>1</v>
+      </c>
       <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
+      <c r="L15" s="3" t="s">
+        <v>297</v>
+      </c>
     </row>
     <row r="16" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
@@ -3519,13 +3697,21 @@
       <c r="E22" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="F22" s="3"/>
+      <c r="F22" s="14">
+        <v>45457</v>
+      </c>
       <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
+      <c r="H22" s="14">
+        <v>45457</v>
+      </c>
       <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
+      <c r="J22" s="15">
+        <v>0.3</v>
+      </c>
       <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
+      <c r="L22" s="3" t="s">
+        <v>298</v>
+      </c>
     </row>
     <row r="23" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
@@ -4094,25 +4280,27 @@
       <c r="E45" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="F45" s="16">
+      <c r="F45" s="14">
         <v>45456</v>
       </c>
-      <c r="G45" s="16">
+      <c r="G45" s="14">
         <v>45456</v>
       </c>
-      <c r="H45" s="16">
+      <c r="H45" s="14">
         <v>45456</v>
       </c>
-      <c r="I45" s="16">
+      <c r="I45" s="14">
         <v>45456</v>
       </c>
-      <c r="J45" s="17">
+      <c r="J45" s="15">
         <v>1</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="L45" s="3"/>
+      <c r="L45" s="3" t="s">
+        <v>297</v>
+      </c>
     </row>
     <row r="46" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
@@ -4131,25 +4319,27 @@
       <c r="E46" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="F46" s="16">
+      <c r="F46" s="14">
         <v>45456</v>
       </c>
-      <c r="G46" s="16">
+      <c r="G46" s="14">
         <v>45456</v>
       </c>
-      <c r="H46" s="16">
+      <c r="H46" s="14">
         <v>45456</v>
       </c>
-      <c r="I46" s="16">
+      <c r="I46" s="14">
         <v>45456</v>
       </c>
-      <c r="J46" s="17">
+      <c r="J46" s="15">
         <v>1</v>
       </c>
       <c r="K46" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="L46" s="3"/>
+      <c r="L46" s="3" t="s">
+        <v>297</v>
+      </c>
     </row>
     <row r="47" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
@@ -4168,25 +4358,27 @@
       <c r="E47" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="F47" s="16">
+      <c r="F47" s="14">
         <v>45456</v>
       </c>
-      <c r="G47" s="16">
+      <c r="G47" s="14">
         <v>45456</v>
       </c>
-      <c r="H47" s="16">
+      <c r="H47" s="14">
         <v>45456</v>
       </c>
-      <c r="I47" s="16">
+      <c r="I47" s="14">
         <v>45456</v>
       </c>
-      <c r="J47" s="17">
+      <c r="J47" s="15">
         <v>1</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="L47" s="3"/>
+      <c r="L47" s="3" t="s">
+        <v>297</v>
+      </c>
     </row>
     <row r="48" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
@@ -4205,25 +4397,27 @@
       <c r="E48" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="F48" s="16">
+      <c r="F48" s="14">
         <v>45456</v>
       </c>
-      <c r="G48" s="16">
+      <c r="G48" s="14">
         <v>45456</v>
       </c>
-      <c r="H48" s="16">
+      <c r="H48" s="14">
         <v>45456</v>
       </c>
-      <c r="I48" s="16">
+      <c r="I48" s="14">
         <v>45456</v>
       </c>
-      <c r="J48" s="17">
+      <c r="J48" s="15">
         <v>1</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="L48" s="3"/>
+      <c r="L48" s="3" t="s">
+        <v>297</v>
+      </c>
     </row>
     <row r="49" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
@@ -4242,25 +4436,27 @@
       <c r="E49" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="F49" s="16">
+      <c r="F49" s="14">
         <v>45456</v>
       </c>
-      <c r="G49" s="16">
+      <c r="G49" s="14">
         <v>45456</v>
       </c>
-      <c r="H49" s="16">
+      <c r="H49" s="14">
         <v>45456</v>
       </c>
-      <c r="I49" s="16">
+      <c r="I49" s="14">
         <v>45456</v>
       </c>
-      <c r="J49" s="17">
+      <c r="J49" s="15">
         <v>1</v>
       </c>
       <c r="K49" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="L49" s="3"/>
+      <c r="L49" s="3" t="s">
+        <v>297</v>
+      </c>
     </row>
     <row r="50" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="3">
@@ -4279,25 +4475,27 @@
       <c r="E50" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="F50" s="16">
+      <c r="F50" s="14">
         <v>45456</v>
       </c>
-      <c r="G50" s="16">
+      <c r="G50" s="14">
         <v>45456</v>
       </c>
-      <c r="H50" s="16">
+      <c r="H50" s="14">
         <v>45456</v>
       </c>
-      <c r="I50" s="16">
+      <c r="I50" s="14">
         <v>45456</v>
       </c>
-      <c r="J50" s="17">
+      <c r="J50" s="15">
         <v>1</v>
       </c>
       <c r="K50" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="L50" s="3"/>
+      <c r="L50" s="3" t="s">
+        <v>297</v>
+      </c>
     </row>
     <row r="51" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="3">
@@ -4316,25 +4514,27 @@
       <c r="E51" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="F51" s="16">
+      <c r="F51" s="14">
         <v>45456</v>
       </c>
-      <c r="G51" s="16">
+      <c r="G51" s="14">
         <v>45456</v>
       </c>
-      <c r="H51" s="16">
+      <c r="H51" s="14">
         <v>45456</v>
       </c>
-      <c r="I51" s="16">
+      <c r="I51" s="14">
         <v>45456</v>
       </c>
-      <c r="J51" s="17">
+      <c r="J51" s="15">
         <v>1</v>
       </c>
       <c r="K51" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="L51" s="3"/>
+      <c r="L51" s="3" t="s">
+        <v>297</v>
+      </c>
     </row>
     <row r="52" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="3">
@@ -4353,25 +4553,27 @@
       <c r="E52" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="F52" s="16">
+      <c r="F52" s="14">
         <v>45456</v>
       </c>
-      <c r="G52" s="16">
+      <c r="G52" s="14">
         <v>45456</v>
       </c>
-      <c r="H52" s="16">
+      <c r="H52" s="14">
         <v>45456</v>
       </c>
-      <c r="I52" s="16">
+      <c r="I52" s="14">
         <v>45456</v>
       </c>
-      <c r="J52" s="17">
+      <c r="J52" s="15">
         <v>1</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="L52" s="3"/>
+      <c r="L52" s="3" t="s">
+        <v>297</v>
+      </c>
     </row>
     <row r="53" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="3">
@@ -4390,25 +4592,27 @@
       <c r="E53" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="F53" s="16">
+      <c r="F53" s="14">
         <v>45456</v>
       </c>
-      <c r="G53" s="16">
+      <c r="G53" s="14">
         <v>45456</v>
       </c>
-      <c r="H53" s="16">
+      <c r="H53" s="14">
         <v>45456</v>
       </c>
-      <c r="I53" s="16">
+      <c r="I53" s="14">
         <v>45456</v>
       </c>
-      <c r="J53" s="17">
+      <c r="J53" s="15">
         <v>1</v>
       </c>
       <c r="K53" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="L53" s="3"/>
+      <c r="L53" s="3" t="s">
+        <v>297</v>
+      </c>
     </row>
     <row r="54" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="3">
@@ -4427,25 +4631,27 @@
       <c r="E54" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="F54" s="16">
+      <c r="F54" s="14">
         <v>45456</v>
       </c>
-      <c r="G54" s="16">
+      <c r="G54" s="14">
         <v>45456</v>
       </c>
-      <c r="H54" s="16">
+      <c r="H54" s="14">
         <v>45456</v>
       </c>
-      <c r="I54" s="16">
+      <c r="I54" s="14">
         <v>45456</v>
       </c>
-      <c r="J54" s="17">
+      <c r="J54" s="15">
         <v>1</v>
       </c>
       <c r="K54" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="L54" s="3"/>
+      <c r="L54" s="3" t="s">
+        <v>297</v>
+      </c>
     </row>
     <row r="55" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A55" s="3">
@@ -4464,68 +4670,110 @@
       <c r="E55" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="F55" s="16">
+      <c r="F55" s="14">
         <v>45456</v>
       </c>
-      <c r="G55" s="16">
+      <c r="G55" s="14">
         <v>45456</v>
       </c>
-      <c r="H55" s="16">
+      <c r="H55" s="14">
         <v>45456</v>
       </c>
-      <c r="I55" s="16">
+      <c r="I55" s="14">
         <v>45456</v>
       </c>
-      <c r="J55" s="17">
+      <c r="J55" s="15">
         <v>1</v>
       </c>
       <c r="K55" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="L55" s="3"/>
+      <c r="L55" s="3" t="s">
+        <v>297</v>
+      </c>
     </row>
     <row r="56" spans="1:12" ht="18" x14ac:dyDescent="0.3">
-      <c r="A56" s="3">
+      <c r="A56" s="20">
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="B56" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="C56" s="3" t="s">
+      <c r="C56" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="D56" s="3" t="s">
+      <c r="D56" s="20" t="s">
         <v>172</v>
       </c>
-      <c r="E56" s="3" t="s">
+      <c r="E56" s="20" t="s">
         <v>173</v>
       </c>
-      <c r="F56" s="16">
+      <c r="F56" s="21">
         <v>45456</v>
       </c>
-      <c r="G56" s="16">
+      <c r="G56" s="21">
         <v>45456</v>
       </c>
-      <c r="H56" s="16">
+      <c r="H56" s="21">
         <v>45456</v>
       </c>
-      <c r="I56" s="16">
+      <c r="I56" s="21">
         <v>45456</v>
       </c>
-      <c r="J56" s="17">
+      <c r="J56" s="22">
         <v>1</v>
       </c>
-      <c r="K56" s="3" t="s">
+      <c r="K56" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="L56" s="3"/>
+      <c r="L56" s="3" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="23">
+        <v>55</v>
+      </c>
+      <c r="B57" s="24" t="s">
+        <v>296</v>
+      </c>
+      <c r="C57" s="26" t="s">
+        <v>293</v>
+      </c>
+      <c r="D57" s="26" t="s">
+        <v>294</v>
+      </c>
+      <c r="E57" s="26" t="s">
+        <v>295</v>
+      </c>
+      <c r="F57" s="27">
+        <v>45457</v>
+      </c>
+      <c r="G57" s="27">
+        <v>45457</v>
+      </c>
+      <c r="H57" s="27">
+        <v>45457</v>
+      </c>
+      <c r="I57" s="27">
+        <v>45457</v>
+      </c>
+      <c r="J57" s="28">
+        <v>1</v>
+      </c>
+      <c r="K57" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="L57" s="3" t="s">
+        <v>297</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A2:L25" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <phoneticPr fontId="7"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="K3:K56 L54" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="K3:K57" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"未着手,着手済み,待ち状態,未テスト,完了"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4540,8 +4788,8 @@
   </sheetPr>
   <dimension ref="A2:L34"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4550,7 +4798,7 @@
     <col min="2" max="2" width="9.6640625" customWidth="1"/>
     <col min="3" max="3" width="26.109375" customWidth="1"/>
     <col min="4" max="4" width="24" customWidth="1"/>
-    <col min="5" max="5" width="51.44140625" customWidth="1"/>
+    <col min="5" max="5" width="80" bestFit="1" customWidth="1"/>
     <col min="6" max="9" width="14.44140625" customWidth="1"/>
     <col min="10" max="10" width="13" customWidth="1"/>
     <col min="11" max="11" width="14.44140625" customWidth="1"/>
@@ -4612,12 +4860,20 @@
       <c r="E3" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="F3" s="3"/>
+      <c r="F3" s="14">
+        <v>45456</v>
+      </c>
       <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
+      <c r="H3" s="14">
+        <v>45456</v>
+      </c>
       <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
+      <c r="J3" s="15">
+        <v>0.7</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="L3" s="3"/>
     </row>
     <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -4637,12 +4893,20 @@
       <c r="E4" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
+      <c r="F4" s="14">
+        <v>45457</v>
+      </c>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14">
+        <v>45457</v>
+      </c>
       <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
+      <c r="J4" s="15">
+        <v>0.7</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="L4" s="3"/>
     </row>
     <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -4737,12 +5001,20 @@
       <c r="E8" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="F8" s="3"/>
+      <c r="F8" s="25">
+        <v>45456</v>
+      </c>
       <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
+      <c r="H8" s="14">
+        <v>45456</v>
+      </c>
       <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
+      <c r="J8" s="3">
+        <v>70</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="L8" s="3"/>
     </row>
     <row r="9" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -4757,17 +5029,25 @@
         <v>38</v>
       </c>
       <c r="D9" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="F9" s="3"/>
+      <c r="F9" s="14">
+        <v>45456</v>
+      </c>
       <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
+      <c r="H9" s="14">
+        <v>45456</v>
+      </c>
       <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
+      <c r="J9" s="3">
+        <v>70</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="L9" s="3"/>
     </row>
     <row r="10" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -4912,12 +5192,22 @@
       <c r="E15" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
+      <c r="F15" s="14">
+        <v>45457</v>
+      </c>
+      <c r="G15" s="14">
+        <v>45457</v>
+      </c>
+      <c r="H15" s="14">
+        <v>45457</v>
+      </c>
       <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
+      <c r="J15" s="15">
+        <v>0.7</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="L15" s="3"/>
     </row>
     <row r="16" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -4937,8 +5227,8 @@
       <c r="E16" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
@@ -4962,12 +5252,22 @@
       <c r="E17" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
+      <c r="F17" s="14">
+        <v>45457</v>
+      </c>
+      <c r="G17" s="14">
+        <v>45457</v>
+      </c>
+      <c r="H17" s="14">
+        <v>45457</v>
+      </c>
       <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
+      <c r="J17" s="15">
+        <v>0.7</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="L17" s="3"/>
     </row>
     <row r="18" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -5111,17 +5411,25 @@
       <c r="E23" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="F23" s="3"/>
+      <c r="F23" s="14">
+        <v>45457</v>
+      </c>
       <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
+      <c r="H23" s="14">
+        <v>45457</v>
+      </c>
       <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
+      <c r="J23" s="15">
+        <v>0.7</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="L23" s="3"/>
     </row>
     <row r="24" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A24" s="5">
-        <f t="shared" ref="A24:A33" si="1">ROW()-2</f>
+        <f t="shared" ref="A24:A34" si="1">ROW()-2</f>
         <v>22</v>
       </c>
       <c r="B24" s="3" t="s">
@@ -5234,14 +5542,22 @@
         <v>221</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="F28" s="7"/>
+        <v>299</v>
+      </c>
+      <c r="F28" s="30">
+        <v>45457</v>
+      </c>
       <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
+      <c r="H28" s="30">
+        <v>45457</v>
+      </c>
       <c r="I28" s="7"/>
-      <c r="J28" s="7"/>
-      <c r="K28" s="3"/>
+      <c r="J28" s="31">
+        <v>0.7</v>
+      </c>
+      <c r="K28" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="L28" s="3"/>
     </row>
     <row r="29" spans="1:12" ht="18" x14ac:dyDescent="0.3">
@@ -5256,10 +5572,10 @@
         <v>38</v>
       </c>
       <c r="D29" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="E29" s="3" t="s">
         <v>223</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>224</v>
       </c>
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
@@ -5281,10 +5597,10 @@
         <v>38</v>
       </c>
       <c r="D30" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="E30" s="3" t="s">
         <v>225</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>226</v>
       </c>
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
@@ -5306,10 +5622,10 @@
         <v>38</v>
       </c>
       <c r="D31" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="E31" s="3" t="s">
         <v>227</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>228</v>
       </c>
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
@@ -5331,10 +5647,10 @@
         <v>38</v>
       </c>
       <c r="D32" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="E32" s="3" t="s">
         <v>229</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>230</v>
       </c>
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
@@ -5345,38 +5661,38 @@
       <c r="L32" s="3"/>
     </row>
     <row r="33" spans="1:12" ht="18" x14ac:dyDescent="0.3">
-      <c r="A33" s="3">
+      <c r="A33" s="16">
         <f t="shared" si="1"/>
         <v>31</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C33" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="D33" s="8" t="s">
+      <c r="D33" s="17" t="s">
+        <v>230</v>
+      </c>
+      <c r="E33" s="18" t="s">
         <v>231</v>
       </c>
-      <c r="E33" s="9" t="s">
-        <v>232</v>
-      </c>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="7"/>
-      <c r="J33" s="7"/>
-      <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="19"/>
+      <c r="I33" s="19"/>
+      <c r="J33" s="19"/>
+      <c r="K33" s="16"/>
+      <c r="L33" s="16"/>
     </row>
     <row r="34" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="10"/>
-      <c r="B34" s="10"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="10"/>
-      <c r="K34" s="10"/>
-      <c r="L34" s="10"/>
+      <c r="A34" s="8"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="8"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:L33" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
@@ -5400,7 +5716,9 @@
   </sheetPr>
   <dimension ref="A2:Z33"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
@@ -5464,12 +5782,14 @@
         <v>58</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="F3" s="3"/>
+      <c r="F3" s="14">
+        <v>45457</v>
+      </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
@@ -5488,10 +5808,10 @@
         <v>58</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>235</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>236</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -5512,10 +5832,10 @@
         <v>58</v>
       </c>
       <c r="D5" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>237</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>238</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -5536,10 +5856,10 @@
         <v>58</v>
       </c>
       <c r="D6" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>239</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>240</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -5560,10 +5880,10 @@
         <v>58</v>
       </c>
       <c r="D7" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>241</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>242</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
@@ -5584,10 +5904,10 @@
         <v>58</v>
       </c>
       <c r="D8" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>243</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>244</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
@@ -5608,10 +5928,10 @@
         <v>58</v>
       </c>
       <c r="D9" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>245</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>246</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
@@ -5632,10 +5952,10 @@
         <v>58</v>
       </c>
       <c r="D10" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>247</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>248</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
@@ -5656,10 +5976,10 @@
         <v>58</v>
       </c>
       <c r="D11" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>249</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>250</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
@@ -5680,10 +6000,10 @@
         <v>58</v>
       </c>
       <c r="D12" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>251</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>252</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
@@ -5704,10 +6024,10 @@
         <v>58</v>
       </c>
       <c r="D13" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>253</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>254</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -5731,7 +6051,7 @@
         <v>62</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
@@ -5752,10 +6072,10 @@
         <v>58</v>
       </c>
       <c r="D15" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="E15" s="3" t="s">
         <v>256</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>257</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
@@ -5776,10 +6096,10 @@
         <v>58</v>
       </c>
       <c r="D16" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="E16" s="9" t="s">
         <v>258</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>259</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
@@ -5800,10 +6120,10 @@
         <v>58</v>
       </c>
       <c r="D17" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="E17" s="10" t="s">
         <v>260</v>
-      </c>
-      <c r="E17" s="12" t="s">
-        <v>261</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
@@ -5824,10 +6144,10 @@
         <v>58</v>
       </c>
       <c r="D18" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="E18" s="3" t="s">
         <v>262</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>263</v>
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
@@ -5848,10 +6168,10 @@
         <v>58</v>
       </c>
       <c r="D19" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="E19" s="3" t="s">
         <v>264</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>265</v>
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
@@ -5872,10 +6192,10 @@
         <v>58</v>
       </c>
       <c r="D20" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="E20" s="3" t="s">
         <v>266</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>267</v>
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
@@ -5896,10 +6216,10 @@
         <v>58</v>
       </c>
       <c r="D21" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="E21" s="3" t="s">
         <v>268</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>269</v>
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
@@ -5920,10 +6240,10 @@
         <v>58</v>
       </c>
       <c r="D22" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="E22" s="3" t="s">
         <v>270</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>271</v>
       </c>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
@@ -5944,10 +6264,10 @@
         <v>58</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
@@ -5968,10 +6288,10 @@
         <v>58</v>
       </c>
       <c r="D24" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="E24" s="3" t="s">
         <v>273</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>274</v>
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
@@ -5992,10 +6312,10 @@
         <v>58</v>
       </c>
       <c r="D25" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="E25" s="3" t="s">
         <v>275</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>276</v>
       </c>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
@@ -6016,10 +6336,10 @@
         <v>58</v>
       </c>
       <c r="D26" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="E26" s="3" t="s">
         <v>277</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>278</v>
       </c>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
@@ -6040,10 +6360,10 @@
         <v>58</v>
       </c>
       <c r="D27" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="E27" s="3" t="s">
         <v>279</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>280</v>
       </c>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
@@ -6064,10 +6384,10 @@
         <v>58</v>
       </c>
       <c r="D28" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="E28" s="10" t="s">
         <v>281</v>
-      </c>
-      <c r="E28" s="12" t="s">
-        <v>282</v>
       </c>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
@@ -6088,10 +6408,10 @@
         <v>58</v>
       </c>
       <c r="D29" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="E29" s="3" t="s">
         <v>283</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>284</v>
       </c>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
@@ -6111,11 +6431,11 @@
       <c r="C30" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D30" s="13" t="s">
+      <c r="D30" s="11" t="s">
+        <v>284</v>
+      </c>
+      <c r="E30" s="3" t="s">
         <v>285</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>286</v>
       </c>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
@@ -6135,33 +6455,33 @@
       <c r="C31" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D31" s="13" t="s">
-        <v>253</v>
-      </c>
-      <c r="E31" s="14" t="s">
-        <v>287</v>
-      </c>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="14"/>
-      <c r="I31" s="14"/>
-      <c r="J31" s="14"/>
+      <c r="D31" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="12"/>
       <c r="K31" s="3"/>
-      <c r="L31" s="14"/>
-      <c r="M31" s="15"/>
-      <c r="N31" s="15"/>
-      <c r="O31" s="15"/>
-      <c r="P31" s="15"/>
-      <c r="Q31" s="15"/>
-      <c r="R31" s="15"/>
-      <c r="S31" s="15"/>
-      <c r="T31" s="15"/>
-      <c r="U31" s="15"/>
-      <c r="V31" s="15"/>
-      <c r="W31" s="15"/>
-      <c r="X31" s="15"/>
-      <c r="Y31" s="15"/>
-      <c r="Z31" s="15"/>
+      <c r="L31" s="12"/>
+      <c r="M31" s="13"/>
+      <c r="N31" s="13"/>
+      <c r="O31" s="13"/>
+      <c r="P31" s="13"/>
+      <c r="Q31" s="13"/>
+      <c r="R31" s="13"/>
+      <c r="S31" s="13"/>
+      <c r="T31" s="13"/>
+      <c r="U31" s="13"/>
+      <c r="V31" s="13"/>
+      <c r="W31" s="13"/>
+      <c r="X31" s="13"/>
+      <c r="Y31" s="13"/>
+      <c r="Z31" s="13"/>
     </row>
     <row r="32" spans="1:26" ht="18" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
@@ -6174,32 +6494,32 @@
         <v>58</v>
       </c>
       <c r="D32" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="E32" s="12" t="s">
         <v>288</v>
       </c>
-      <c r="E32" s="14" t="s">
-        <v>289</v>
-      </c>
-      <c r="F32" s="14"/>
-      <c r="G32" s="14"/>
-      <c r="H32" s="14"/>
-      <c r="I32" s="14"/>
-      <c r="J32" s="14"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="12"/>
       <c r="K32" s="3"/>
-      <c r="L32" s="14"/>
-      <c r="M32" s="15"/>
-      <c r="N32" s="15"/>
-      <c r="O32" s="15"/>
-      <c r="P32" s="15"/>
-      <c r="Q32" s="15"/>
-      <c r="R32" s="15"/>
-      <c r="S32" s="15"/>
-      <c r="T32" s="15"/>
-      <c r="U32" s="15"/>
-      <c r="V32" s="15"/>
-      <c r="W32" s="15"/>
-      <c r="X32" s="15"/>
-      <c r="Y32" s="15"/>
-      <c r="Z32" s="15"/>
+      <c r="L32" s="12"/>
+      <c r="M32" s="13"/>
+      <c r="N32" s="13"/>
+      <c r="O32" s="13"/>
+      <c r="P32" s="13"/>
+      <c r="Q32" s="13"/>
+      <c r="R32" s="13"/>
+      <c r="S32" s="13"/>
+      <c r="T32" s="13"/>
+      <c r="U32" s="13"/>
+      <c r="V32" s="13"/>
+      <c r="W32" s="13"/>
+      <c r="X32" s="13"/>
+      <c r="Y32" s="13"/>
+      <c r="Z32" s="13"/>
     </row>
     <row r="33" spans="1:26" ht="18" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
@@ -6211,33 +6531,33 @@
       <c r="C33" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D33" s="13" t="s">
+      <c r="D33" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="E33" s="11" t="s">
         <v>290</v>
       </c>
-      <c r="E33" s="13" t="s">
-        <v>291</v>
-      </c>
-      <c r="F33" s="14"/>
-      <c r="G33" s="14"/>
-      <c r="H33" s="14"/>
-      <c r="I33" s="14"/>
-      <c r="J33" s="14"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="12"/>
+      <c r="J33" s="12"/>
       <c r="K33" s="3"/>
-      <c r="L33" s="14"/>
-      <c r="M33" s="15"/>
-      <c r="N33" s="15"/>
-      <c r="O33" s="15"/>
-      <c r="P33" s="15"/>
-      <c r="Q33" s="15"/>
-      <c r="R33" s="15"/>
-      <c r="S33" s="15"/>
-      <c r="T33" s="15"/>
-      <c r="U33" s="15"/>
-      <c r="V33" s="15"/>
-      <c r="W33" s="15"/>
-      <c r="X33" s="15"/>
-      <c r="Y33" s="15"/>
-      <c r="Z33" s="15"/>
+      <c r="L33" s="12"/>
+      <c r="M33" s="13"/>
+      <c r="N33" s="13"/>
+      <c r="O33" s="13"/>
+      <c r="P33" s="13"/>
+      <c r="Q33" s="13"/>
+      <c r="R33" s="13"/>
+      <c r="S33" s="13"/>
+      <c r="T33" s="13"/>
+      <c r="U33" s="13"/>
+      <c r="V33" s="13"/>
+      <c r="W33" s="13"/>
+      <c r="X33" s="13"/>
+      <c r="Y33" s="13"/>
+      <c r="Z33" s="13"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:L23" xr:uid="{00000000-0009-0000-0000-000003000000}"/>

--- a/doc/03_ファイル構成一覧表_ダチョウの群れ.xlsx
+++ b/doc/03_ファイル構成一覧表_ダチョウの群れ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\C3\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93734B7B-66F0-4E7B-8469-81C9AC99217F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2C2376C-226B-41F6-BC94-48A6B580BFC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sample" sheetId="1" r:id="rId1"/>
@@ -986,6 +986,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -999,21 +1000,25 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF1F1F1F"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="6"/>
@@ -3110,7 +3115,7 @@
   </sheetPr>
   <dimension ref="A2:L57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="94" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="94" workbookViewId="0">
       <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
@@ -5429,7 +5434,7 @@
     </row>
     <row r="24" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A24" s="5">
-        <f t="shared" ref="A24:A34" si="1">ROW()-2</f>
+        <f t="shared" ref="A24:A33" si="1">ROW()-2</f>
         <v>22</v>
       </c>
       <c r="B24" s="3" t="s">

--- a/doc/03_ファイル構成一覧表_ダチョウの群れ.xlsx
+++ b/doc/03_ファイル構成一覧表_ダチョウの群れ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\C3\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2C2376C-226B-41F6-BC94-48A6B580BFC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF2DD414-70BA-4C20-B532-BE677EA01BD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -960,14 +960,17 @@
     <phoneticPr fontId="7"/>
   </si>
   <si>
-    <t>入谷</t>
+    <t>個体登録用jsp</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>入谷/平田</t>
     <rPh sb="0" eb="2">
       <t>イリタニ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>個体登録用jsp</t>
+    <rPh sb="3" eb="5">
+      <t>ヒラタ</t>
+    </rPh>
     <phoneticPr fontId="7"/>
   </si>
 </sst>
@@ -3115,8 +3118,8 @@
   </sheetPr>
   <dimension ref="A2:L57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="94" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="94" workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3308,7 +3311,7 @@
       </c>
       <c r="K7" s="3"/>
       <c r="L7" s="3" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -3715,7 +3718,7 @@
       </c>
       <c r="K22" s="3"/>
       <c r="L22" s="3" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -4794,7 +4797,7 @@
   <dimension ref="A2:L34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5547,7 +5550,7 @@
         <v>221</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F28" s="30">
         <v>45457</v>

--- a/doc/03_ファイル構成一覧表_ダチョウの群れ.xlsx
+++ b/doc/03_ファイル構成一覧表_ダチョウの群れ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\C3\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE611FBF-9E59-4617-B040-8477A777888B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7929FFCE-D222-476C-961A-C05780C37F72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sample" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">css!$A$2:$L$23</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Java(Servlet,DAO)'!$A$2:$L$25</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">jsp!$A$2:$L$33</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">jsp!$A$2:$L$34</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sample!$C$2:$N$25</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="296">
   <si>
     <t>ステータス</t>
   </si>
@@ -926,6 +926,17 @@
   <si>
     <t>動物個体検索結果画面用jsp</t>
     <rPh sb="6" eb="8">
+      <t>ケッカ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>mach_result.jsp</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>診断テスト結果画面用jsp</t>
+    <rPh sb="5" eb="7">
       <t>ケッカ</t>
     </rPh>
     <phoneticPr fontId="7"/>
@@ -2972,7 +2983,7 @@
   </sheetPr>
   <dimension ref="A2:L56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C34" workbookViewId="0">
+    <sheetView topLeftCell="C34" workbookViewId="0">
       <selection activeCell="L54" sqref="L54"/>
     </sheetView>
   </sheetViews>
@@ -4538,10 +4549,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A2:L34"/>
+  <dimension ref="A2:L35"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4597,7 +4608,7 @@
     </row>
     <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
-        <f t="shared" ref="A3:A22" si="0">ROW()-2</f>
+        <f t="shared" ref="A3:A34" si="0">ROW()-2</f>
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -4671,7 +4682,7 @@
       <c r="L5" s="3"/>
     </row>
     <row r="6" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="5">
+      <c r="A6" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -5071,7 +5082,7 @@
       <c r="L21" s="3"/>
     </row>
     <row r="22" spans="1:12" ht="18" x14ac:dyDescent="0.3">
-      <c r="A22" s="5">
+      <c r="A22" s="3">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
@@ -5097,7 +5108,8 @@
     </row>
     <row r="23" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
-        <v>20</v>
+        <f t="shared" si="0"/>
+        <v>21</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>37</v>
@@ -5120,8 +5132,8 @@
       <c r="L23" s="3"/>
     </row>
     <row r="24" spans="1:12" ht="18" x14ac:dyDescent="0.3">
-      <c r="A24" s="5">
-        <f t="shared" ref="A24:A33" si="1">ROW()-2</f>
+      <c r="A24" s="3">
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="B24" s="3" t="s">
@@ -5131,22 +5143,22 @@
         <v>38</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>213</v>
+        <v>294</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
+        <v>295</v>
+      </c>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
       <c r="K24" s="3"/>
-      <c r="L24" s="5"/>
+      <c r="L24" s="3"/>
     </row>
     <row r="25" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -5156,22 +5168,22 @@
         <v>38</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
+        <v>214</v>
+      </c>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
       <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
+      <c r="L25" s="5"/>
     </row>
     <row r="26" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="B26" s="3" t="s">
@@ -5181,10 +5193,10 @@
         <v>38</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
@@ -5196,7 +5208,7 @@
     </row>
     <row r="27" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -5206,22 +5218,22 @@
         <v>38</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
+        <v>218</v>
+      </c>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
     </row>
     <row r="28" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="B28" s="3" t="s">
@@ -5231,10 +5243,10 @@
         <v>38</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
@@ -5246,7 +5258,7 @@
     </row>
     <row r="29" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="B29" s="3" t="s">
@@ -5256,10 +5268,10 @@
         <v>38</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
@@ -5271,7 +5283,7 @@
     </row>
     <row r="30" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="B30" s="3" t="s">
@@ -5281,10 +5293,10 @@
         <v>38</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
@@ -5296,7 +5308,7 @@
     </row>
     <row r="31" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="B31" s="3" t="s">
@@ -5306,10 +5318,10 @@
         <v>38</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
@@ -5321,7 +5333,7 @@
     </row>
     <row r="32" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="B32" s="3" t="s">
@@ -5331,10 +5343,10 @@
         <v>38</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
@@ -5346,7 +5358,7 @@
     </row>
     <row r="33" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="B33" s="3" t="s">
@@ -5355,11 +5367,11 @@
       <c r="C33" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D33" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="E33" s="9" t="s">
-        <v>232</v>
+      <c r="D33" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>230</v>
       </c>
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
@@ -5370,22 +5382,47 @@
       <c r="L33" s="3"/>
     </row>
     <row r="34" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="10"/>
-      <c r="B34" s="10"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="10"/>
-      <c r="K34" s="10"/>
-      <c r="L34" s="10"/>
+      <c r="A34" s="3">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+    </row>
+    <row r="35" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="10"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="K35" s="10"/>
+      <c r="L35" s="10"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:L33" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
+  <autoFilter ref="A2:L34" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <phoneticPr fontId="7"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="K34" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="K35" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>$A$2:$A$7</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="K3:K33" xr:uid="{00000000-0002-0000-0200-000001000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="K3:K34" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>"未着手,着手済み,待ち状態,未テスト,完了"</formula1>
     </dataValidation>
   </dataValidations>

--- a/doc/03_ファイル構成一覧表_ダチョウの群れ.xlsx
+++ b/doc/03_ファイル構成一覧表_ダチョウの群れ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\C3\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7929FFCE-D222-476C-961A-C05780C37F72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63609D3A-F144-4DB0-8F7C-0F0EDE6C4229}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="299">
   <si>
     <t>ステータス</t>
   </si>
@@ -617,18 +617,9 @@
     <t>DM一覧画面用（団体）jsp</t>
   </si>
   <si>
-    <t>dm_personal.jsp</t>
-  </si>
-  <si>
     <t>DM一覧画面（個体）jsp</t>
   </si>
   <si>
-    <t>dm_talk.jsp</t>
-  </si>
-  <si>
-    <t>DMトーク画面用jsp</t>
-  </si>
-  <si>
     <t>user.jsp</t>
   </si>
   <si>
@@ -651,9 +642,6 @@
   </si>
   <si>
     <t>保護団体更新・削除画面用jsp</t>
-  </si>
-  <si>
-    <t>qa.jsp</t>
   </si>
   <si>
     <t>Q&amp;A表示用jsp</t>
@@ -941,12 +929,43 @@
     </rPh>
     <phoneticPr fontId="7"/>
   </si>
+  <si>
+    <t>qa.jsp</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>DMトーク画面用jsp</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>dm_personal.jsp</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>dm_talk.jsp</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>水谷</t>
+    <rPh sb="0" eb="2">
+      <t>ミズタニ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>LogoutServlet.java</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>ログアウト画面初期表示、ログアウト処理用。</t>
+    <phoneticPr fontId="7"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -957,6 +976,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -970,21 +990,25 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF1F1F1F"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="6"/>
@@ -993,8 +1017,15 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1011,6 +1042,30 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1074,7 +1129,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1127,6 +1182,27 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2981,10 +3057,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A2:L56"/>
+  <dimension ref="A2:L57"/>
   <sheetViews>
-    <sheetView topLeftCell="C34" workbookViewId="0">
-      <selection activeCell="L54" sqref="L54"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3040,7 +3116,7 @@
     </row>
     <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
-        <f t="shared" ref="A3:A56" si="0">ROW()-2</f>
+        <f t="shared" ref="A3:A57" si="0">ROW()-2</f>
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -3049,7 +3125,7 @@
       <c r="C3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="18" t="s">
         <v>70</v>
       </c>
       <c r="E3" s="3" t="s">
@@ -3074,7 +3150,7 @@
       <c r="C4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E4" s="4" t="s">
@@ -3099,7 +3175,7 @@
       <c r="C5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="18" t="s">
         <v>72</v>
       </c>
       <c r="E5" s="3" t="s">
@@ -3149,7 +3225,7 @@
       <c r="C7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="18" t="s">
         <v>76</v>
       </c>
       <c r="E7" s="3" t="s">
@@ -3199,7 +3275,7 @@
       <c r="C9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="18" t="s">
         <v>80</v>
       </c>
       <c r="E9" s="3" t="s">
@@ -3224,7 +3300,7 @@
       <c r="C10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="19" t="s">
         <v>82</v>
       </c>
       <c r="E10" s="3" t="s">
@@ -3249,7 +3325,7 @@
       <c r="C11" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="19" t="s">
         <v>84</v>
       </c>
       <c r="E11" s="3" t="s">
@@ -3274,7 +3350,7 @@
       <c r="C12" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="18" t="s">
         <v>86</v>
       </c>
       <c r="E12" s="3" t="s">
@@ -3299,7 +3375,7 @@
       <c r="C13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="18" t="s">
         <v>88</v>
       </c>
       <c r="E13" s="3" t="s">
@@ -3324,7 +3400,7 @@
       <c r="C14" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="18" t="s">
         <v>90</v>
       </c>
       <c r="E14" s="3" t="s">
@@ -3349,7 +3425,7 @@
       <c r="C15" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="18" t="s">
         <v>92</v>
       </c>
       <c r="E15" s="3" t="s">
@@ -3399,7 +3475,7 @@
       <c r="C17" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="18" t="s">
         <v>96</v>
       </c>
       <c r="E17" s="3" t="s">
@@ -3424,7 +3500,7 @@
       <c r="C18" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="18" t="s">
         <v>98</v>
       </c>
       <c r="E18" s="3" t="s">
@@ -3449,7 +3525,7 @@
       <c r="C19" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="18" t="s">
         <v>100</v>
       </c>
       <c r="E19" s="3" t="s">
@@ -3474,7 +3550,7 @@
       <c r="C20" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="21" t="s">
         <v>102</v>
       </c>
       <c r="E20" s="3" t="s">
@@ -3499,7 +3575,7 @@
       <c r="C21" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="18" t="s">
         <v>104</v>
       </c>
       <c r="E21" s="3" t="s">
@@ -3524,7 +3600,7 @@
       <c r="C22" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="18" t="s">
         <v>106</v>
       </c>
       <c r="E22" s="3" t="s">
@@ -3549,7 +3625,7 @@
       <c r="C23" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="20" t="s">
         <v>108</v>
       </c>
       <c r="E23" s="3" t="s">
@@ -3561,7 +3637,9 @@
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
+      <c r="L23" s="3" t="s">
+        <v>296</v>
+      </c>
     </row>
     <row r="24" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
@@ -3574,7 +3652,7 @@
       <c r="C24" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="18" t="s">
         <v>110</v>
       </c>
       <c r="E24" s="3" t="s">
@@ -3649,7 +3727,7 @@
       <c r="C27" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D27" s="18" t="s">
         <v>116</v>
       </c>
       <c r="E27" s="3" t="s">
@@ -3674,7 +3752,7 @@
       <c r="C28" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D28" s="18" t="s">
         <v>118</v>
       </c>
       <c r="E28" s="3" t="s">
@@ -3699,7 +3777,7 @@
       <c r="C29" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="18" t="s">
         <v>120</v>
       </c>
       <c r="E29" s="3" t="s">
@@ -3724,7 +3802,7 @@
       <c r="C30" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D30" s="18" t="s">
         <v>122</v>
       </c>
       <c r="E30" s="3" t="s">
@@ -3765,7 +3843,6 @@
     </row>
     <row r="32" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
-        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="B32" s="3" t="s">
@@ -3774,11 +3851,11 @@
       <c r="C32" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>127</v>
+      <c r="D32" s="18" t="s">
+        <v>297</v>
+      </c>
+      <c r="E32" s="22" t="s">
+        <v>298</v>
       </c>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
@@ -3797,13 +3874,13 @@
         <v>13</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>28</v>
+        <v>126</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
@@ -3825,10 +3902,10 @@
         <v>27</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>129</v>
+        <v>28</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
@@ -3850,10 +3927,10 @@
         <v>27</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
@@ -3875,10 +3952,10 @@
         <v>27</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
@@ -3900,10 +3977,10 @@
         <v>27</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
@@ -3925,10 +4002,10 @@
         <v>27</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
@@ -3950,10 +4027,10 @@
         <v>27</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
@@ -3975,10 +4052,10 @@
         <v>27</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
@@ -4000,10 +4077,10 @@
         <v>27</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
@@ -4025,10 +4102,10 @@
         <v>27</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
@@ -4049,11 +4126,11 @@
       <c r="C43" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D43" s="5" t="s">
-        <v>147</v>
+      <c r="D43" s="3" t="s">
+        <v>145</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
@@ -4074,11 +4151,11 @@
       <c r="C44" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D44" s="3" t="s">
-        <v>149</v>
+      <c r="D44" s="5" t="s">
+        <v>147</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
@@ -4097,32 +4174,20 @@
         <v>13</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="E45" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="F45" s="16">
-        <v>45456</v>
-      </c>
-      <c r="G45" s="16">
-        <v>45456</v>
-      </c>
-      <c r="H45" s="16">
-        <v>45456</v>
-      </c>
-      <c r="I45" s="16">
-        <v>45456</v>
-      </c>
-      <c r="J45" s="17">
-        <v>1</v>
-      </c>
-      <c r="K45" s="3" t="s">
-        <v>23</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
+      <c r="I45" s="3"/>
+      <c r="J45" s="3"/>
+      <c r="K45" s="3"/>
       <c r="L45" s="3"/>
     </row>
     <row r="46" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -4137,10 +4202,10 @@
         <v>32</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="E46" s="4" t="s">
-        <v>154</v>
+        <v>151</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>152</v>
       </c>
       <c r="F46" s="16">
         <v>45456</v>
@@ -4173,11 +4238,11 @@
       <c r="C47" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D47" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>156</v>
+      <c r="D47" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>154</v>
       </c>
       <c r="F47" s="16">
         <v>45456</v>
@@ -4210,11 +4275,11 @@
       <c r="C48" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D48" s="4" t="s">
-        <v>157</v>
+      <c r="D48" s="6" t="s">
+        <v>155</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F48" s="16">
         <v>45456</v>
@@ -4247,11 +4312,11 @@
       <c r="C49" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="E49" s="6" t="s">
-        <v>160</v>
+      <c r="D49" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>158</v>
       </c>
       <c r="F49" s="16">
         <v>45456</v>
@@ -4284,11 +4349,11 @@
       <c r="C50" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D50" s="4" t="s">
-        <v>161</v>
+      <c r="D50" s="3" t="s">
+        <v>159</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F50" s="16">
         <v>45456</v>
@@ -4321,11 +4386,11 @@
       <c r="C51" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D51" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="E51" s="4" t="s">
-        <v>164</v>
+      <c r="D51" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>162</v>
       </c>
       <c r="F51" s="16">
         <v>45456</v>
@@ -4359,10 +4424,10 @@
         <v>32</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>166</v>
+        <v>163</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>164</v>
       </c>
       <c r="F52" s="16">
         <v>45456</v>
@@ -4396,10 +4461,10 @@
         <v>32</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F53" s="16">
         <v>45456</v>
@@ -4433,7 +4498,7 @@
         <v>32</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>168</v>
@@ -4458,7 +4523,7 @@
       </c>
       <c r="L54" s="3"/>
     </row>
-    <row r="55" spans="1:12" ht="18" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="3">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -4470,10 +4535,10 @@
         <v>32</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F55" s="16">
         <v>45456</v>
@@ -4507,10 +4572,10 @@
         <v>32</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F56" s="16">
         <v>45456</v>
@@ -4531,12 +4596,49 @@
         <v>23</v>
       </c>
       <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="1:12" ht="18" x14ac:dyDescent="0.3">
+      <c r="A57" s="3">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="F57" s="16">
+        <v>45456</v>
+      </c>
+      <c r="G57" s="16">
+        <v>45456</v>
+      </c>
+      <c r="H57" s="16">
+        <v>45456</v>
+      </c>
+      <c r="I57" s="16">
+        <v>45456</v>
+      </c>
+      <c r="J57" s="17">
+        <v>1</v>
+      </c>
+      <c r="K57" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L57" s="3"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:L25" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <phoneticPr fontId="7"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="K3:K56 L54" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="K3:K57 L55" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"未着手,着手済み,待ち状態,未テスト,完了"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4551,8 +4653,8 @@
   </sheetPr>
   <dimension ref="A2:L35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4617,7 +4719,7 @@
       <c r="C3" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="23" t="s">
         <v>174</v>
       </c>
       <c r="E3" s="3" t="s">
@@ -4642,7 +4744,7 @@
       <c r="C4" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="24" t="s">
         <v>39</v>
       </c>
       <c r="E4" s="3" t="s">
@@ -4692,7 +4794,7 @@
       <c r="C6" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="18" t="s">
         <v>179</v>
       </c>
       <c r="E6" s="3" t="s">
@@ -4768,10 +4870,10 @@
         <v>38</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
@@ -4842,7 +4944,7 @@
       <c r="C12" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="20" t="s">
         <v>189</v>
       </c>
       <c r="E12" s="3" t="s">
@@ -4867,11 +4969,11 @@
       <c r="C13" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="20" t="s">
+        <v>294</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>191</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>192</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -4892,11 +4994,11 @@
       <c r="C14" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>193</v>
+      <c r="D14" s="20" t="s">
+        <v>295</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>194</v>
+        <v>293</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
@@ -4917,11 +5019,11 @@
       <c r="C15" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>195</v>
+      <c r="D15" s="18" t="s">
+        <v>192</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
@@ -4942,11 +5044,11 @@
       <c r="C16" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>197</v>
+      <c r="D16" s="18" t="s">
+        <v>194</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
@@ -4968,10 +5070,10 @@
         <v>38</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
@@ -4993,10 +5095,10 @@
         <v>38</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
@@ -5018,10 +5120,10 @@
         <v>38</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>203</v>
+        <v>292</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
@@ -5043,10 +5145,10 @@
         <v>38</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
@@ -5068,10 +5170,10 @@
         <v>38</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
@@ -5093,10 +5195,10 @@
         <v>38</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
@@ -5118,10 +5220,10 @@
         <v>38</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
@@ -5143,10 +5245,10 @@
         <v>38</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
@@ -5168,10 +5270,10 @@
         <v>38</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
@@ -5193,10 +5295,10 @@
         <v>38</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
@@ -5218,10 +5320,10 @@
         <v>38</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
@@ -5243,10 +5345,10 @@
         <v>38</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
@@ -5268,10 +5370,10 @@
         <v>38</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
@@ -5292,11 +5394,11 @@
       <c r="C30" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D30" s="3" t="s">
-        <v>223</v>
+      <c r="D30" s="20" t="s">
+        <v>219</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
@@ -5318,10 +5420,10 @@
         <v>38</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
@@ -5343,10 +5445,10 @@
         <v>38</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
@@ -5368,10 +5470,10 @@
         <v>38</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
@@ -5393,10 +5495,10 @@
         <v>38</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
@@ -5501,10 +5603,10 @@
         <v>58</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
@@ -5525,10 +5627,10 @@
         <v>58</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -5549,10 +5651,10 @@
         <v>58</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -5573,10 +5675,10 @@
         <v>58</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -5597,10 +5699,10 @@
         <v>58</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
@@ -5621,10 +5723,10 @@
         <v>58</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
@@ -5645,10 +5747,10 @@
         <v>58</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
@@ -5669,10 +5771,10 @@
         <v>58</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
@@ -5693,10 +5795,10 @@
         <v>58</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
@@ -5717,10 +5819,10 @@
         <v>58</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
@@ -5741,10 +5843,10 @@
         <v>58</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -5768,7 +5870,7 @@
         <v>62</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
@@ -5789,10 +5891,10 @@
         <v>58</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
@@ -5813,10 +5915,10 @@
         <v>58</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
@@ -5837,10 +5939,10 @@
         <v>58</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
@@ -5861,10 +5963,10 @@
         <v>58</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
@@ -5885,10 +5987,10 @@
         <v>58</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
@@ -5909,10 +6011,10 @@
         <v>58</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
@@ -5933,10 +6035,10 @@
         <v>58</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
@@ -5957,10 +6059,10 @@
         <v>58</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
@@ -5981,10 +6083,10 @@
         <v>58</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
@@ -6005,10 +6107,10 @@
         <v>58</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
@@ -6029,10 +6131,10 @@
         <v>58</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
@@ -6053,10 +6155,10 @@
         <v>58</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
@@ -6077,10 +6179,10 @@
         <v>58</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
@@ -6101,10 +6203,10 @@
         <v>58</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
@@ -6125,10 +6227,10 @@
         <v>58</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
@@ -6149,10 +6251,10 @@
         <v>58</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
@@ -6173,10 +6275,10 @@
         <v>58</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="E31" s="14" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="F31" s="14"/>
       <c r="G31" s="14"/>
@@ -6211,10 +6313,10 @@
         <v>58</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="E32" s="14" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="F32" s="14"/>
       <c r="G32" s="14"/>
@@ -6249,10 +6351,10 @@
         <v>58</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="E33" s="13" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="F33" s="14"/>
       <c r="G33" s="14"/>

--- a/doc/03_ファイル構成一覧表_ダチョウの群れ.xlsx
+++ b/doc/03_ファイル構成一覧表_ダチョウの群れ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\C3\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63609D3A-F144-4DB0-8F7C-0F0EDE6C4229}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2B91A53-17A2-4086-8064-E3D854B2015F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sample" sheetId="1" r:id="rId1"/>
@@ -1025,7 +1025,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1065,6 +1065,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1129,7 +1135,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1203,6 +1209,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3059,8 +3068,8 @@
   </sheetPr>
   <dimension ref="A2:L57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3200,7 +3209,7 @@
       <c r="C6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="25" t="s">
         <v>74</v>
       </c>
       <c r="E6" s="3" t="s">
@@ -3250,7 +3259,7 @@
       <c r="C8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="18" t="s">
         <v>78</v>
       </c>
       <c r="E8" s="3" t="s">
@@ -3450,7 +3459,7 @@
       <c r="C16" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="18" t="s">
         <v>94</v>
       </c>
       <c r="E16" s="3" t="s">
@@ -3702,7 +3711,7 @@
       <c r="C26" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D26" s="25" t="s">
         <v>114</v>
       </c>
       <c r="E26" s="3" t="s">
@@ -4653,7 +4662,7 @@
   </sheetPr>
   <dimension ref="A2:L35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>

--- a/doc/03_ファイル構成一覧表_ダチョウの群れ.xlsx
+++ b/doc/03_ファイル構成一覧表_ダチョウの群れ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\C3\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2B91A53-17A2-4086-8064-E3D854B2015F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{555AE67F-AE47-402F-B549-415C6AB98E3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-1032" yWindow="1260" windowWidth="12084" windowHeight="8880" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sample" sheetId="1" r:id="rId1"/>
@@ -665,9 +665,6 @@
     <t>お知らせ(団体)編集用jsp</t>
   </si>
   <si>
-    <t>mach.jsp</t>
-  </si>
-  <si>
     <t>診断テスト検索画面用jsp</t>
   </si>
   <si>
@@ -958,6 +955,10 @@
   </si>
   <si>
     <t>ログアウト画面初期表示、ログアウト処理用。</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>mach.jsp</t>
     <phoneticPr fontId="7"/>
   </si>
 </sst>
@@ -3068,7 +3069,7 @@
   </sheetPr>
   <dimension ref="A2:L57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
@@ -3647,7 +3648,7 @@
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
       <c r="L23" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -3861,10 +3862,10 @@
         <v>14</v>
       </c>
       <c r="D32" s="18" t="s">
+        <v>296</v>
+      </c>
+      <c r="E32" s="22" t="s">
         <v>297</v>
-      </c>
-      <c r="E32" s="22" t="s">
-        <v>298</v>
       </c>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
@@ -4662,8 +4663,8 @@
   </sheetPr>
   <dimension ref="A2:L35"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4828,7 +4829,7 @@
       <c r="C7" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="20" t="s">
         <v>181</v>
       </c>
       <c r="E7" s="3" t="s">
@@ -4853,7 +4854,7 @@
       <c r="C8" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="20" t="s">
         <v>183</v>
       </c>
       <c r="E8" s="3" t="s">
@@ -4878,11 +4879,11 @@
       <c r="C9" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="20" t="s">
+        <v>287</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>288</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>289</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
@@ -4979,7 +4980,7 @@
         <v>38</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>191</v>
@@ -5004,10 +5005,10 @@
         <v>38</v>
       </c>
       <c r="D14" s="20" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
@@ -5078,7 +5079,7 @@
       <c r="C17" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="20" t="s">
         <v>196</v>
       </c>
       <c r="E17" s="3" t="s">
@@ -5129,7 +5130,7 @@
         <v>38</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>200</v>
@@ -5178,7 +5179,7 @@
       <c r="C21" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="20" t="s">
         <v>203</v>
       </c>
       <c r="E21" s="3" t="s">
@@ -5228,11 +5229,11 @@
       <c r="C23" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="20" t="s">
+        <v>298</v>
+      </c>
+      <c r="E23" s="3" t="s">
         <v>207</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>208</v>
       </c>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
@@ -5253,11 +5254,11 @@
       <c r="C24" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="20" t="s">
+        <v>289</v>
+      </c>
+      <c r="E24" s="3" t="s">
         <v>290</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>291</v>
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
@@ -5279,10 +5280,10 @@
         <v>38</v>
       </c>
       <c r="D25" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="E25" s="3" t="s">
         <v>209</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>210</v>
       </c>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
@@ -5303,11 +5304,11 @@
       <c r="C26" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D26" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="E26" s="3" t="s">
         <v>211</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>212</v>
       </c>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
@@ -5329,10 +5330,10 @@
         <v>38</v>
       </c>
       <c r="D27" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="E27" s="3" t="s">
         <v>213</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>214</v>
       </c>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
@@ -5354,10 +5355,10 @@
         <v>38</v>
       </c>
       <c r="D28" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="E28" s="3" t="s">
         <v>215</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>216</v>
       </c>
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
@@ -5378,11 +5379,11 @@
       <c r="C29" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="20" t="s">
+        <v>216</v>
+      </c>
+      <c r="E29" s="3" t="s">
         <v>217</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>218</v>
       </c>
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
@@ -5404,10 +5405,10 @@
         <v>38</v>
       </c>
       <c r="D30" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="E30" s="3" t="s">
         <v>219</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>220</v>
       </c>
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
@@ -5428,11 +5429,11 @@
       <c r="C31" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="D31" s="20" t="s">
+        <v>220</v>
+      </c>
+      <c r="E31" s="3" t="s">
         <v>221</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>222</v>
       </c>
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
@@ -5454,10 +5455,10 @@
         <v>38</v>
       </c>
       <c r="D32" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="E32" s="3" t="s">
         <v>223</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>224</v>
       </c>
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
@@ -5479,10 +5480,10 @@
         <v>38</v>
       </c>
       <c r="D33" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="E33" s="3" t="s">
         <v>225</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>226</v>
       </c>
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
@@ -5504,10 +5505,10 @@
         <v>38</v>
       </c>
       <c r="D34" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="E34" s="9" t="s">
         <v>227</v>
-      </c>
-      <c r="E34" s="9" t="s">
-        <v>228</v>
       </c>
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
@@ -5612,10 +5613,10 @@
         <v>58</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>229</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>230</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
@@ -5636,10 +5637,10 @@
         <v>58</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>231</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>232</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -5660,10 +5661,10 @@
         <v>58</v>
       </c>
       <c r="D5" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>233</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>234</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -5684,10 +5685,10 @@
         <v>58</v>
       </c>
       <c r="D6" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>235</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>236</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -5708,10 +5709,10 @@
         <v>58</v>
       </c>
       <c r="D7" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>237</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>238</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
@@ -5732,10 +5733,10 @@
         <v>58</v>
       </c>
       <c r="D8" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>239</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>240</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
@@ -5756,10 +5757,10 @@
         <v>58</v>
       </c>
       <c r="D9" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>241</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>242</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
@@ -5780,10 +5781,10 @@
         <v>58</v>
       </c>
       <c r="D10" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>243</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>244</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
@@ -5804,10 +5805,10 @@
         <v>58</v>
       </c>
       <c r="D11" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>245</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>246</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
@@ -5828,10 +5829,10 @@
         <v>58</v>
       </c>
       <c r="D12" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>247</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>248</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
@@ -5852,10 +5853,10 @@
         <v>58</v>
       </c>
       <c r="D13" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>249</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>250</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -5879,7 +5880,7 @@
         <v>62</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
@@ -5900,10 +5901,10 @@
         <v>58</v>
       </c>
       <c r="D15" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="E15" s="3" t="s">
         <v>252</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>253</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
@@ -5924,10 +5925,10 @@
         <v>58</v>
       </c>
       <c r="D16" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="E16" s="11" t="s">
         <v>254</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>255</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
@@ -5948,10 +5949,10 @@
         <v>58</v>
       </c>
       <c r="D17" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="E17" s="12" t="s">
         <v>256</v>
-      </c>
-      <c r="E17" s="12" t="s">
-        <v>257</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
@@ -5972,10 +5973,10 @@
         <v>58</v>
       </c>
       <c r="D18" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="E18" s="3" t="s">
         <v>258</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>259</v>
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
@@ -5996,10 +5997,10 @@
         <v>58</v>
       </c>
       <c r="D19" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="E19" s="3" t="s">
         <v>260</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>261</v>
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
@@ -6020,10 +6021,10 @@
         <v>58</v>
       </c>
       <c r="D20" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="E20" s="3" t="s">
         <v>262</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>263</v>
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
@@ -6044,10 +6045,10 @@
         <v>58</v>
       </c>
       <c r="D21" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="E21" s="3" t="s">
         <v>264</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>265</v>
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
@@ -6068,10 +6069,10 @@
         <v>58</v>
       </c>
       <c r="D22" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="E22" s="3" t="s">
         <v>266</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>267</v>
       </c>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
@@ -6092,10 +6093,10 @@
         <v>58</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
@@ -6116,10 +6117,10 @@
         <v>58</v>
       </c>
       <c r="D24" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="E24" s="3" t="s">
         <v>269</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>270</v>
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
@@ -6140,10 +6141,10 @@
         <v>58</v>
       </c>
       <c r="D25" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="E25" s="3" t="s">
         <v>271</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>272</v>
       </c>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
@@ -6164,10 +6165,10 @@
         <v>58</v>
       </c>
       <c r="D26" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="E26" s="3" t="s">
         <v>273</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>274</v>
       </c>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
@@ -6188,10 +6189,10 @@
         <v>58</v>
       </c>
       <c r="D27" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="E27" s="3" t="s">
         <v>275</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>276</v>
       </c>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
@@ -6212,10 +6213,10 @@
         <v>58</v>
       </c>
       <c r="D28" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="E28" s="12" t="s">
         <v>277</v>
-      </c>
-      <c r="E28" s="12" t="s">
-        <v>278</v>
       </c>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
@@ -6236,10 +6237,10 @@
         <v>58</v>
       </c>
       <c r="D29" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="E29" s="3" t="s">
         <v>279</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>280</v>
       </c>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
@@ -6260,10 +6261,10 @@
         <v>58</v>
       </c>
       <c r="D30" s="13" t="s">
+        <v>280</v>
+      </c>
+      <c r="E30" s="3" t="s">
         <v>281</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>282</v>
       </c>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
@@ -6284,10 +6285,10 @@
         <v>58</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E31" s="14" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F31" s="14"/>
       <c r="G31" s="14"/>
@@ -6322,10 +6323,10 @@
         <v>58</v>
       </c>
       <c r="D32" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="E32" s="14" t="s">
         <v>284</v>
-      </c>
-      <c r="E32" s="14" t="s">
-        <v>285</v>
       </c>
       <c r="F32" s="14"/>
       <c r="G32" s="14"/>
@@ -6360,10 +6361,10 @@
         <v>58</v>
       </c>
       <c r="D33" s="13" t="s">
+        <v>285</v>
+      </c>
+      <c r="E33" s="13" t="s">
         <v>286</v>
-      </c>
-      <c r="E33" s="13" t="s">
-        <v>287</v>
       </c>
       <c r="F33" s="14"/>
       <c r="G33" s="14"/>

--- a/doc/03_ファイル構成一覧表_ダチョウの群れ.xlsx
+++ b/doc/03_ファイル構成一覧表_ダチョウの群れ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\C3\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{555AE67F-AE47-402F-B549-415C6AB98E3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D521280-04B8-4593-A76E-C8881428593C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1032" yWindow="1260" windowWidth="12084" windowHeight="8880" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sample" sheetId="1" r:id="rId1"/>
@@ -1026,7 +1026,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1060,18 +1060,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1136,7 +1124,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1200,9 +1188,6 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1210,9 +1195,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3069,8 +3051,8 @@
   </sheetPr>
   <dimension ref="A2:L57"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3210,7 +3192,7 @@
       <c r="C6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="25" t="s">
+      <c r="D6" s="18" t="s">
         <v>74</v>
       </c>
       <c r="E6" s="3" t="s">
@@ -3560,7 +3542,7 @@
       <c r="C20" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="21" t="s">
+      <c r="D20" s="18" t="s">
         <v>102</v>
       </c>
       <c r="E20" s="3" t="s">
@@ -3687,7 +3669,7 @@
       <c r="C25" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D25" s="20" t="s">
         <v>112</v>
       </c>
       <c r="E25" s="3" t="s">
@@ -3712,7 +3694,7 @@
       <c r="C26" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D26" s="25" t="s">
+      <c r="D26" s="18" t="s">
         <v>114</v>
       </c>
       <c r="E26" s="3" t="s">
@@ -3837,7 +3819,7 @@
       <c r="C31" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="D31" s="20" t="s">
         <v>124</v>
       </c>
       <c r="E31" s="3" t="s">
@@ -3864,7 +3846,7 @@
       <c r="D32" s="18" t="s">
         <v>296</v>
       </c>
-      <c r="E32" s="22" t="s">
+      <c r="E32" s="21" t="s">
         <v>297</v>
       </c>
       <c r="F32" s="3"/>
@@ -4663,8 +4645,8 @@
   </sheetPr>
   <dimension ref="A2:L35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4729,7 +4711,7 @@
       <c r="C3" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="22" t="s">
         <v>174</v>
       </c>
       <c r="E3" s="3" t="s">
@@ -4754,7 +4736,7 @@
       <c r="C4" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="D4" s="23" t="s">
         <v>39</v>
       </c>
       <c r="E4" s="3" t="s">
@@ -5329,7 +5311,7 @@
       <c r="C27" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D27" s="20" t="s">
         <v>212</v>
       </c>
       <c r="E27" s="3" t="s">
@@ -5454,7 +5436,7 @@
       <c r="C32" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="D32" s="20" t="s">
         <v>222</v>
       </c>
       <c r="E32" s="3" t="s">

--- a/doc/03_ファイル構成一覧表_ダチョウの群れ.xlsx
+++ b/doc/03_ファイル構成一覧表_ダチョウの群れ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\C3\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D521280-04B8-4593-A76E-C8881428593C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45440BAF-1E39-474B-85D0-633D66C6913E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sample" sheetId="1" r:id="rId1"/>
@@ -1026,7 +1026,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1060,6 +1060,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1124,7 +1130,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1191,10 +1197,13 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3051,7 +3060,7 @@
   </sheetPr>
   <dimension ref="A2:L57"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
@@ -4645,8 +4654,8 @@
   </sheetPr>
   <dimension ref="A2:L35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4711,7 +4720,7 @@
       <c r="C3" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="24" t="s">
         <v>174</v>
       </c>
       <c r="E3" s="3" t="s">
@@ -4736,7 +4745,7 @@
       <c r="C4" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="D4" s="22" t="s">
         <v>39</v>
       </c>
       <c r="E4" s="3" t="s">
@@ -4761,7 +4770,7 @@
       <c r="C5" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="23" t="s">
         <v>177</v>
       </c>
       <c r="E5" s="3" t="s">
@@ -4911,7 +4920,7 @@
       <c r="C11" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="20" t="s">
         <v>187</v>
       </c>
       <c r="E11" s="3" t="s">
@@ -5186,7 +5195,7 @@
       <c r="C22" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="20" t="s">
         <v>205</v>
       </c>
       <c r="E22" s="3" t="s">

--- a/doc/03_ファイル構成一覧表_ダチョウの群れ.xlsx
+++ b/doc/03_ファイル構成一覧表_ダチョウの群れ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\C3\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45440BAF-1E39-474B-85D0-633D66C6913E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A2E738A-F28C-4048-9D9D-C90F3B677185}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sample" sheetId="1" r:id="rId1"/>
@@ -1026,7 +1026,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1067,6 +1067,18 @@
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF66"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF66"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -1130,7 +1142,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1153,9 +1165,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1206,12 +1215,26 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFFF66"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -3060,8 +3083,8 @@
   </sheetPr>
   <dimension ref="A2:L57"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3126,7 +3149,7 @@
       <c r="C3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="17" t="s">
         <v>70</v>
       </c>
       <c r="E3" s="3" t="s">
@@ -3151,7 +3174,7 @@
       <c r="C4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="17" t="s">
         <v>15</v>
       </c>
       <c r="E4" s="4" t="s">
@@ -3176,7 +3199,7 @@
       <c r="C5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="17" t="s">
         <v>72</v>
       </c>
       <c r="E5" s="3" t="s">
@@ -3201,7 +3224,7 @@
       <c r="C6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="17" t="s">
         <v>74</v>
       </c>
       <c r="E6" s="3" t="s">
@@ -3226,7 +3249,7 @@
       <c r="C7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="17" t="s">
         <v>76</v>
       </c>
       <c r="E7" s="3" t="s">
@@ -3251,7 +3274,7 @@
       <c r="C8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="17" t="s">
         <v>78</v>
       </c>
       <c r="E8" s="3" t="s">
@@ -3276,7 +3299,7 @@
       <c r="C9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="17" t="s">
         <v>80</v>
       </c>
       <c r="E9" s="3" t="s">
@@ -3301,7 +3324,7 @@
       <c r="C10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="18" t="s">
         <v>82</v>
       </c>
       <c r="E10" s="3" t="s">
@@ -3326,7 +3349,7 @@
       <c r="C11" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="19" t="s">
+      <c r="D11" s="18" t="s">
         <v>84</v>
       </c>
       <c r="E11" s="3" t="s">
@@ -3351,7 +3374,7 @@
       <c r="C12" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="D12" s="17" t="s">
         <v>86</v>
       </c>
       <c r="E12" s="3" t="s">
@@ -3376,7 +3399,7 @@
       <c r="C13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="18" t="s">
+      <c r="D13" s="17" t="s">
         <v>88</v>
       </c>
       <c r="E13" s="3" t="s">
@@ -3401,7 +3424,7 @@
       <c r="C14" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="18" t="s">
+      <c r="D14" s="17" t="s">
         <v>90</v>
       </c>
       <c r="E14" s="3" t="s">
@@ -3426,7 +3449,7 @@
       <c r="C15" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="18" t="s">
+      <c r="D15" s="17" t="s">
         <v>92</v>
       </c>
       <c r="E15" s="3" t="s">
@@ -3451,7 +3474,7 @@
       <c r="C16" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="18" t="s">
+      <c r="D16" s="17" t="s">
         <v>94</v>
       </c>
       <c r="E16" s="3" t="s">
@@ -3476,7 +3499,7 @@
       <c r="C17" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="18" t="s">
+      <c r="D17" s="17" t="s">
         <v>96</v>
       </c>
       <c r="E17" s="3" t="s">
@@ -3501,7 +3524,7 @@
       <c r="C18" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="18" t="s">
+      <c r="D18" s="17" t="s">
         <v>98</v>
       </c>
       <c r="E18" s="3" t="s">
@@ -3526,7 +3549,7 @@
       <c r="C19" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="18" t="s">
+      <c r="D19" s="17" t="s">
         <v>100</v>
       </c>
       <c r="E19" s="3" t="s">
@@ -3551,7 +3574,7 @@
       <c r="C20" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="18" t="s">
+      <c r="D20" s="17" t="s">
         <v>102</v>
       </c>
       <c r="E20" s="3" t="s">
@@ -3576,7 +3599,7 @@
       <c r="C21" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D21" s="18" t="s">
+      <c r="D21" s="17" t="s">
         <v>104</v>
       </c>
       <c r="E21" s="3" t="s">
@@ -3601,7 +3624,7 @@
       <c r="C22" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D22" s="18" t="s">
+      <c r="D22" s="17" t="s">
         <v>106</v>
       </c>
       <c r="E22" s="3" t="s">
@@ -3626,7 +3649,7 @@
       <c r="C23" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D23" s="20" t="s">
+      <c r="D23" s="19" t="s">
         <v>108</v>
       </c>
       <c r="E23" s="3" t="s">
@@ -3653,7 +3676,7 @@
       <c r="C24" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D24" s="18" t="s">
+      <c r="D24" s="17" t="s">
         <v>110</v>
       </c>
       <c r="E24" s="3" t="s">
@@ -3678,7 +3701,7 @@
       <c r="C25" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D25" s="20" t="s">
+      <c r="D25" s="19" t="s">
         <v>112</v>
       </c>
       <c r="E25" s="3" t="s">
@@ -3703,7 +3726,7 @@
       <c r="C26" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D26" s="18" t="s">
+      <c r="D26" s="17" t="s">
         <v>114</v>
       </c>
       <c r="E26" s="3" t="s">
@@ -3728,7 +3751,7 @@
       <c r="C27" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D27" s="18" t="s">
+      <c r="D27" s="17" t="s">
         <v>116</v>
       </c>
       <c r="E27" s="3" t="s">
@@ -3753,7 +3776,7 @@
       <c r="C28" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D28" s="18" t="s">
+      <c r="D28" s="17" t="s">
         <v>118</v>
       </c>
       <c r="E28" s="3" t="s">
@@ -3778,7 +3801,7 @@
       <c r="C29" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D29" s="18" t="s">
+      <c r="D29" s="17" t="s">
         <v>120</v>
       </c>
       <c r="E29" s="3" t="s">
@@ -3803,7 +3826,7 @@
       <c r="C30" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D30" s="18" t="s">
+      <c r="D30" s="17" t="s">
         <v>122</v>
       </c>
       <c r="E30" s="3" t="s">
@@ -3828,7 +3851,7 @@
       <c r="C31" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D31" s="20" t="s">
+      <c r="D31" s="17" t="s">
         <v>124</v>
       </c>
       <c r="E31" s="3" t="s">
@@ -3852,10 +3875,10 @@
       <c r="C32" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D32" s="18" t="s">
+      <c r="D32" s="17" t="s">
         <v>296</v>
       </c>
-      <c r="E32" s="21" t="s">
+      <c r="E32" s="20" t="s">
         <v>297</v>
       </c>
       <c r="F32" s="3"/>
@@ -3877,7 +3900,7 @@
       <c r="C33" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="D33" s="17" t="s">
         <v>126</v>
       </c>
       <c r="E33" s="3" t="s">
@@ -3902,7 +3925,7 @@
       <c r="C34" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="D34" s="25" t="s">
         <v>28</v>
       </c>
       <c r="E34" s="3" t="s">
@@ -3927,7 +3950,7 @@
       <c r="C35" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="D35" s="25" t="s">
         <v>129</v>
       </c>
       <c r="E35" s="3" t="s">
@@ -3952,7 +3975,7 @@
       <c r="C36" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="D36" s="25" t="s">
         <v>131</v>
       </c>
       <c r="E36" s="3" t="s">
@@ -3977,7 +4000,7 @@
       <c r="C37" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="D37" s="25" t="s">
         <v>133</v>
       </c>
       <c r="E37" s="3" t="s">
@@ -4002,7 +4025,7 @@
       <c r="C38" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="D38" s="25" t="s">
         <v>135</v>
       </c>
       <c r="E38" s="3" t="s">
@@ -4027,7 +4050,7 @@
       <c r="C39" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="D39" s="25" t="s">
         <v>137</v>
       </c>
       <c r="E39" s="3" t="s">
@@ -4052,7 +4075,7 @@
       <c r="C40" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="D40" s="25" t="s">
         <v>139</v>
       </c>
       <c r="E40" s="3" t="s">
@@ -4077,7 +4100,7 @@
       <c r="C41" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D41" s="3" t="s">
+      <c r="D41" s="25" t="s">
         <v>141</v>
       </c>
       <c r="E41" s="3" t="s">
@@ -4102,7 +4125,7 @@
       <c r="C42" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="D42" s="25" t="s">
         <v>143</v>
       </c>
       <c r="E42" s="3" t="s">
@@ -4127,7 +4150,7 @@
       <c r="C43" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D43" s="3" t="s">
+      <c r="D43" s="25" t="s">
         <v>145</v>
       </c>
       <c r="E43" s="3" t="s">
@@ -4152,7 +4175,7 @@
       <c r="C44" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D44" s="5" t="s">
+      <c r="D44" s="26" t="s">
         <v>147</v>
       </c>
       <c r="E44" s="3" t="s">
@@ -4177,7 +4200,7 @@
       <c r="C45" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D45" s="3" t="s">
+      <c r="D45" s="25" t="s">
         <v>149</v>
       </c>
       <c r="E45" s="3" t="s">
@@ -4208,19 +4231,19 @@
       <c r="E46" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="F46" s="16">
+      <c r="F46" s="15">
         <v>45456</v>
       </c>
-      <c r="G46" s="16">
+      <c r="G46" s="15">
         <v>45456</v>
       </c>
-      <c r="H46" s="16">
+      <c r="H46" s="15">
         <v>45456</v>
       </c>
-      <c r="I46" s="16">
+      <c r="I46" s="15">
         <v>45456</v>
       </c>
-      <c r="J46" s="17">
+      <c r="J46" s="16">
         <v>1</v>
       </c>
       <c r="K46" s="3" t="s">
@@ -4245,19 +4268,19 @@
       <c r="E47" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="F47" s="16">
+      <c r="F47" s="15">
         <v>45456</v>
       </c>
-      <c r="G47" s="16">
+      <c r="G47" s="15">
         <v>45456</v>
       </c>
-      <c r="H47" s="16">
+      <c r="H47" s="15">
         <v>45456</v>
       </c>
-      <c r="I47" s="16">
+      <c r="I47" s="15">
         <v>45456</v>
       </c>
-      <c r="J47" s="17">
+      <c r="J47" s="16">
         <v>1</v>
       </c>
       <c r="K47" s="3" t="s">
@@ -4282,19 +4305,19 @@
       <c r="E48" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="F48" s="16">
+      <c r="F48" s="15">
         <v>45456</v>
       </c>
-      <c r="G48" s="16">
+      <c r="G48" s="15">
         <v>45456</v>
       </c>
-      <c r="H48" s="16">
+      <c r="H48" s="15">
         <v>45456</v>
       </c>
-      <c r="I48" s="16">
+      <c r="I48" s="15">
         <v>45456</v>
       </c>
-      <c r="J48" s="17">
+      <c r="J48" s="16">
         <v>1</v>
       </c>
       <c r="K48" s="3" t="s">
@@ -4319,19 +4342,19 @@
       <c r="E49" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="F49" s="16">
+      <c r="F49" s="15">
         <v>45456</v>
       </c>
-      <c r="G49" s="16">
+      <c r="G49" s="15">
         <v>45456</v>
       </c>
-      <c r="H49" s="16">
+      <c r="H49" s="15">
         <v>45456</v>
       </c>
-      <c r="I49" s="16">
+      <c r="I49" s="15">
         <v>45456</v>
       </c>
-      <c r="J49" s="17">
+      <c r="J49" s="16">
         <v>1</v>
       </c>
       <c r="K49" s="3" t="s">
@@ -4356,19 +4379,19 @@
       <c r="E50" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="F50" s="16">
+      <c r="F50" s="15">
         <v>45456</v>
       </c>
-      <c r="G50" s="16">
+      <c r="G50" s="15">
         <v>45456</v>
       </c>
-      <c r="H50" s="16">
+      <c r="H50" s="15">
         <v>45456</v>
       </c>
-      <c r="I50" s="16">
+      <c r="I50" s="15">
         <v>45456</v>
       </c>
-      <c r="J50" s="17">
+      <c r="J50" s="16">
         <v>1</v>
       </c>
       <c r="K50" s="3" t="s">
@@ -4393,19 +4416,19 @@
       <c r="E51" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="F51" s="16">
+      <c r="F51" s="15">
         <v>45456</v>
       </c>
-      <c r="G51" s="16">
+      <c r="G51" s="15">
         <v>45456</v>
       </c>
-      <c r="H51" s="16">
+      <c r="H51" s="15">
         <v>45456</v>
       </c>
-      <c r="I51" s="16">
+      <c r="I51" s="15">
         <v>45456</v>
       </c>
-      <c r="J51" s="17">
+      <c r="J51" s="16">
         <v>1</v>
       </c>
       <c r="K51" s="3" t="s">
@@ -4430,19 +4453,19 @@
       <c r="E52" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="F52" s="16">
+      <c r="F52" s="15">
         <v>45456</v>
       </c>
-      <c r="G52" s="16">
+      <c r="G52" s="15">
         <v>45456</v>
       </c>
-      <c r="H52" s="16">
+      <c r="H52" s="15">
         <v>45456</v>
       </c>
-      <c r="I52" s="16">
+      <c r="I52" s="15">
         <v>45456</v>
       </c>
-      <c r="J52" s="17">
+      <c r="J52" s="16">
         <v>1</v>
       </c>
       <c r="K52" s="3" t="s">
@@ -4467,19 +4490,19 @@
       <c r="E53" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="F53" s="16">
+      <c r="F53" s="15">
         <v>45456</v>
       </c>
-      <c r="G53" s="16">
+      <c r="G53" s="15">
         <v>45456</v>
       </c>
-      <c r="H53" s="16">
+      <c r="H53" s="15">
         <v>45456</v>
       </c>
-      <c r="I53" s="16">
+      <c r="I53" s="15">
         <v>45456</v>
       </c>
-      <c r="J53" s="17">
+      <c r="J53" s="16">
         <v>1</v>
       </c>
       <c r="K53" s="3" t="s">
@@ -4504,19 +4527,19 @@
       <c r="E54" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="F54" s="16">
+      <c r="F54" s="15">
         <v>45456</v>
       </c>
-      <c r="G54" s="16">
+      <c r="G54" s="15">
         <v>45456</v>
       </c>
-      <c r="H54" s="16">
+      <c r="H54" s="15">
         <v>45456</v>
       </c>
-      <c r="I54" s="16">
+      <c r="I54" s="15">
         <v>45456</v>
       </c>
-      <c r="J54" s="17">
+      <c r="J54" s="16">
         <v>1</v>
       </c>
       <c r="K54" s="3" t="s">
@@ -4541,19 +4564,19 @@
       <c r="E55" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="F55" s="16">
+      <c r="F55" s="15">
         <v>45456</v>
       </c>
-      <c r="G55" s="16">
+      <c r="G55" s="15">
         <v>45456</v>
       </c>
-      <c r="H55" s="16">
+      <c r="H55" s="15">
         <v>45456</v>
       </c>
-      <c r="I55" s="16">
+      <c r="I55" s="15">
         <v>45456</v>
       </c>
-      <c r="J55" s="17">
+      <c r="J55" s="16">
         <v>1</v>
       </c>
       <c r="K55" s="3" t="s">
@@ -4578,19 +4601,19 @@
       <c r="E56" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="F56" s="16">
+      <c r="F56" s="15">
         <v>45456</v>
       </c>
-      <c r="G56" s="16">
+      <c r="G56" s="15">
         <v>45456</v>
       </c>
-      <c r="H56" s="16">
+      <c r="H56" s="15">
         <v>45456</v>
       </c>
-      <c r="I56" s="16">
+      <c r="I56" s="15">
         <v>45456</v>
       </c>
-      <c r="J56" s="17">
+      <c r="J56" s="16">
         <v>1</v>
       </c>
       <c r="K56" s="3" t="s">
@@ -4615,19 +4638,19 @@
       <c r="E57" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="F57" s="16">
+      <c r="F57" s="15">
         <v>45456</v>
       </c>
-      <c r="G57" s="16">
+      <c r="G57" s="15">
         <v>45456</v>
       </c>
-      <c r="H57" s="16">
+      <c r="H57" s="15">
         <v>45456</v>
       </c>
-      <c r="I57" s="16">
+      <c r="I57" s="15">
         <v>45456</v>
       </c>
-      <c r="J57" s="17">
+      <c r="J57" s="16">
         <v>1</v>
       </c>
       <c r="K57" s="3" t="s">
@@ -4654,8 +4677,8 @@
   </sheetPr>
   <dimension ref="A2:L35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4720,7 +4743,7 @@
       <c r="C3" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="23" t="s">
         <v>174</v>
       </c>
       <c r="E3" s="3" t="s">
@@ -4745,7 +4768,7 @@
       <c r="C4" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="D4" s="21" t="s">
         <v>39</v>
       </c>
       <c r="E4" s="3" t="s">
@@ -4770,7 +4793,7 @@
       <c r="C5" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="23" t="s">
+      <c r="D5" s="22" t="s">
         <v>177</v>
       </c>
       <c r="E5" s="3" t="s">
@@ -4795,7 +4818,7 @@
       <c r="C6" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="17" t="s">
         <v>179</v>
       </c>
       <c r="E6" s="3" t="s">
@@ -4820,7 +4843,7 @@
       <c r="C7" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="19" t="s">
         <v>181</v>
       </c>
       <c r="E7" s="3" t="s">
@@ -4845,7 +4868,7 @@
       <c r="C8" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="D8" s="19" t="s">
         <v>183</v>
       </c>
       <c r="E8" s="3" t="s">
@@ -4870,7 +4893,7 @@
       <c r="C9" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="D9" s="19" t="s">
         <v>287</v>
       </c>
       <c r="E9" s="3" t="s">
@@ -4920,7 +4943,7 @@
       <c r="C11" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="20" t="s">
+      <c r="D11" s="19" t="s">
         <v>187</v>
       </c>
       <c r="E11" s="3" t="s">
@@ -4945,7 +4968,7 @@
       <c r="C12" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="20" t="s">
+      <c r="D12" s="19" t="s">
         <v>189</v>
       </c>
       <c r="E12" s="3" t="s">
@@ -4970,7 +4993,7 @@
       <c r="C13" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="20" t="s">
+      <c r="D13" s="19" t="s">
         <v>293</v>
       </c>
       <c r="E13" s="3" t="s">
@@ -4995,7 +5018,7 @@
       <c r="C14" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="20" t="s">
+      <c r="D14" s="19" t="s">
         <v>294</v>
       </c>
       <c r="E14" s="3" t="s">
@@ -5020,7 +5043,7 @@
       <c r="C15" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="18" t="s">
+      <c r="D15" s="17" t="s">
         <v>192</v>
       </c>
       <c r="E15" s="3" t="s">
@@ -5045,7 +5068,7 @@
       <c r="C16" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="18" t="s">
+      <c r="D16" s="17" t="s">
         <v>194</v>
       </c>
       <c r="E16" s="3" t="s">
@@ -5070,7 +5093,7 @@
       <c r="C17" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D17" s="20" t="s">
+      <c r="D17" s="19" t="s">
         <v>196</v>
       </c>
       <c r="E17" s="3" t="s">
@@ -5170,7 +5193,7 @@
       <c r="C21" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D21" s="20" t="s">
+      <c r="D21" s="19" t="s">
         <v>203</v>
       </c>
       <c r="E21" s="3" t="s">
@@ -5195,7 +5218,7 @@
       <c r="C22" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D22" s="20" t="s">
+      <c r="D22" s="19" t="s">
         <v>205</v>
       </c>
       <c r="E22" s="3" t="s">
@@ -5220,7 +5243,7 @@
       <c r="C23" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D23" s="20" t="s">
+      <c r="D23" s="19" t="s">
         <v>298</v>
       </c>
       <c r="E23" s="3" t="s">
@@ -5245,7 +5268,7 @@
       <c r="C24" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D24" s="20" t="s">
+      <c r="D24" s="19" t="s">
         <v>289</v>
       </c>
       <c r="E24" s="3" t="s">
@@ -5295,7 +5318,7 @@
       <c r="C26" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D26" s="18" t="s">
+      <c r="D26" s="17" t="s">
         <v>210</v>
       </c>
       <c r="E26" s="3" t="s">
@@ -5320,7 +5343,7 @@
       <c r="C27" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D27" s="20" t="s">
+      <c r="D27" s="19" t="s">
         <v>212</v>
       </c>
       <c r="E27" s="3" t="s">
@@ -5370,7 +5393,7 @@
       <c r="C29" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D29" s="20" t="s">
+      <c r="D29" s="19" t="s">
         <v>216</v>
       </c>
       <c r="E29" s="3" t="s">
@@ -5395,7 +5418,7 @@
       <c r="C30" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D30" s="20" t="s">
+      <c r="D30" s="19" t="s">
         <v>218</v>
       </c>
       <c r="E30" s="3" t="s">
@@ -5420,7 +5443,7 @@
       <c r="C31" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D31" s="20" t="s">
+      <c r="D31" s="19" t="s">
         <v>220</v>
       </c>
       <c r="E31" s="3" t="s">
@@ -5445,7 +5468,7 @@
       <c r="C32" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D32" s="20" t="s">
+      <c r="D32" s="19" t="s">
         <v>222</v>
       </c>
       <c r="E32" s="3" t="s">
@@ -5495,10 +5518,10 @@
       <c r="C34" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D34" s="8" t="s">
+      <c r="D34" s="24" t="s">
         <v>226</v>
       </c>
-      <c r="E34" s="9" t="s">
+      <c r="E34" s="8" t="s">
         <v>227</v>
       </c>
       <c r="F34" s="7"/>
@@ -5510,13 +5533,13 @@
       <c r="L34" s="3"/>
     </row>
     <row r="35" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="10"/>
-      <c r="B35" s="10"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
-      <c r="K35" s="10"/>
-      <c r="L35" s="10"/>
+      <c r="A35" s="9"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="K35" s="9"/>
+      <c r="L35" s="9"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:L34" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
@@ -5540,7 +5563,7 @@
   </sheetPr>
   <dimension ref="A2:Z33"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A13" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
@@ -5918,7 +5941,7 @@
       <c r="D16" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="E16" s="11" t="s">
+      <c r="E16" s="10" t="s">
         <v>254</v>
       </c>
       <c r="F16" s="3"/>
@@ -5942,7 +5965,7 @@
       <c r="D17" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="E17" s="12" t="s">
+      <c r="E17" s="11" t="s">
         <v>256</v>
       </c>
       <c r="F17" s="3"/>
@@ -6206,7 +6229,7 @@
       <c r="D28" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="E28" s="12" t="s">
+      <c r="E28" s="11" t="s">
         <v>277</v>
       </c>
       <c r="F28" s="3"/>
@@ -6251,7 +6274,7 @@
       <c r="C30" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D30" s="13" t="s">
+      <c r="D30" s="12" t="s">
         <v>280</v>
       </c>
       <c r="E30" s="3" t="s">
@@ -6275,33 +6298,33 @@
       <c r="C31" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D31" s="13" t="s">
+      <c r="D31" s="12" t="s">
         <v>248</v>
       </c>
-      <c r="E31" s="14" t="s">
+      <c r="E31" s="13" t="s">
         <v>282</v>
       </c>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="14"/>
-      <c r="I31" s="14"/>
-      <c r="J31" s="14"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="13"/>
       <c r="K31" s="3"/>
-      <c r="L31" s="14"/>
-      <c r="M31" s="15"/>
-      <c r="N31" s="15"/>
-      <c r="O31" s="15"/>
-      <c r="P31" s="15"/>
-      <c r="Q31" s="15"/>
-      <c r="R31" s="15"/>
-      <c r="S31" s="15"/>
-      <c r="T31" s="15"/>
-      <c r="U31" s="15"/>
-      <c r="V31" s="15"/>
-      <c r="W31" s="15"/>
-      <c r="X31" s="15"/>
-      <c r="Y31" s="15"/>
-      <c r="Z31" s="15"/>
+      <c r="L31" s="13"/>
+      <c r="M31" s="14"/>
+      <c r="N31" s="14"/>
+      <c r="O31" s="14"/>
+      <c r="P31" s="14"/>
+      <c r="Q31" s="14"/>
+      <c r="R31" s="14"/>
+      <c r="S31" s="14"/>
+      <c r="T31" s="14"/>
+      <c r="U31" s="14"/>
+      <c r="V31" s="14"/>
+      <c r="W31" s="14"/>
+      <c r="X31" s="14"/>
+      <c r="Y31" s="14"/>
+      <c r="Z31" s="14"/>
     </row>
     <row r="32" spans="1:26" ht="18" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
@@ -6316,30 +6339,30 @@
       <c r="D32" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="E32" s="14" t="s">
+      <c r="E32" s="13" t="s">
         <v>284</v>
       </c>
-      <c r="F32" s="14"/>
-      <c r="G32" s="14"/>
-      <c r="H32" s="14"/>
-      <c r="I32" s="14"/>
-      <c r="J32" s="14"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="13"/>
       <c r="K32" s="3"/>
-      <c r="L32" s="14"/>
-      <c r="M32" s="15"/>
-      <c r="N32" s="15"/>
-      <c r="O32" s="15"/>
-      <c r="P32" s="15"/>
-      <c r="Q32" s="15"/>
-      <c r="R32" s="15"/>
-      <c r="S32" s="15"/>
-      <c r="T32" s="15"/>
-      <c r="U32" s="15"/>
-      <c r="V32" s="15"/>
-      <c r="W32" s="15"/>
-      <c r="X32" s="15"/>
-      <c r="Y32" s="15"/>
-      <c r="Z32" s="15"/>
+      <c r="L32" s="13"/>
+      <c r="M32" s="14"/>
+      <c r="N32" s="14"/>
+      <c r="O32" s="14"/>
+      <c r="P32" s="14"/>
+      <c r="Q32" s="14"/>
+      <c r="R32" s="14"/>
+      <c r="S32" s="14"/>
+      <c r="T32" s="14"/>
+      <c r="U32" s="14"/>
+      <c r="V32" s="14"/>
+      <c r="W32" s="14"/>
+      <c r="X32" s="14"/>
+      <c r="Y32" s="14"/>
+      <c r="Z32" s="14"/>
     </row>
     <row r="33" spans="1:26" ht="18" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
@@ -6351,33 +6374,33 @@
       <c r="C33" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D33" s="13" t="s">
+      <c r="D33" s="12" t="s">
         <v>285</v>
       </c>
-      <c r="E33" s="13" t="s">
+      <c r="E33" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="F33" s="14"/>
-      <c r="G33" s="14"/>
-      <c r="H33" s="14"/>
-      <c r="I33" s="14"/>
-      <c r="J33" s="14"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="13"/>
+      <c r="J33" s="13"/>
       <c r="K33" s="3"/>
-      <c r="L33" s="14"/>
-      <c r="M33" s="15"/>
-      <c r="N33" s="15"/>
-      <c r="O33" s="15"/>
-      <c r="P33" s="15"/>
-      <c r="Q33" s="15"/>
-      <c r="R33" s="15"/>
-      <c r="S33" s="15"/>
-      <c r="T33" s="15"/>
-      <c r="U33" s="15"/>
-      <c r="V33" s="15"/>
-      <c r="W33" s="15"/>
-      <c r="X33" s="15"/>
-      <c r="Y33" s="15"/>
-      <c r="Z33" s="15"/>
+      <c r="L33" s="13"/>
+      <c r="M33" s="14"/>
+      <c r="N33" s="14"/>
+      <c r="O33" s="14"/>
+      <c r="P33" s="14"/>
+      <c r="Q33" s="14"/>
+      <c r="R33" s="14"/>
+      <c r="S33" s="14"/>
+      <c r="T33" s="14"/>
+      <c r="U33" s="14"/>
+      <c r="V33" s="14"/>
+      <c r="W33" s="14"/>
+      <c r="X33" s="14"/>
+      <c r="Y33" s="14"/>
+      <c r="Z33" s="14"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:L23" xr:uid="{00000000-0009-0000-0000-000003000000}"/>

--- a/doc/03_ファイル構成一覧表_ダチョウの群れ.xlsx
+++ b/doc/03_ファイル構成一覧表_ダチョウの群れ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\C3\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A2E738A-F28C-4048-9D9D-C90F3B677185}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC02B280-7FD5-4B45-8A2E-BCFF22BADC86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sample" sheetId="1" r:id="rId1"/>
@@ -3083,7 +3083,7 @@
   </sheetPr>
   <dimension ref="A2:L57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
@@ -4677,8 +4677,8 @@
   </sheetPr>
   <dimension ref="A2:L35"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5143,7 +5143,7 @@
       <c r="C19" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="17" t="s">
         <v>291</v>
       </c>
       <c r="E19" s="3" t="s">
@@ -5168,7 +5168,7 @@
       <c r="C20" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="19" t="s">
         <v>201</v>
       </c>
       <c r="E20" s="3" t="s">
